--- a/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
+++ b/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>Article Data</t>
   </si>
@@ -195,21 +195,12 @@
     <t>cnW Context Time Score DF 0.8 (Total Success)</t>
   </si>
   <si>
-    <t>CTwCN (β = 0.8)</t>
-  </si>
-  <si>
-    <t>CTwCN (β = 0.5)</t>
-  </si>
-  <si>
     <t>cnW Context Time Score DF 0.5 (Total Success)</t>
   </si>
   <si>
     <t>cnW Context  Time Score DF 0.2 (Total Success)</t>
   </si>
   <si>
-    <t>CTwCN (β = 0.2)</t>
-  </si>
-  <si>
     <t>aaW Context Time Score DF 0.8 (Total Success)</t>
   </si>
   <si>
@@ -219,15 +210,6 @@
     <t>aaW Context Time Score DF 0.2 (Total Success)</t>
   </si>
   <si>
-    <t>CTwAA (β = 0.8)</t>
-  </si>
-  <si>
-    <t>CTwAA (β = 0.5)</t>
-  </si>
-  <si>
-    <t>CTwAA (β = 0.2)</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -322,6 +304,60 @@
   </si>
   <si>
     <t xml:space="preserve">CTS (β = 0.2, α = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.8, α = 0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.8, α = 0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.8, α = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.8, α = 0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.8, α = 0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.8, α = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.5, α = 0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.5, α = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.5, α = 0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.2, α = 0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.5, α = 0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.5, α = 0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.5, α = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.2, α = 0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.2, α = 0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwCN (β = 0.2, α = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.2, α = 0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTwAA (β = 0.2, α = 0.2) </t>
   </si>
 </sst>
 </file>
@@ -389,7 +425,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,44 +458,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -592,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -613,9 +613,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -627,21 +625,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +638,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -782,9 +770,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$65</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -807,41 +795,68 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$L$7:$L$65</c:f>
+              <c:f>'Results 1994-1999'!$L$7:$L$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
@@ -864,31 +879,58 @@
                   <c:v>37.112703300074003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.724451156668628</c:v>
+                  <c:v>38.132283061065039</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>36.908787347875787</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.073543778091903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.783190439641757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.355778774254297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>39.559694726452499</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>38.336199013263247</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38.540114965461456</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.908787347875787</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>36.50095544347937</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37.112703300074003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37.724451156668628</c:v>
+                <c:pt idx="24">
+                  <c:v>41.394938296236383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,9 +949,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$65</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -932,41 +974,68 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$M$7:$M$65</c:f>
+              <c:f>'Results 1994-1999'!$M$7:$M$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
@@ -989,31 +1058,58 @@
                   <c:v>80.696135742806661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.900555679266475</c:v>
+                  <c:v>73.46961612404786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.309395552186075</c:v>
+                  <c:v>72.26519618758806</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>69.856356314668474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72.390680448186345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.309395552186075</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>84.309395552186075</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>74.67403606050766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>77.082875933427275</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>83.104975615726289</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83.104975615726289</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.082875933427275</c:v>
+                <c:pt idx="20">
+                  <c:v>73.46961612404786</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.26519618758806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,9 +1143,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$65</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1072,41 +1168,68 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$N$7:$N$65</c:f>
+              <c:f>'Results 1994-1999'!$N$7:$N$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>51.576440797759247</c:v>
                 </c:pt>
@@ -1129,55 +1252,82 @@
                   <c:v>59.040467292868563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.055459334849843</c:v>
+                  <c:v>56.487203734300451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.782951010320382</c:v>
+                  <c:v>56.065381011244042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.610575215563948</c:v>
+                  <c:v>55.316690659191792</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.9627495899691</c:v>
+                  <c:v>55.071198155882016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.327904166206849</c:v>
+                  <c:v>56.675626101668357</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.103674601212063</c:v>
+                  <c:v>59.281064117636923</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.048628467729785</c:v>
+                  <c:v>57.733623011491787</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59.496857280733913</c:v>
+                  <c:v>54.921023916513697</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.414786915593027</c:v>
+                  <c:v>52.623766136302493</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.182113110111104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.498389911966136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.187469189628288</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.736093917675113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.881128999832583</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.711330083089209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.196512444963467</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.495697436086132</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.890656550897333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:hiLowLines/>
-        <c:axId val="82629376"/>
-        <c:axId val="82630912"/>
+        <c:axId val="92454272"/>
+        <c:axId val="92464256"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="82629376"/>
+        <c:axId val="92454272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82630912"/>
+        <c:crossAx val="92464256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82630912"/>
+        <c:axId val="92464256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1335,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82629376"/>
+        <c:crossAx val="92454272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,7 +1345,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1264,9 +1414,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.3931941548845899E-2"/>
-          <c:y val="8.4748343166204027E-2"/>
+          <c:y val="8.4748343166204054E-2"/>
           <c:w val="0.95791588511954484"/>
-          <c:h val="0.84021317090290715"/>
+          <c:h val="0.84021317090290693"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -1298,9 +1448,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$67</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1323,41 +1473,68 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$D$7:$D$67</c:f>
+              <c:f>'Results 1994-1999'!$D$7:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
@@ -1380,43 +1557,70 @@
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>52.353242048057965</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>64.434759443763653</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.434759443763653</c:v>
+                  <c:v>60.407586978528435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.434759443763653</c:v>
+                  <c:v>52.353242048057965</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>44.298897117587515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.271724652352283</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.32606958282274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.298897117587515</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.298897117587515</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>60.407586978528435</c:v>
+                <c:pt idx="24">
+                  <c:v>64.434759443763653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82480512"/>
-        <c:axId val="82515072"/>
+        <c:axId val="92797184"/>
+        <c:axId val="93868032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82480512"/>
+        <c:axId val="92797184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,14 +1650,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82515072"/>
+        <c:crossAx val="93868032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82515072"/>
+        <c:axId val="93868032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1697,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82480512"/>
+        <c:crossAx val="92797184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,7 +1724,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1603,9 +1807,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$67</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1628,41 +1832,68 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$E$7:$E$67</c:f>
+              <c:f>'Results 1994-1999'!$E$7:$E$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>50.585637331311638</c:v>
                 </c:pt>
@@ -1685,43 +1916,70 @@
                   <c:v>80.696135742806661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.900555679266475</c:v>
+                  <c:v>73.46961612404786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.309395552186075</c:v>
+                  <c:v>72.26519618758806</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>69.856356314668474</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.309395552186075</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>84.309395552186075</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>74.67403606050766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>77.082875933427275</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>83.104975615726289</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83.104975615726289</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.082875933427275</c:v>
+                <c:pt idx="20">
+                  <c:v>73.46961612404786</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.26519618758806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82552320"/>
-        <c:axId val="82553856"/>
+        <c:axId val="94458240"/>
+        <c:axId val="94459776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82552320"/>
+        <c:axId val="94458240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,14 +2009,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82553856"/>
+        <c:crossAx val="94459776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82553856"/>
+        <c:axId val="94459776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +2056,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82552320"/>
+        <c:crossAx val="94458240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1825,7 +2083,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1908,9 +2166,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$67</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1933,41 +2191,68 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$F$7:$F$67</c:f>
+              <c:f>'Results 1994-1999'!$F$7:$F$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>49.33391084812623</c:v>
                 </c:pt>
@@ -1990,43 +2275,70 @@
                   <c:v>47.091460355029582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.838943852728463</c:v>
+                  <c:v>48.58642735042735</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.21268560157791</c:v>
+                  <c:v>47.091460355029582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.21268560157791</c:v>
+                  <c:v>46.343976857330702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.838943852728463</c:v>
+                  <c:v>50.828877843523998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.21268560157791</c:v>
+                  <c:v>50.08139434582511</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.21268560157791</c:v>
+                  <c:v>50.455136094674558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.838943852728463</c:v>
+                  <c:v>48.58642735042735</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>47.838943852728463</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.828877843523998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.08139434582511</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.707652596975677</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>48.21268560157791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.717718606180135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.596493359631815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.58642735042735</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.707652596975677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.960169099276797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82681216"/>
-        <c:axId val="82687104"/>
+        <c:axId val="94509312"/>
+        <c:axId val="94515200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82681216"/>
+        <c:axId val="94509312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,14 +2368,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82687104"/>
+        <c:crossAx val="94515200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82687104"/>
+        <c:axId val="94515200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2415,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82681216"/>
+        <c:crossAx val="94509312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2130,7 +2442,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2213,9 +2525,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$67</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -2238,41 +2550,68 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$G$7:$G$67</c:f>
+              <c:f>'Results 1994-1999'!$G$7:$G$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
@@ -2295,43 +2634,70 @@
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.405759007057199</c:v>
+                  <c:v>69.894450087904062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.398219727621765</c:v>
+                  <c:v>63.653874187198333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.150104547480638</c:v>
+                  <c:v>64.901989367339482</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>72.390680448186345</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>69.894450087904062</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.142565268045203</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.390680448186345</c:v>
+                  <c:v>69.894450087904062</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>63.653874187198333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.405759007057199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>68.646334907762906</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>68.646334907762906</c:v>
+                <c:pt idx="18">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.157643826916051</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.909528646774909</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.405759007057199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.142565268045203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.150104547480638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.398219727621765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82994688"/>
-        <c:axId val="82996224"/>
+        <c:axId val="94666752"/>
+        <c:axId val="94668288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82994688"/>
+        <c:axId val="94666752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,14 +2727,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82996224"/>
+        <c:crossAx val="94668288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82996224"/>
+        <c:axId val="94668288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2774,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82994688"/>
+        <c:crossAx val="94666752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2435,7 +2801,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2477,7 +2843,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.6175248560647619E-2"/>
+          <c:x val="3.6175248560647626E-2"/>
           <c:y val="2.0180289963754532E-2"/>
           <c:w val="0.95260312430341765"/>
           <c:h val="0.92337285964254467"/>
@@ -2516,9 +2882,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$67</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -2541,41 +2907,68 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$H$7:$H$67</c:f>
+              <c:f>'Results 1994-1999'!$H$7:$H$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
@@ -2598,43 +2991,70 @@
                   <c:v>37.112703300074003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.724451156668628</c:v>
+                  <c:v>38.132283061065039</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>36.908787347875787</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.073543778091903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.783190439641757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.355778774254297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>39.559694726452499</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>38.336199013263247</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38.540114965461456</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.908787347875787</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>36.50095544347937</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37.112703300074003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37.724451156668628</c:v>
+                <c:pt idx="24">
+                  <c:v>41.394938296236383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83074432"/>
-        <c:axId val="83080320"/>
+        <c:axId val="96671616"/>
+        <c:axId val="96673152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83074432"/>
+        <c:axId val="96671616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,14 +3084,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83080320"/>
+        <c:crossAx val="96673152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83080320"/>
+        <c:axId val="96673152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +3131,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83074432"/>
+        <c:crossAx val="96671616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2738,7 +3158,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2821,9 +3241,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$66</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$90</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -2846,48 +3266,75 @@
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$I$7:$I$66</c:f>
+              <c:f>'Results 1994-1999'!$I$7:$I$90</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83186816"/>
-        <c:axId val="83188352"/>
+        <c:axId val="96828800"/>
+        <c:axId val="96834688"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83186816"/>
+        <c:axId val="96828800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,14 +3364,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83188352"/>
+        <c:crossAx val="96834688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83188352"/>
+        <c:axId val="96834688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,7 +3411,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83186816"/>
+        <c:crossAx val="96828800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2991,7 +3438,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3003,13 +3450,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>183696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>175845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3546,16 +3993,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1"/>
@@ -3711,16 +4158,16 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:12" ht="36" customHeight="1">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="1"/>
@@ -3865,7 +4312,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="2"/>
@@ -3889,16 +4336,16 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="1"/>
@@ -4098,10 +4545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:N101"/>
+  <dimension ref="C1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
@@ -4109,8 +4556,8 @@
     <col min="1" max="2" width="8.42578125"/>
     <col min="3" max="3" width="41.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" hidden="1" customWidth="1"/>
@@ -4121,14 +4568,14 @@
       <c r="C1" s="17"/>
     </row>
     <row r="2" spans="3:14">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="4" spans="3:14">
       <c r="C4" s="3" t="s">
@@ -4137,10 +4584,10 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -4153,36 +4600,36 @@
         <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="3:14">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="39">
         <f>( 'First Table'!I12 / ( ( ('First Table'!G12 * ('First Table'!G12 - 1))/2) - 'First Table'!H12) *100)</f>
         <v>0.18125049612362076</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <f>( 'First Table'!I13 / ( ( ('First Table'!G13 * ('First Table'!G13 - 1))/2) - 'First Table'!H13)*100)</f>
         <v>0.1082496997376321</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <f>( 'First Table'!I14 / ( ( ('First Table'!G14 * ('First Table'!G14 - 1))/2) - 'First Table'!H14)*100)</f>
         <v>0.13721253095198055</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="26">
         <f>( 'First Table'!I15 / ( ( ('First Table'!G15 * ('First Table'!G15 - 1))/2) - 'First Table'!H15)*100 )</f>
         <v>0.11081716547163969</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="39">
         <f>( 'First Table'!I16 / ( ( ('First Table'!G16 * ('First Table'!G16 - 1))/2) - 'First Table'!H16) *100)</f>
         <v>0.23497753808392538</v>
       </c>
@@ -4190,1890 +4637,1890 @@
         <f>( 'First Table'!I17 / ( ( ('First Table'!G17 * ('First Table'!G17 - 1))/2) - 'First Table'!H17) *100)</f>
         <v>3.2964738701964501E-2</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <f>SUM(D5:H5)</f>
         <v>0.77250743036879854</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23">
         <f>K5/5</f>
         <v>0.15450148607375971</v>
       </c>
     </row>
     <row r="6" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="28">
         <v>14</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <v>42</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27">
         <v>132</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="27">
         <v>51</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="28">
         <v>186</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>1582</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="23">
         <f t="shared" ref="K6:K49" si="0">SUM(D6:H6)</f>
         <v>425</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25">
-        <f t="shared" ref="N6:N65" si="1">K6/5</f>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23">
+        <f t="shared" ref="N6:N89" si="1">K6/5</f>
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="3:14" collapsed="1">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="39">
         <f>((D6/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <f>((E6/   'First Table'!I13    )*100)/E5</f>
         <v>50.585637331311638</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <f>((F6/   'First Table'!I14    )*100)/F5</f>
         <v>49.33391084812623</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="27">
         <f>((G6/   'First Table'!I15    )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="28">
         <f>((H6/   'First Table'!I16    )*100)/H5</f>
         <v>37.92836710886683</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <f>((I6/   'First Table'!I17    )*100)/I5</f>
         <v>315.06481837047784</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>257.88220398879622</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <f>MIN(D7:H7)</f>
         <v>37.92836710886683</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="23">
         <f>MAX(D7:H7)</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="23">
         <f t="shared" si="1"/>
         <v>51.576440797759247</v>
       </c>
     </row>
     <row r="8" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="28">
         <v>14</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <v>52</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>143</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="27">
         <v>53</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="28">
         <v>181</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>1631</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="23">
         <f t="shared" si="0"/>
         <v>443</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <f t="shared" ref="L8:L37" si="2">MIN(D8:H8)</f>
         <v>14</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="23">
         <f t="shared" ref="M8:M37" si="3">MAX(D8:H8)</f>
         <v>181</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="23">
         <f t="shared" si="1"/>
         <v>88.6</v>
       </c>
     </row>
     <row r="9" spans="3:14" collapsed="1">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="28">
         <f>((D8/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <f>((E8/   'First Table'!I13    )*100)/E5</f>
         <v>62.629836695909653</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="33">
         <f>((F8/   'First Table'!I14    )*100)/F5</f>
         <v>53.445070085470078</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="27">
         <f>((G8/ 'First Table'!I15  )*100)/G5</f>
         <v>66.150104547480638</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="28">
         <f>((H8/   'First Table'!I16    )*100)/H5</f>
         <v>36.908787347875787</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <f>((I8/   'First Table'!I17    )*100)/I5</f>
         <v>324.82346318726252</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="23">
         <f t="shared" si="0"/>
         <v>275.51421319002935</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <f t="shared" si="2"/>
         <v>36.908787347875787</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="23">
         <f t="shared" si="3"/>
         <v>66.150104547480638</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="23">
         <f t="shared" si="1"/>
         <v>55.102842638005868</v>
       </c>
     </row>
     <row r="10" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="28">
         <v>14</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <v>55</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>126</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="27">
         <v>47</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="28">
         <v>163</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>1503</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="23">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="23">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="23">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="3:14" collapsed="1">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="28">
         <f>((D10/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="27">
         <f>((E10/   'First Table'!I13    )*100)/E5</f>
         <v>66.243096505289046</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <f>((F10/   'First Table'!I14    )*100)/F5</f>
         <v>47.091460355029582</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="27">
         <f>((G10/ 'First Table'!I15  )*100)/G5</f>
         <v>58.661413466633768</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="28">
         <f>((H10/   'First Table'!I16    )*100)/H5</f>
         <v>33.238300208308033</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <f>((I10/   'First Table'!I17    )*100)/I5</f>
         <v>299.33149305362082</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="23">
         <f t="shared" si="0"/>
         <v>261.61468504855361</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <f t="shared" si="2"/>
         <v>33.238300208308033</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="23">
         <f t="shared" si="3"/>
         <v>66.243096505289046</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="23">
         <f t="shared" si="1"/>
         <v>52.322937009710721</v>
       </c>
     </row>
     <row r="12" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="28">
         <v>1</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <v>2</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>71</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="27">
         <v>4</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="28">
         <v>27</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>158</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="23">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="23">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:14" collapsed="1">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="28">
         <f>((D12/ 'First Table'!I12  )*100)/D5</f>
         <v>4.0271724652352283</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="27">
         <f>((E12/   'First Table'!I13    )*100)/E5</f>
         <v>2.4088398729196023</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="27">
         <f>((F12/   'First Table'!I14    )*100)/F5</f>
         <v>26.535664168310316</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="27">
         <f>((G12/ 'First Table'!I15  )*100)/G5</f>
         <v>4.9924607205645755</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="28">
         <f>((H12/   'First Table'!I16    )*100)/H5</f>
         <v>5.5057307093516368</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <f>((I12/   'First Table'!I17    )*100)/I5</f>
         <v>31.466650633713961</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="23">
         <f t="shared" si="0"/>
         <v>43.469867936381355</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="23">
         <f t="shared" si="2"/>
         <v>2.4088398729196023</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="23">
         <f t="shared" si="3"/>
         <v>26.535664168310316</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="23">
         <f t="shared" si="1"/>
         <v>8.6939735872762718</v>
       </c>
     </row>
     <row r="14" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="28">
         <v>14</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>66</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="28">
         <v>125</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="28">
         <v>54</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="28">
         <v>184</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>1222</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>443</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="23">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="23">
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="23">
         <f t="shared" si="1"/>
         <v>88.6</v>
       </c>
     </row>
     <row r="15" spans="3:14" collapsed="1">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="28">
         <f>((D14/ 'First Table'!I12  )*100)/'Results 1994-1999'!D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <f>((E14/   'First Table'!I13   )*100)/'Results 1994-1999'!E5</f>
         <v>79.491715806346861</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="28">
         <f>((F14/   'First Table'!I14    )*100)/'Results 1994-1999'!F5</f>
         <v>46.717718606180135</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="28">
         <f>((G14/ 'First Table'!I15  )*100)/'Results 1994-1999'!G5</f>
         <v>67.398219727621765</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="28">
         <f>((H14/   'First Table'!I16    )*100)/'Results 1994-1999'!H5</f>
         <v>37.520535204470413</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <f>((I14/   'First Table'!I17    )*100)/'Results 1994-1999'!I5</f>
         <v>243.36865236961057</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>287.50860385791242</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="23">
         <f t="shared" si="2"/>
         <v>37.520535204470413</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="23">
         <f t="shared" si="3"/>
         <v>79.491715806346861</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="23">
         <f t="shared" si="1"/>
         <v>57.501720771582484</v>
       </c>
     </row>
     <row r="16" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="28">
         <v>15</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>69</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <v>125</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="28">
         <v>54</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="28">
         <v>189</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>1231</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="23">
         <f t="shared" si="0"/>
         <v>452</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="23">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="23">
         <f t="shared" si="1"/>
         <v>90.4</v>
       </c>
     </row>
     <row r="17" spans="3:14" collapsed="1">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="28">
         <f>((D16/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="31">
         <f>((E16/   'First Table'!I13   )*100)/E5</f>
         <v>83.104975615726289</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="28">
         <f>((F16/   'First Table'!I14    )*100)/F5</f>
         <v>46.717718606180135</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="28">
         <f>((G16/ 'First Table'!I15  )*100)/G5</f>
         <v>67.398219727621765</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="28">
         <f>((H16/   'First Table'!I16    )*100)/H5</f>
         <v>38.540114965461456</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <f>((I16/   'First Table'!I17    )*100)/I5</f>
         <v>245.16105651963221</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="23">
         <f t="shared" si="0"/>
         <v>296.16861589351805</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="23">
         <f t="shared" si="2"/>
         <v>38.540114965461456</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="23">
         <f t="shared" si="3"/>
         <v>83.104975615726289</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="23">
         <f t="shared" si="1"/>
         <v>59.233723178703613</v>
       </c>
     </row>
     <row r="18" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="28">
         <v>15</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="33">
         <v>67</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="27">
         <v>126</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="27">
         <v>56</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="28">
         <v>182</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>1270</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="23">
         <f t="shared" si="0"/>
         <v>446</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="23">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="23">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="23">
         <f t="shared" si="1"/>
         <v>89.2</v>
       </c>
     </row>
     <row r="19" spans="3:14" collapsed="1">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
         <f>((D18/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="33">
         <f>((E18/   'First Table'!I13   )*100)/E5</f>
         <v>80.696135742806661</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="27">
         <f>((F18/   'First Table'!I14    )*100)/F5</f>
         <v>47.091460355029582</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <f>((G18/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="28">
         <f>((H18/   'First Table'!I16    )*100)/H5</f>
         <v>37.112703300074003</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <f>((I18/   'First Table'!I17    )*100)/I5</f>
         <v>252.92814116972619</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="23">
         <f t="shared" si="0"/>
         <v>295.20233646434281</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="23">
         <f t="shared" si="2"/>
         <v>37.112703300074003</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="23">
         <f t="shared" si="3"/>
         <v>80.696135742806661</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="23">
         <f t="shared" si="1"/>
         <v>59.040467292868563</v>
       </c>
     </row>
     <row r="20" spans="3:14" hidden="1" outlineLevel="1">
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="C20" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="28">
         <v>15</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="28">
         <v>68</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="28">
         <v>128</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="28">
         <v>50</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="28">
         <v>185</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>1264</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="23">
         <f t="shared" si="0"/>
         <v>446</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="23">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="23">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="23">
         <f t="shared" si="1"/>
         <v>89.2</v>
       </c>
     </row>
-    <row r="21" spans="3:14" collapsed="1">
-      <c r="C21" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="21">
+    <row r="21" spans="3:14" hidden="1" collapsed="1">
+      <c r="C21" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="28">
         <f>((D20/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="29">
         <f>((E20/   'First Table'!I13   )*100)/E5</f>
         <v>81.900555679266475</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="28">
         <f>((F20/   'First Table'!I14    )*100)/F5</f>
         <v>47.838943852728463</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="28">
         <f>((G20/ 'First Table'!I15  )*100)/G5</f>
         <v>62.405759007057199</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="28">
         <f>((H20/   'First Table'!I16    )*100)/H5</f>
         <v>37.724451156668628</v>
       </c>
-      <c r="I21" s="21" t="e">
+      <c r="I21" s="20" t="e">
         <f>((I20/   'First Table'!I11    )*100)/#REF!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="23">
         <f t="shared" si="0"/>
         <v>290.27729667424921</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="23">
         <f t="shared" si="2"/>
         <v>37.724451156668628</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="23">
         <f t="shared" si="3"/>
         <v>81.900555679266475</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="23">
         <f t="shared" si="1"/>
         <v>58.055459334849843</v>
       </c>
     </row>
     <row r="22" spans="3:14" hidden="1" outlineLevel="1">
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="C22" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="28">
         <v>16</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>70</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="28">
         <v>129</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="28">
         <v>54</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="28">
         <v>194</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>1239</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="23">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="23">
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="23">
         <f t="shared" si="1"/>
         <v>92.6</v>
       </c>
     </row>
-    <row r="23" spans="3:14" collapsed="1">
+    <row r="23" spans="3:14" hidden="1" collapsed="1">
       <c r="C23" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="33">
+        <v>75</v>
+      </c>
+      <c r="D23" s="28">
         <f>((D22/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="29">
         <f>((E22/   'First Table'!I13   )*100)/E5</f>
         <v>84.309395552186075</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="28">
         <f>((F22/   'First Table'!I14    )*100)/F5</f>
         <v>48.21268560157791</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="28">
         <f>((G22/ 'First Table'!I15  )*100)/G5</f>
         <v>67.398219727621765</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="28">
         <f>((H22/   'First Table'!I16    )*100)/H5</f>
         <v>39.559694726452499</v>
       </c>
-      <c r="I23" s="21" t="e">
+      <c r="I23" s="20" t="e">
         <f>((I22/   'First Table'!I11    )*100)/#REF!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="23">
         <f t="shared" si="0"/>
         <v>303.9147550516019</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="23">
         <f t="shared" si="2"/>
         <v>39.559694726452499</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="23">
         <f t="shared" si="3"/>
         <v>84.309395552186075</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="23">
         <f t="shared" si="1"/>
         <v>60.782951010320382</v>
       </c>
     </row>
     <row r="24" spans="3:14" hidden="1" outlineLevel="1">
       <c r="C24" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="33">
+        <v>70</v>
+      </c>
+      <c r="D24" s="28">
         <v>16</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>66</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="28">
         <v>129</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="28">
         <v>53</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="28">
         <v>195</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <v>1232</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="23">
         <f t="shared" si="0"/>
         <v>459</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="23">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="23">
         <f t="shared" si="1"/>
         <v>91.8</v>
       </c>
     </row>
-    <row r="25" spans="3:14" collapsed="1">
+    <row r="25" spans="3:14" hidden="1" collapsed="1">
       <c r="C25" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="33">
+        <v>76</v>
+      </c>
+      <c r="D25" s="28">
         <f>((D24/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="29">
         <f>((E24/   'First Table'!I13   )*100)/E5</f>
         <v>79.491715806346861</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="28">
         <f>((F24/   'First Table'!I14    )*100)/F5</f>
         <v>48.21268560157791</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="28">
         <f>((G24/ 'First Table'!I15  )*100)/G5</f>
         <v>66.150104547480638</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="28">
         <f>((H24/   'First Table'!I16    )*100)/H5</f>
         <v>39.763610678650707</v>
       </c>
-      <c r="I25" s="21" t="e">
+      <c r="I25" s="20" t="e">
         <f>((I24/   'First Table'!I11    )*100)/#REF!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="23">
         <f t="shared" si="0"/>
         <v>298.05287607781975</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="23">
         <f t="shared" si="2"/>
         <v>39.763610678650707</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="23">
         <f t="shared" si="3"/>
         <v>79.491715806346861</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="23">
         <f t="shared" si="1"/>
         <v>59.610575215563948</v>
       </c>
     </row>
     <row r="26" spans="3:14" hidden="1" outlineLevel="1">
       <c r="C26" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="33">
+        <v>71</v>
+      </c>
+      <c r="D26" s="28">
         <v>16</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>70</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="28">
         <v>128</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="28">
         <v>56</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="28">
         <v>188</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <v>1264</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="23">
         <f t="shared" si="0"/>
         <v>458</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="23">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="23">
         <f t="shared" si="1"/>
         <v>91.6</v>
       </c>
     </row>
-    <row r="27" spans="3:14" collapsed="1">
+    <row r="27" spans="3:14" hidden="1" collapsed="1">
       <c r="C27" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="33">
+        <v>77</v>
+      </c>
+      <c r="D27" s="28">
         <f>((D26/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="29">
         <f>((E26/   'First Table'!I13   )*100)/E5</f>
         <v>84.309395552186075</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="28">
         <f>((F26/   'First Table'!I14    )*100)/F5</f>
         <v>47.838943852728463</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="28">
         <f>((G26/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="28">
         <f>((H26/   'First Table'!I16    )*100)/H5</f>
         <v>38.336199013263247</v>
       </c>
-      <c r="I27" s="21" t="e">
+      <c r="I27" s="20" t="e">
         <f>((I26/   'First Table'!I11    )*100)/#REF!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="23">
         <f t="shared" si="0"/>
         <v>304.81374794984549</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="23">
         <f t="shared" si="2"/>
         <v>38.336199013263247</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="23">
         <f t="shared" si="3"/>
         <v>84.309395552186075</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="23">
         <f t="shared" si="1"/>
         <v>60.9627495899691</v>
       </c>
     </row>
     <row r="28" spans="3:14" hidden="1" outlineLevel="1">
       <c r="C28" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="33">
+        <v>72</v>
+      </c>
+      <c r="D28" s="28">
         <v>16</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>70</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="28">
         <v>129</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="28">
         <v>57</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="28">
         <v>189</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="20">
         <v>1239</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="23">
         <f t="shared" si="0"/>
         <v>461</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="23">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="23">
         <f t="shared" si="1"/>
         <v>92.2</v>
       </c>
     </row>
-    <row r="29" spans="3:14" collapsed="1">
+    <row r="29" spans="3:14" hidden="1" collapsed="1">
       <c r="C29" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="33">
+        <v>78</v>
+      </c>
+      <c r="D29" s="28">
         <f>((D28/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="29">
         <f>((E28/   'First Table'!I13   )*100)/E5</f>
         <v>84.309395552186075</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="28">
         <f>((F28/   'First Table'!I14    )*100)/F5</f>
         <v>48.21268560157791</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="28">
         <f>((G28/ 'First Table'!I15  )*100)/G5</f>
         <v>71.142565268045203</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="28">
         <f>((H28/   'First Table'!I16    )*100)/H5</f>
         <v>38.540114965461456</v>
       </c>
-      <c r="I29" s="21" t="e">
+      <c r="I29" s="20" t="e">
         <f>((I28/   'First Table'!I11    )*100)/#REF!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="23">
         <f t="shared" si="0"/>
         <v>306.63952083103425</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="23">
         <f t="shared" si="2"/>
         <v>38.540114965461456</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="23">
         <f t="shared" si="3"/>
         <v>84.309395552186075</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="23">
         <f t="shared" si="1"/>
         <v>61.327904166206849</v>
       </c>
     </row>
     <row r="30" spans="3:14" hidden="1" outlineLevel="1">
-      <c r="C30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="C30" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="28">
         <v>14</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>64</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="28">
         <v>129</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="28">
         <v>56</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="28">
         <v>191</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="20">
         <v>1232</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="23">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="23">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="23">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="23">
         <f t="shared" si="1"/>
         <v>90.8</v>
       </c>
     </row>
-    <row r="31" spans="3:14" collapsed="1">
-      <c r="C31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="21">
+    <row r="31" spans="3:14" hidden="1" collapsed="1">
+      <c r="C31" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="28">
         <f>((D30/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="29">
         <f>((E30/   'First Table'!I13   )*100)/E5</f>
         <v>77.082875933427275</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="28">
         <f>((F30/   'First Table'!I14    )*100)/F5</f>
         <v>48.21268560157791</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="28">
         <f>((G30/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="28">
         <f>((H30/   'First Table'!I16    )*100)/H5</f>
         <v>38.947946869857873</v>
       </c>
-      <c r="I31" s="21" t="e">
+      <c r="I31" s="20" t="e">
         <f>((I30/   'First Table'!I11    )*100)/#REF!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="23">
         <f t="shared" si="0"/>
         <v>290.5183730060603</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="23">
         <f t="shared" si="2"/>
         <v>38.947946869857873</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31" s="23">
         <f t="shared" si="3"/>
         <v>77.082875933427275</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N31" s="23">
         <f t="shared" si="1"/>
         <v>58.103674601212063</v>
       </c>
     </row>
     <row r="32" spans="3:14" hidden="1" outlineLevel="1">
-      <c r="C32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="21">
+      <c r="C32" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="28">
         <v>15</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>69</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="28">
         <v>128</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="28">
         <v>58</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="28">
         <v>179</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="20">
         <v>1264</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="23">
         <f t="shared" si="0"/>
         <v>449</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="23">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M32" s="23">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="23">
         <f t="shared" si="1"/>
         <v>89.8</v>
       </c>
     </row>
-    <row r="33" spans="3:14" collapsed="1">
+    <row r="33" spans="3:14" hidden="1" collapsed="1">
       <c r="C33" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="21">
+        <v>81</v>
+      </c>
+      <c r="D33" s="28">
         <f>((D32/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="29">
         <f>((E32/   'First Table'!I13   )*100)/E5</f>
         <v>83.104975615726289</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="28">
         <f>((F32/   'First Table'!I14    )*100)/F5</f>
         <v>47.838943852728463</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="28">
         <f>((G32/ 'First Table'!I15  )*100)/G5</f>
         <v>72.390680448186345</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="28">
         <f>((H32/   'First Table'!I16    )*100)/H5</f>
         <v>36.50095544347937</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="20">
         <f>((I32/   'First Table'!I17    )*100)/I5</f>
         <v>251.73320506971169</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="23">
         <f t="shared" si="0"/>
         <v>300.24314233864891</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="23">
         <f t="shared" si="2"/>
         <v>36.50095544347937</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M33" s="23">
         <f t="shared" si="3"/>
         <v>83.104975615726289</v>
       </c>
-      <c r="N33" s="25">
+      <c r="N33" s="23">
         <f t="shared" si="1"/>
         <v>60.048628467729785</v>
       </c>
     </row>
     <row r="34" spans="3:14" hidden="1" outlineLevel="1">
-      <c r="C34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="C34" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="28">
         <v>15</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="28">
         <v>69</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="28">
         <v>129</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="28">
         <v>55</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="28">
         <v>182</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="20">
         <v>1239</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="23">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="23">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="23">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="23">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="3:14" collapsed="1">
-      <c r="C35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="21">
+    <row r="35" spans="3:14" hidden="1" collapsed="1">
+      <c r="C35" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="28">
         <f>((D34/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="29">
         <f>((E34/   'First Table'!I13   )*100)/E5</f>
         <v>83.104975615726289</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="28">
         <f>((F34/   'First Table'!I14    )*100)/F5</f>
         <v>48.21268560157791</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="28">
         <f>((G34/ 'First Table'!I15  )*100)/G5</f>
         <v>68.646334907762906</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="28">
         <f>((H34/   'First Table'!I16    )*100)/H5</f>
         <v>37.112703300074003</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="20">
         <f>((I34/   'First Table'!I17    )*100)/I5</f>
         <v>246.75430465298484</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="23">
         <f t="shared" si="0"/>
         <v>297.48428640366956</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="23">
         <f t="shared" si="2"/>
         <v>37.112703300074003</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="23">
         <f t="shared" si="3"/>
         <v>83.104975615726289</v>
       </c>
-      <c r="N35" s="25">
+      <c r="N35" s="23">
         <f t="shared" si="1"/>
         <v>59.496857280733913</v>
       </c>
     </row>
     <row r="36" spans="3:14" hidden="1" outlineLevel="1">
-      <c r="C36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="21">
+      <c r="C36" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="28">
         <v>15</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>64</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="28">
         <v>129</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="28">
         <v>55</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="28">
         <v>185</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="20">
         <v>1232</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="23">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="23">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="23">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="N36" s="25">
+      <c r="N36" s="23">
         <f t="shared" si="1"/>
         <v>89.6</v>
       </c>
     </row>
-    <row r="37" spans="3:14" collapsed="1">
-      <c r="C37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="21">
+    <row r="37" spans="3:14" hidden="1" collapsed="1">
+      <c r="C37" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="28">
         <f>((D36/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="29">
         <f>((E36/   'First Table'!I13   )*100)/E5</f>
         <v>77.082875933427275</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="28">
         <f>((F36/   'First Table'!I14    )*100)/F5</f>
         <v>48.21268560157791</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="28">
         <f>((G36/ 'First Table'!I15  )*100)/G5</f>
         <v>68.646334907762906</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="28">
         <f>((H36/   'First Table'!I16    )*100)/H5</f>
         <v>37.724451156668628</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="20">
         <f>((I36/   'First Table'!I17    )*100)/I5</f>
         <v>245.3602125363013</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="23">
         <f t="shared" si="0"/>
         <v>292.07393457796513</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="23">
         <f t="shared" si="2"/>
         <v>37.724451156668628</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="23">
         <f t="shared" si="3"/>
         <v>77.082875933427275</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N37" s="23">
         <f t="shared" si="1"/>
         <v>58.414786915593027</v>
       </c>
     </row>
     <row r="38" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="28">
         <v>14</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="28">
         <v>60</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="28">
         <v>120</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="28">
         <v>51</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="28">
         <v>175</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="20">
         <v>176</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="23">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="L38" s="25">
-        <f t="shared" ref="L8:L65" si="4">MIN(D38:H38)</f>
+      <c r="L38" s="23">
+        <f t="shared" ref="L38:L89" si="4">MIN(D38:H38)</f>
         <v>14</v>
       </c>
-      <c r="M38" s="25">
-        <f t="shared" ref="M8:M65" si="5">MAX(D38:H38)</f>
+      <c r="M38" s="23">
+        <f t="shared" ref="M38:M89" si="5">MAX(D38:H38)</f>
         <v>175</v>
       </c>
-      <c r="N38" s="25">
+      <c r="N38" s="23">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="3:14" hidden="1" collapsed="1">
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="28">
         <f>((D38/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="28">
         <f>((E38/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="28">
         <f>((F38/   'First Table'!I14    )*100)/F5</f>
         <v>44.849009861932942</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="28">
         <f>((G38/ 'First Table'!I15  )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="28">
         <f>((H38/   'First Table'!I16    )*100)/H5</f>
         <v>35.685291634686529</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="20">
         <f>((I38/   'First Table'!I17    )*100)/I5</f>
         <v>35.051458933757331</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K39" s="23">
         <f t="shared" si="0"/>
         <v>272.83378638469907</v>
       </c>
-      <c r="L39" s="25">
+      <c r="L39" s="23">
         <f t="shared" si="4"/>
         <v>35.685291634686529</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="23">
         <f t="shared" si="5"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N39" s="25">
+      <c r="N39" s="23">
         <f t="shared" si="1"/>
         <v>54.566757276939811</v>
       </c>
     </row>
     <row r="40" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="28">
         <v>15</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="28">
         <v>58</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="28">
         <v>120</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="28">
         <v>51</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="28">
         <v>178</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="20">
         <v>179</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="23">
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="23">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M40" s="23">
         <f t="shared" si="5"/>
         <v>178</v>
       </c>
-      <c r="N40" s="25">
+      <c r="N40" s="23">
         <f t="shared" si="1"/>
         <v>84.4</v>
       </c>
     </row>
     <row r="41" spans="3:14" hidden="1" collapsed="1">
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="28">
         <f>((D40/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="28">
         <f>((E40/   'First Table'!I13   )*100)/E5</f>
         <v>69.856356314668474</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="28">
         <f>((F40/   'First Table'!I14    )*100)/F5</f>
         <v>44.849009861932942</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="28">
         <f>((G40/ 'First Table'!I15  )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="28">
         <f>((H40/   'First Table'!I16    )*100)/H5</f>
         <v>36.297039491281161</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="20">
         <f>((I40/   'First Table'!I17    )*100)/I5</f>
         <v>35.648926983764554</v>
       </c>
-      <c r="K41" s="25">
+      <c r="K41" s="23">
         <f t="shared" si="0"/>
         <v>275.06386683360932</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="23">
         <f t="shared" si="4"/>
         <v>36.297039491281161</v>
       </c>
-      <c r="M41" s="25">
+      <c r="M41" s="23">
         <f t="shared" si="5"/>
         <v>69.856356314668474</v>
       </c>
-      <c r="N41" s="25">
+      <c r="N41" s="23">
         <f t="shared" si="1"/>
         <v>55.012773366721866</v>
       </c>
     </row>
     <row r="42" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="28">
         <v>16</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="28">
         <v>59</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="28">
         <v>120</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="28">
         <v>51</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="28">
         <v>172</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="20">
         <v>173</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K42" s="23">
         <f t="shared" si="0"/>
         <v>418</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L42" s="23">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M42" s="25">
+      <c r="M42" s="23">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N42" s="23">
         <f t="shared" si="1"/>
         <v>83.6</v>
       </c>
     </row>
     <row r="43" spans="3:14" hidden="1" collapsed="1">
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="28">
         <f>((D42/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="28">
         <f>((E42/   'First Table'!I13   )*100)/E5</f>
         <v>71.06077625112826</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="28">
         <f>((F42/   'First Table'!I14    )*100)/F5</f>
         <v>44.849009861932942</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="28">
         <f>((G42/ 'First Table'!I15  )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="28">
         <f>((H42/   'First Table'!I16    )*100)/H5</f>
         <v>35.073543778091903</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="20">
         <f>((I42/   'First Table'!I17    )*100)/I5</f>
         <v>34.453990883750095</v>
       </c>
-      <c r="K43" s="25">
+      <c r="K43" s="23">
         <f t="shared" si="0"/>
         <v>279.07196352211508</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L43" s="23">
         <f t="shared" si="4"/>
         <v>35.073543778091903</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M43" s="23">
         <f t="shared" si="5"/>
         <v>71.06077625112826</v>
       </c>
-      <c r="N43" s="25">
+      <c r="N43" s="23">
         <f t="shared" si="1"/>
         <v>55.814392704423014</v>
       </c>
     </row>
     <row r="44" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="28">
         <v>15</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="28">
         <v>61</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="28">
         <v>134</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="28">
         <v>57</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="28">
         <v>196</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="20">
         <v>197</v>
       </c>
-      <c r="K44" s="25">
+      <c r="K44" s="23">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L44" s="23">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="M44" s="25">
+      <c r="M44" s="23">
         <f t="shared" si="5"/>
         <v>196</v>
       </c>
-      <c r="N44" s="25">
+      <c r="N44" s="23">
         <f t="shared" si="1"/>
         <v>92.6</v>
       </c>
     </row>
     <row r="45" spans="3:14" hidden="1" collapsed="1">
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="28">
         <f>((D44/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="28">
         <f>((E44/   'First Table'!I13   )*100)/E5</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="28">
         <f>((F44/   'First Table'!I14    )*100)/F5</f>
         <v>50.08139434582511</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="28">
         <f>((G44/ 'First Table'!I15  )*100)/G5</f>
         <v>71.142565268045203</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="28">
         <f>((H44/   'First Table'!I16    )*100)/H5</f>
         <v>39.967526630848923</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="20">
         <f>((I44/   'First Table'!I17    )*100)/I5</f>
         <v>39.233735283807917</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K45" s="23">
         <f t="shared" si="0"/>
         <v>295.0686893472955</v>
       </c>
-      <c r="L45" s="25">
+      <c r="L45" s="23">
         <f t="shared" si="4"/>
         <v>39.967526630848923</v>
       </c>
-      <c r="M45" s="25">
+      <c r="M45" s="23">
         <f t="shared" si="5"/>
         <v>73.46961612404786</v>
       </c>
-      <c r="N45" s="25">
+      <c r="N45" s="23">
         <f t="shared" si="1"/>
         <v>59.013737869459099</v>
       </c>
     </row>
     <row r="46" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="28">
         <v>16</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="28">
         <v>60</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="28">
         <v>136</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="28">
         <v>56</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="28">
         <v>196</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="20">
         <v>197</v>
       </c>
-      <c r="K46" s="25">
+      <c r="K46" s="23">
         <f t="shared" si="0"/>
         <v>464</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46" s="23">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M46" s="25">
+      <c r="M46" s="23">
         <f t="shared" si="5"/>
         <v>196</v>
       </c>
-      <c r="N46" s="25">
+      <c r="N46" s="23">
         <f t="shared" si="1"/>
         <v>92.8</v>
       </c>
     </row>
     <row r="47" spans="3:14" hidden="1" collapsed="1">
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="28">
         <f>((D46/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="28">
         <f>((E46/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="28">
         <f>((F46/   'First Table'!I14    )*100)/F5</f>
         <v>50.828877843523998</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="28">
         <f>((G46/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="28">
         <f>((H46/   'First Table'!I16    )*100)/H5</f>
         <v>39.967526630848923</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="20">
         <f>((I46/   'First Table'!I17    )*100)/I5</f>
         <v>39.233735283807917</v>
       </c>
-      <c r="K47" s="25">
+      <c r="K47" s="23">
         <f t="shared" si="0"/>
         <v>297.39081019362868</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="23">
         <f t="shared" si="4"/>
         <v>39.967526630848923</v>
       </c>
-      <c r="M47" s="25">
+      <c r="M47" s="23">
         <f t="shared" si="5"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N47" s="25">
+      <c r="N47" s="23">
         <f t="shared" si="1"/>
         <v>59.478162038725735</v>
       </c>
     </row>
     <row r="48" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="28">
         <v>16</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="28">
         <v>61</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="28">
         <v>134</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="28">
         <v>53</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="28">
         <v>193</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="20">
         <v>194</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K48" s="23">
         <f t="shared" si="0"/>
         <v>457</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L48" s="23">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M48" s="25">
+      <c r="M48" s="23">
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
-      <c r="N48" s="25">
+      <c r="N48" s="23">
         <f t="shared" si="1"/>
         <v>91.4</v>
       </c>
     </row>
     <row r="49" spans="3:14" hidden="1" collapsed="1">
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="28">
         <f>((D48/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="28">
         <f>((E48/   'First Table'!I13   )*100)/E5</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="28">
         <f>((F48/   'First Table'!I14    )*100)/F5</f>
         <v>50.08139434582511</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="28">
         <f>((G48/ 'First Table'!I15  )*100)/G5</f>
         <v>66.150104547480638</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="28">
         <f>((H48/   'First Table'!I16    )*100)/H5</f>
         <v>39.355778774254297</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="20">
         <f>((I48/   'First Table'!I17    )*100)/I5</f>
         <v>38.636267233800687</v>
       </c>
-      <c r="K49" s="25">
+      <c r="K49" s="23">
         <f t="shared" si="0"/>
         <v>293.49165323537159</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L49" s="23">
         <f t="shared" si="4"/>
         <v>39.355778774254297</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="23">
         <f t="shared" si="5"/>
         <v>73.46961612404786</v>
       </c>
-      <c r="N49" s="25">
+      <c r="N49" s="23">
         <f t="shared" si="1"/>
         <v>58.698330647074314</v>
       </c>
     </row>
     <row r="50" spans="3:14" hidden="1" outlineLevel="1">
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="28">
         <v>10</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="28">
         <v>51</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="28">
         <v>130</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="28">
         <v>52</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="28">
         <v>195</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="20">
         <v>196</v>
       </c>
-      <c r="K50" s="25">
+      <c r="K50" s="23">
         <f>SUM(D50:H50)</f>
         <v>438</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="23">
         <f>MIN(D50:H50)</f>
         <v>10</v>
       </c>
-      <c r="M50" s="25">
+      <c r="M50" s="23">
         <f>MAX(D50:H50)</f>
         <v>195</v>
       </c>
@@ -6086,732 +6533,1738 @@
       <c r="C51" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="28">
         <f>((D50/ 'First Table'!I12  )*100)/D5</f>
         <v>40.271724652352283</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="29">
         <f>((E50/   'First Table'!I13   )*100)/E5</f>
         <v>61.42541675944986</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="28">
         <f>((F50/   'First Table'!I14    )*100)/F5</f>
         <v>48.58642735042735</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="28">
         <f>((G50/ 'First Table'!I15  )*100)/G5</f>
         <v>64.901989367339482</v>
       </c>
-      <c r="H51" s="33">
+      <c r="H51" s="28">
         <f>((H50/   'First Table'!I16    )*100)/H5</f>
         <v>39.763610678650707</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="20">
         <f>((I50/   'First Table'!I17    )*100)/I5</f>
         <v>39.034579267138838</v>
       </c>
-      <c r="K51" s="25">
+      <c r="K51" s="23">
         <f>SUM(D51:H51)</f>
         <v>254.94916880821967</v>
       </c>
-      <c r="L51" s="25">
+      <c r="L51" s="23">
         <f>MIN(D51:H51)</f>
         <v>39.763610678650707</v>
       </c>
-      <c r="M51" s="25">
+      <c r="M51" s="23">
         <f>MAX(D51:H51)</f>
         <v>64.901989367339482</v>
       </c>
-      <c r="N51" s="25">
+      <c r="N51" s="23">
         <f>K51/5</f>
         <v>50.989833761643936</v>
       </c>
     </row>
     <row r="52" spans="3:14" hidden="1" outlineLevel="1">
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="28">
         <v>14</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="28">
         <v>50</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="28">
         <v>153</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="28">
         <v>55</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="28">
         <v>178</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="20">
         <v>179</v>
       </c>
-      <c r="K52" s="25">
+      <c r="K52" s="23">
         <f>SUM(D52:H52)</f>
         <v>450</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="23">
         <f>MIN(D52:H52)</f>
         <v>14</v>
       </c>
-      <c r="M52" s="25">
+      <c r="M52" s="23">
         <f>MAX(D52:H52)</f>
         <v>178</v>
       </c>
-      <c r="N52" s="25">
+      <c r="N52" s="23">
         <f>K52/5</f>
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="3:14" hidden="1" collapsed="1">
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="28">
         <f>((D52/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="29">
         <f>((E52/   'First Table'!I13   )*100)/E5</f>
         <v>60.220996822990053</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="28">
         <f>((F52/   'First Table'!I14    )*100)/F5</f>
         <v>57.182487573964494</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="28">
         <f>((G52/ 'First Table'!I15  )*100)/G5</f>
         <v>68.646334907762906</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="28">
         <f>((H52/   'First Table'!I16    )*100)/H5</f>
         <v>36.297039491281161</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="20">
         <f>((I52/   'First Table'!I17    )*100)/I5</f>
         <v>35.648926983764554</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K53" s="23">
         <f>SUM(D53:H53)</f>
         <v>278.72727330929183</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="23">
         <f>MIN(D53:H53)</f>
         <v>36.297039491281161</v>
       </c>
-      <c r="M53" s="25">
+      <c r="M53" s="23">
         <f>MAX(D53:H53)</f>
         <v>68.646334907762906</v>
       </c>
-      <c r="N53" s="25">
+      <c r="N53" s="23">
         <f>K53/5</f>
         <v>55.745454661858368</v>
       </c>
     </row>
     <row r="54" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="28">
+        <v>13</v>
+      </c>
+      <c r="E54" s="28">
+        <v>61</v>
+      </c>
+      <c r="F54" s="28">
+        <v>130</v>
+      </c>
+      <c r="G54" s="28">
+        <v>56</v>
+      </c>
+      <c r="H54" s="28">
+        <v>187</v>
+      </c>
+      <c r="I54" s="20">
+        <v>176</v>
+      </c>
+      <c r="K54" s="23">
+        <f>SUM(D54:H54)</f>
+        <v>447</v>
+      </c>
+      <c r="L54" s="23">
+        <f>MIN(D54:H54)</f>
+        <v>13</v>
+      </c>
+      <c r="M54" s="23">
+        <f>MAX(D54:H54)</f>
+        <v>187</v>
+      </c>
+      <c r="N54" s="23">
+        <f>K54/5</f>
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" collapsed="1">
+      <c r="C55" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="28">
+        <f>((D54/ 'First Table'!I12  )*100)/D5</f>
+        <v>52.353242048057965</v>
+      </c>
+      <c r="E55" s="28">
+        <f>((E54/    'First Table'!I13   )*100)/E5</f>
+        <v>73.46961612404786</v>
+      </c>
+      <c r="F55" s="28">
+        <f>((F54/    'First Table'!I14    )*100)/F5</f>
+        <v>48.58642735042735</v>
+      </c>
+      <c r="G55" s="28">
+        <f>((G54/  'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
+      </c>
+      <c r="H55" s="28">
+        <f>((H54/  'First Table'!I16    )*100)/H5</f>
+        <v>38.132283061065039</v>
+      </c>
+      <c r="I55" s="20" t="e">
+        <f>((I32/   'First Table'!I7    )*100)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K55" s="23">
+        <f t="shared" ref="K55:K67" si="6">SUM(D55:H55)</f>
+        <v>282.43601867150227</v>
+      </c>
+      <c r="L55" s="23">
+        <f t="shared" ref="L55:L67" si="7">MIN(D55:H55)</f>
+        <v>38.132283061065039</v>
+      </c>
+      <c r="M55" s="23">
+        <f t="shared" ref="M55:M67" si="8">MAX(D55:H55)</f>
+        <v>73.46961612404786</v>
+      </c>
+      <c r="N55" s="23">
+        <f t="shared" ref="N55:N67" si="9">K55/5</f>
+        <v>56.487203734300451</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C56" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="28">
+        <v>15</v>
+      </c>
+      <c r="E56" s="28">
+        <v>60</v>
+      </c>
+      <c r="F56" s="28">
+        <v>126</v>
+      </c>
+      <c r="G56" s="28">
+        <v>51</v>
+      </c>
+      <c r="H56" s="28">
+        <v>181</v>
+      </c>
+      <c r="I56" s="20">
+        <v>179</v>
+      </c>
+      <c r="K56" s="23">
+        <f t="shared" si="6"/>
+        <v>433</v>
+      </c>
+      <c r="L56" s="23">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="M56" s="23">
+        <f t="shared" si="8"/>
+        <v>181</v>
+      </c>
+      <c r="N56" s="23">
+        <f t="shared" si="9"/>
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" collapsed="1">
+      <c r="C57" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="28">
+        <f>((D56/  'First Table'!I12  )*100)/D5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E57" s="28">
+        <f>((E56/    'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F57" s="28">
+        <f>((F56/   'First Table'!I14    )*100)/F5</f>
+        <v>47.091460355029582</v>
+      </c>
+      <c r="G57" s="28">
+        <f>((G56/  'First Table'!I15  )*100)/G5</f>
+        <v>63.653874187198333</v>
+      </c>
+      <c r="H57" s="28">
+        <f>((H56/   'First Table'!I16    )*100)/H5</f>
+        <v>36.908787347875787</v>
+      </c>
+      <c r="I57" s="20" t="e">
+        <f>((I56/   'First Table'!I7    )*100)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K57" s="23">
+        <f t="shared" si="6"/>
+        <v>280.3269050562202</v>
+      </c>
+      <c r="L57" s="23">
+        <f t="shared" si="7"/>
+        <v>36.908787347875787</v>
+      </c>
+      <c r="M57" s="23">
+        <f t="shared" si="8"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N57" s="23">
+        <f t="shared" si="9"/>
+        <v>56.065381011244042</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C58" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="28">
+        <v>15</v>
+      </c>
+      <c r="E58" s="28">
+        <v>58</v>
+      </c>
+      <c r="F58" s="28">
+        <v>124</v>
+      </c>
+      <c r="G58" s="28">
+        <v>52</v>
+      </c>
+      <c r="H58" s="28">
+        <v>172</v>
+      </c>
+      <c r="I58" s="20">
+        <v>173</v>
+      </c>
+      <c r="K58" s="23">
+        <f t="shared" si="6"/>
+        <v>421</v>
+      </c>
+      <c r="L58" s="23">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="M58" s="23">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="N58" s="23">
+        <f t="shared" si="9"/>
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" collapsed="1">
+      <c r="C59" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="28">
+        <f>((D58/ 'First Table'!I12  )*100)/D5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E59" s="28">
+        <f>((E58/   'First Table'!I13   )*100)/E5</f>
+        <v>69.856356314668474</v>
+      </c>
+      <c r="F59" s="28">
+        <f>((F58/   'First Table'!I14    )*100)/F5</f>
+        <v>46.343976857330702</v>
+      </c>
+      <c r="G59" s="28">
+        <f>((G58/  'First Table'!I15  )*100)/G5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H59" s="28">
+        <f>((H58/    'First Table'!I16    )*100)/H5</f>
+        <v>35.073543778091903</v>
+      </c>
+      <c r="I59" s="20" t="e">
+        <f>((I58/   'First Table'!I7    )*100)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K59" s="23">
+        <f t="shared" si="6"/>
+        <v>276.58345329595898</v>
+      </c>
+      <c r="L59" s="23">
+        <f t="shared" si="7"/>
+        <v>35.073543778091903</v>
+      </c>
+      <c r="M59" s="23">
+        <f t="shared" si="8"/>
+        <v>69.856356314668474</v>
+      </c>
+      <c r="N59" s="23">
+        <f t="shared" si="9"/>
+        <v>55.316690659191792</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C60" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="28">
+        <v>13</v>
+      </c>
+      <c r="E60" s="28">
+        <v>61</v>
+      </c>
+      <c r="F60" s="28">
+        <v>136</v>
+      </c>
+      <c r="G60" s="28">
+        <v>58</v>
+      </c>
+      <c r="H60" s="28">
+        <v>200</v>
+      </c>
+      <c r="I60" s="20">
+        <v>197</v>
+      </c>
+      <c r="K60" s="23">
+        <f t="shared" si="6"/>
+        <v>468</v>
+      </c>
+      <c r="L60" s="23">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="M60" s="23">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="N60" s="23">
+        <f t="shared" si="9"/>
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" collapsed="1">
+      <c r="C61" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="28">
+        <f>((D60/  'First Table'!I12  )*100)/D5</f>
+        <v>52.353242048057965</v>
+      </c>
+      <c r="E61" s="28">
+        <v>59</v>
+      </c>
+      <c r="F61" s="28">
+        <f>((F60/    'First Table'!I14    )*100)/F5</f>
+        <v>50.828877843523998</v>
+      </c>
+      <c r="G61" s="31">
+        <f>((G60/  'First Table'!I15  )*100)/G5</f>
+        <v>72.390680448186345</v>
+      </c>
+      <c r="H61" s="28">
+        <f>((H60/    'First Table'!I16    )*100)/H5</f>
+        <v>40.783190439641757</v>
+      </c>
+      <c r="I61" s="20" t="e">
+        <f>((I60/   'First Table'!I7    )*100)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K61" s="23">
+        <f t="shared" si="6"/>
+        <v>275.35599077941009</v>
+      </c>
+      <c r="L61" s="23">
+        <f t="shared" si="7"/>
+        <v>40.783190439641757</v>
+      </c>
+      <c r="M61" s="23">
+        <f t="shared" si="8"/>
+        <v>72.390680448186345</v>
+      </c>
+      <c r="N61" s="23">
+        <f t="shared" si="9"/>
+        <v>55.071198155882016</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C62" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="28">
+        <v>16</v>
+      </c>
+      <c r="E62" s="28">
+        <v>63</v>
+      </c>
+      <c r="F62" s="28">
+        <v>134</v>
+      </c>
+      <c r="G62" s="28">
+        <v>56</v>
+      </c>
+      <c r="H62" s="28">
+        <v>196</v>
+      </c>
+      <c r="I62" s="20">
+        <v>197</v>
+      </c>
+      <c r="K62" s="23">
+        <f t="shared" si="6"/>
+        <v>465</v>
+      </c>
+      <c r="L62" s="23">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="M62" s="23">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="N62" s="23">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" collapsed="1">
+      <c r="C63" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="31">
+        <f>((D62/ 'First Table'!I12  )*100)/D5</f>
+        <v>64.434759443763653</v>
+      </c>
+      <c r="E63" s="28">
+        <v>59</v>
+      </c>
+      <c r="F63" s="28">
+        <f>((F62/    'First Table'!I14    )*100)/F5</f>
+        <v>50.08139434582511</v>
+      </c>
+      <c r="G63" s="28">
+        <f>((G62/ 'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
+      </c>
+      <c r="H63" s="28">
+        <f>((H62/   'First Table'!I16    )*100)/H5</f>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="I63" s="20" t="e">
+        <f>((I62/   'First Table'!I7    )*100)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K63" s="23">
+        <f t="shared" si="6"/>
+        <v>283.37813050834177</v>
+      </c>
+      <c r="L63" s="23">
+        <f t="shared" si="7"/>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="M63" s="23">
+        <f t="shared" si="8"/>
+        <v>69.894450087904062</v>
+      </c>
+      <c r="N63" s="23">
+        <f t="shared" si="9"/>
+        <v>56.675626101668357</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C64" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="31">
+        <v>16</v>
+      </c>
+      <c r="E64" s="28">
+        <v>60</v>
+      </c>
+      <c r="F64" s="28">
+        <v>135</v>
+      </c>
+      <c r="G64" s="28">
+        <v>56</v>
+      </c>
+      <c r="H64" s="28">
+        <v>193</v>
+      </c>
+      <c r="I64" s="20">
+        <v>194</v>
+      </c>
+      <c r="K64" s="23">
+        <f t="shared" si="6"/>
+        <v>460</v>
+      </c>
+      <c r="L64" s="23">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="M64" s="23">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="N64" s="23">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" collapsed="1">
+      <c r="C65" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="31">
+        <f>((D64/  'First Table'!I12  )*100)/D5</f>
+        <v>64.434759443763653</v>
+      </c>
+      <c r="E65" s="28">
+        <f>((E64/   'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F65" s="28">
+        <f>((F64/   'First Table'!I14    )*100)/F5</f>
+        <v>50.455136094674558</v>
+      </c>
+      <c r="G65" s="28">
+        <f>((G64/ 'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
+      </c>
+      <c r="H65" s="28">
+        <f>((H64/    'First Table'!I16    )*100)/H5</f>
+        <v>39.355778774254297</v>
+      </c>
+      <c r="I65" s="20" t="e">
+        <f>((I64/   'First Table'!I7    )*100)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K65" s="23">
+        <f t="shared" si="6"/>
+        <v>296.40532058818462</v>
+      </c>
+      <c r="L65" s="23">
+        <f t="shared" si="7"/>
+        <v>39.355778774254297</v>
+      </c>
+      <c r="M65" s="23">
+        <f t="shared" si="8"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N65" s="23">
+        <f t="shared" si="9"/>
+        <v>59.281064117636923</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C66" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="28">
         <v>14</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E66" s="28">
         <v>63</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F66" s="28">
         <v>130</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G66" s="28">
         <v>56</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H66" s="28">
         <v>186</v>
       </c>
-      <c r="I54" s="21">
-        <v>176</v>
-      </c>
-      <c r="K54" s="25">
-        <f>SUM(D54:H54)</f>
+      <c r="I66" s="20">
+        <v>179</v>
+      </c>
+      <c r="K66" s="23">
+        <f t="shared" si="6"/>
         <v>449</v>
       </c>
-      <c r="L54" s="25">
-        <f>MIN(D54:H54)</f>
+      <c r="L66" s="23">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="M54" s="25">
-        <f>MAX(D54:H54)</f>
+      <c r="M66" s="23">
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
-      <c r="N54" s="25">
-        <f>K54/5</f>
+      <c r="N66" s="23">
+        <f t="shared" si="9"/>
         <v>89.8</v>
       </c>
     </row>
-    <row r="55" spans="3:14" hidden="1" collapsed="1">
-      <c r="C55" s="45" t="s">
+    <row r="67" spans="3:14" collapsed="1">
+      <c r="C67" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="28">
+        <f>((D66/ 'First Table'!I12  )*100)/D5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E67" s="28">
+        <f>((E66/    'First Table'!I13   )*100)/E5</f>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="F67" s="28">
+        <f>((F66/   'First Table'!I14    )*100)/F5</f>
+        <v>48.58642735042735</v>
+      </c>
+      <c r="G67" s="28">
+        <f>((G66/  'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
+      </c>
+      <c r="H67" s="28">
+        <f>((H66/   'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="I67" s="20" t="e">
+        <f>((I66/   'First Table'!I16    )*100)/I4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" s="23">
+        <f t="shared" si="6"/>
+        <v>288.66811505745892</v>
+      </c>
+      <c r="L67" s="23">
+        <f t="shared" si="7"/>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="M67" s="23">
+        <f t="shared" si="8"/>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="N67" s="23">
+        <f t="shared" si="9"/>
+        <v>57.733623011491787</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C68" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="21">
-        <f>((D54/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D68" s="28">
+        <v>11</v>
+      </c>
+      <c r="E68" s="28">
+        <v>66</v>
+      </c>
+      <c r="F68" s="28">
+        <v>129</v>
+      </c>
+      <c r="G68" s="28">
+        <v>51</v>
+      </c>
+      <c r="H68" s="28">
+        <v>191</v>
+      </c>
+      <c r="I68" s="20">
+        <v>179</v>
+      </c>
+      <c r="K68" s="23">
+        <f t="shared" ref="K68:K79" si="10">SUM(D68:H68)</f>
+        <v>448</v>
+      </c>
+      <c r="L68" s="23">
+        <f t="shared" ref="L68:L79" si="11">MIN(D68:H68)</f>
+        <v>11</v>
+      </c>
+      <c r="M68" s="23">
+        <f t="shared" ref="M68:M79" si="12">MAX(D68:H68)</f>
+        <v>191</v>
+      </c>
+      <c r="N68" s="23">
+        <f t="shared" ref="N68:N79" si="13">K68/5</f>
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" collapsed="1">
+      <c r="C69" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="28">
+        <f>((D68/'First Table'!I12  )*100)/D5</f>
+        <v>44.298897117587515</v>
+      </c>
+      <c r="E69" s="28">
+        <f>((E68/   'First Table'!I13   )*100)/E5</f>
+        <v>79.491715806346861</v>
+      </c>
+      <c r="F69" s="28">
+        <f>((F68/    'First Table'!I14    )*100)/F5</f>
+        <v>48.21268560157791</v>
+      </c>
+      <c r="G69" s="28">
+        <f>((G68/  'First Table'!I15  )*100)/G5</f>
+        <v>63.653874187198333</v>
+      </c>
+      <c r="H69" s="28">
+        <f>((H68/   'First Table'!I16    )*100)/H5</f>
+        <v>38.947946869857873</v>
+      </c>
+      <c r="I69" s="20" t="e">
+        <f>((I68/   'First Table'!I18    )*100)/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K69" s="23">
+        <f t="shared" si="10"/>
+        <v>274.60511958256848</v>
+      </c>
+      <c r="L69" s="23">
+        <f t="shared" si="11"/>
+        <v>38.947946869857873</v>
+      </c>
+      <c r="M69" s="23">
+        <f t="shared" si="12"/>
+        <v>79.491715806346861</v>
+      </c>
+      <c r="N69" s="23">
+        <f t="shared" si="13"/>
+        <v>54.921023916513697</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C70" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="28">
+        <v>10</v>
+      </c>
+      <c r="E70" s="28">
+        <v>62</v>
+      </c>
+      <c r="F70" s="28">
+        <v>128</v>
+      </c>
+      <c r="G70" s="28">
+        <v>50</v>
+      </c>
+      <c r="H70" s="28">
+        <v>186</v>
+      </c>
+      <c r="I70" s="20">
+        <v>173</v>
+      </c>
+      <c r="K70" s="23">
+        <f t="shared" si="10"/>
+        <v>436</v>
+      </c>
+      <c r="L70" s="23">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="M70" s="23">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="N70" s="23">
+        <f t="shared" si="13"/>
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" collapsed="1">
+      <c r="C71" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="28">
+        <f>((D70/ 'First Table'!I12  )*100)/D5</f>
+        <v>40.271724652352283</v>
+      </c>
+      <c r="E71" s="28">
+        <f>((E70/  'First Table'!I13   )*100)/E5</f>
+        <v>74.67403606050766</v>
+      </c>
+      <c r="F71" s="28">
+        <f>((F70/    'First Table'!I14    )*100)/F5</f>
+        <v>47.838943852728463</v>
+      </c>
+      <c r="G71" s="28">
+        <f>((G70/ 'First Table'!I15  )*100)/G5</f>
+        <v>62.405759007057199</v>
+      </c>
+      <c r="H71" s="28">
+        <f>((H70/   'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="I71" s="20" t="e">
+        <f>((I70/   'First Table'!I18    )*100)/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K71" s="23">
+        <f t="shared" si="10"/>
+        <v>263.11883068151246</v>
+      </c>
+      <c r="L71" s="23">
+        <f t="shared" si="11"/>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="M71" s="23">
+        <f t="shared" si="12"/>
+        <v>74.67403606050766</v>
+      </c>
+      <c r="N71" s="23">
+        <f t="shared" si="13"/>
+        <v>52.623766136302493</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C72" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="28">
+        <v>14</v>
+      </c>
+      <c r="E72" s="28">
+        <v>63</v>
+      </c>
+      <c r="F72" s="28">
+        <v>136</v>
+      </c>
+      <c r="G72" s="28">
+        <v>56</v>
+      </c>
+      <c r="H72" s="28">
+        <v>186</v>
+      </c>
+      <c r="I72" s="20">
+        <v>197</v>
+      </c>
+      <c r="K72" s="23">
+        <f t="shared" si="10"/>
+        <v>455</v>
+      </c>
+      <c r="L72" s="23">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="M72" s="23">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="N72" s="23">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" collapsed="1">
+      <c r="C73" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="28">
+        <f>((D72/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E55" s="30">
-        <f>((E54/   'First Table'!I13   )*100)/E5</f>
+      <c r="E73" s="28">
+        <f>((E72/  'First Table'!I13   )*100)/E5</f>
         <v>75.87845599696746</v>
       </c>
-      <c r="F55" s="30">
-        <f>((F54/   'First Table'!I14    )*100)/F5</f>
-        <v>48.58642735042735</v>
-      </c>
-      <c r="G55" s="33">
-        <f>((G54/ 'First Table'!I15  )*100)/G5</f>
+      <c r="F73" s="28">
+        <f>((F72/   'First Table'!I14    )*100)/F5</f>
+        <v>50.828877843523998</v>
+      </c>
+      <c r="G73" s="28">
+        <f>((G72/  'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H55" s="21">
-        <f>((H54/   'First Table'!I16    )*100)/H5</f>
+      <c r="H73" s="28">
+        <f>((H72/   'First Table'!I16    )*100)/H5</f>
         <v>37.92836710886683</v>
       </c>
-      <c r="I55" s="21" t="e">
-        <f>((I54/   'First Table'!I29    )*100)/I17</f>
+      <c r="I73" s="20" t="e">
+        <f>((I72/   'First Table'!I18    )*100)/I6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K55" s="25">
-        <f t="shared" ref="K55:K65" si="6">SUM(D55:H55)</f>
-        <v>288.66811505745892</v>
-      </c>
-      <c r="L55" s="25">
+      <c r="K73" s="23">
+        <f t="shared" si="10"/>
+        <v>290.91056555055553</v>
+      </c>
+      <c r="L73" s="23">
+        <f t="shared" si="11"/>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="M73" s="23">
+        <f t="shared" si="12"/>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="N73" s="23">
+        <f t="shared" si="13"/>
+        <v>58.182113110111104</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C74" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="28">
+        <v>12</v>
+      </c>
+      <c r="E74" s="28">
+        <v>63</v>
+      </c>
+      <c r="F74" s="28">
+        <v>134</v>
+      </c>
+      <c r="G74" s="28">
+        <v>55</v>
+      </c>
+      <c r="H74" s="28">
+        <v>194</v>
+      </c>
+      <c r="I74" s="20">
+        <v>197</v>
+      </c>
+      <c r="K74" s="23">
+        <f t="shared" si="10"/>
+        <v>458</v>
+      </c>
+      <c r="L74" s="23">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="M74" s="23">
+        <f t="shared" si="12"/>
+        <v>194</v>
+      </c>
+      <c r="N74" s="23">
+        <f t="shared" si="13"/>
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" collapsed="1">
+      <c r="C75" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="28">
+        <f>((D74/ 'First Table'!I12  )*100)/D5</f>
+        <v>48.32606958282274</v>
+      </c>
+      <c r="E75" s="28">
+        <f>((E74/  'First Table'!I13   )*100)/E5</f>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="F75" s="28">
+        <f>((F74/    'First Table'!I14    )*100)/F5</f>
+        <v>50.08139434582511</v>
+      </c>
+      <c r="G75" s="28">
+        <f>((G74/  'First Table'!I15  )*100)/G5</f>
+        <v>68.646334907762906</v>
+      </c>
+      <c r="H75" s="28">
+        <f>((H74/    'First Table'!I16    )*100)/H5</f>
+        <v>39.559694726452499</v>
+      </c>
+      <c r="I75" s="20" t="e">
+        <f>((I74/   'First Table'!I18    )*100)/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K75" s="23">
+        <f t="shared" si="10"/>
+        <v>282.49194955983069</v>
+      </c>
+      <c r="L75" s="23">
+        <f t="shared" si="11"/>
+        <v>39.559694726452499</v>
+      </c>
+      <c r="M75" s="23">
+        <f t="shared" si="12"/>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="N75" s="23">
+        <f t="shared" si="13"/>
+        <v>56.498389911966136</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C76" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="28">
+        <v>11</v>
+      </c>
+      <c r="E76" s="28">
+        <v>60</v>
+      </c>
+      <c r="F76" s="28">
+        <v>133</v>
+      </c>
+      <c r="G76" s="28">
+        <v>52</v>
+      </c>
+      <c r="H76" s="28">
+        <v>195</v>
+      </c>
+      <c r="I76" s="20">
+        <v>194</v>
+      </c>
+      <c r="K76" s="23">
+        <f t="shared" si="10"/>
+        <v>451</v>
+      </c>
+      <c r="L76" s="23">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="M76" s="23">
+        <f t="shared" si="12"/>
+        <v>195</v>
+      </c>
+      <c r="N76" s="23">
+        <f t="shared" si="13"/>
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" collapsed="1">
+      <c r="C77" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="28">
+        <f>((D76/'First Table'!I12  )*100)/D5</f>
+        <v>44.298897117587515</v>
+      </c>
+      <c r="E77" s="28">
+        <f>((E76/   'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F77" s="28">
+        <f>((F76/    'First Table'!I14    )*100)/F5</f>
+        <v>49.707652596975677</v>
+      </c>
+      <c r="G77" s="28">
+        <f>((G76/ 'First Table'!I15  )*100)/G5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H77" s="28">
+        <f>((H76/    'First Table'!I16    )*100)/H5</f>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="I77" s="20" t="e">
+        <f>((I76/   'First Table'!I18    )*100)/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K77" s="23">
+        <f t="shared" si="10"/>
+        <v>270.93734594814146</v>
+      </c>
+      <c r="L77" s="23">
+        <f t="shared" si="11"/>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="M77" s="23">
+        <f t="shared" si="12"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N77" s="23">
+        <f t="shared" si="13"/>
+        <v>54.187469189628288</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C78" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="28">
+        <v>11</v>
+      </c>
+      <c r="E78" s="28">
+        <v>64</v>
+      </c>
+      <c r="F78" s="28">
+        <v>129</v>
+      </c>
+      <c r="G78" s="28">
+        <v>49</v>
+      </c>
+      <c r="H78" s="28">
+        <v>186</v>
+      </c>
+      <c r="I78" s="20">
+        <v>179</v>
+      </c>
+      <c r="K78" s="23">
+        <f t="shared" si="10"/>
+        <v>439</v>
+      </c>
+      <c r="L78" s="23">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="M78" s="23">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="N78" s="23">
+        <f t="shared" si="13"/>
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" collapsed="1">
+      <c r="C79" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="28">
+        <f>((D78/ 'First Table'!I12  )*100)/D5</f>
+        <v>44.298897117587515</v>
+      </c>
+      <c r="E79" s="28">
+        <f>((E78/   'First Table'!I13   )*100)/E5</f>
+        <v>77.082875933427275</v>
+      </c>
+      <c r="F79" s="28">
+        <f>((F78/   'First Table'!I14    )*100)/F5</f>
+        <v>48.21268560157791</v>
+      </c>
+      <c r="G79" s="28">
+        <f>((G78/  'First Table'!I15  )*100)/G5</f>
+        <v>61.157643826916051</v>
+      </c>
+      <c r="H79" s="28">
+        <f>((H78/  'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="I79" s="20" t="e">
+        <f>((I78/   'First Table'!I27    )*100)/I15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K79" s="23">
+        <f t="shared" si="10"/>
+        <v>268.68046958837556</v>
+      </c>
+      <c r="L79" s="23">
+        <f t="shared" si="11"/>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="M79" s="23">
+        <f t="shared" si="12"/>
+        <v>77.082875933427275</v>
+      </c>
+      <c r="N79" s="23">
+        <f t="shared" si="13"/>
+        <v>53.736093917675113</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C80" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="28">
+        <v>14</v>
+      </c>
+      <c r="E80" s="28">
+        <v>61</v>
+      </c>
+      <c r="F80" s="28">
+        <v>125</v>
+      </c>
+      <c r="G80" s="28">
+        <v>48</v>
+      </c>
+      <c r="H80" s="28">
+        <v>186</v>
+      </c>
+      <c r="I80" s="20">
+        <v>179</v>
+      </c>
+      <c r="K80" s="23">
+        <f t="shared" ref="K80:K89" si="14">SUM(D80:H80)</f>
+        <v>434</v>
+      </c>
+      <c r="L80" s="23">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="M80" s="23">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="N80" s="23">
+        <f t="shared" si="1"/>
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" collapsed="1">
+      <c r="C81" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="28">
+        <f>((D80/ 'First Table'!I12  )*100)/D5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E81" s="28">
+        <f>((E80/   'First Table'!I13   )*100)/E5</f>
+        <v>73.46961612404786</v>
+      </c>
+      <c r="F81" s="28">
+        <f>((F80/   'First Table'!I14    )*100)/F5</f>
+        <v>46.717718606180135</v>
+      </c>
+      <c r="G81" s="28">
+        <f>((G80/ 'First Table'!I15  )*100)/G5</f>
+        <v>59.909528646774909</v>
+      </c>
+      <c r="H81" s="28">
+        <f>((H80/   'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="I81" s="20" t="e">
+        <f>((I80/   'First Table'!I29    )*100)/I17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K81" s="23">
+        <f t="shared" si="14"/>
+        <v>274.40564499916292</v>
+      </c>
+      <c r="L81" s="23">
         <f t="shared" si="4"/>
         <v>37.92836710886683</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M81" s="23">
+        <f t="shared" si="5"/>
+        <v>73.46961612404786</v>
+      </c>
+      <c r="N81" s="23">
+        <f t="shared" si="1"/>
+        <v>54.881128999832583</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C82" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="28">
+        <v>14</v>
+      </c>
+      <c r="E82" s="28">
+        <v>60</v>
+      </c>
+      <c r="F82" s="28">
+        <v>122</v>
+      </c>
+      <c r="G82" s="28">
+        <v>50</v>
+      </c>
+      <c r="H82" s="28">
+        <v>181</v>
+      </c>
+      <c r="I82" s="20">
+        <v>173</v>
+      </c>
+      <c r="K82" s="23">
+        <f t="shared" si="14"/>
+        <v>427</v>
+      </c>
+      <c r="L82" s="23">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="M82" s="23">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="N82" s="23">
+        <f t="shared" si="1"/>
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" collapsed="1">
+      <c r="C83" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="28">
+        <f>((D82/ 'First Table'!I12  )*100)/D5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E83" s="28">
+        <f>((E82/   'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F83" s="28">
+        <f>((F82/   'First Table'!I14    )*100)/F5</f>
+        <v>45.596493359631815</v>
+      </c>
+      <c r="G83" s="28">
+        <f>((G82/ 'First Table'!I15  )*100)/G5</f>
+        <v>62.405759007057199</v>
+      </c>
+      <c r="H83" s="28">
+        <f>((H82/   'First Table'!I16    )*100)/H5</f>
+        <v>36.908787347875787</v>
+      </c>
+      <c r="I83" s="20" t="e">
+        <f>((I82/   'First Table'!I29    )*100)/I17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K83" s="23">
+        <f t="shared" si="14"/>
+        <v>273.55665041544603</v>
+      </c>
+      <c r="L83" s="23">
+        <f t="shared" si="4"/>
+        <v>36.908787347875787</v>
+      </c>
+      <c r="M83" s="23">
+        <f t="shared" si="5"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N83" s="23">
+        <f t="shared" si="1"/>
+        <v>54.711330083089209</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C84" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="28">
+        <v>15</v>
+      </c>
+      <c r="E84" s="28">
+        <v>63</v>
+      </c>
+      <c r="F84" s="28">
+        <v>130</v>
+      </c>
+      <c r="G84" s="28">
+        <v>57</v>
+      </c>
+      <c r="H84" s="28">
+        <v>196</v>
+      </c>
+      <c r="I84" s="20">
+        <v>197</v>
+      </c>
+      <c r="K84" s="23">
+        <f t="shared" si="14"/>
+        <v>461</v>
+      </c>
+      <c r="L84" s="23">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M84" s="23">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="N84" s="23">
+        <f t="shared" si="1"/>
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" collapsed="1">
+      <c r="C85" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="28">
+        <f>((D84/ 'First Table'!I12  )*100)/D5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E85" s="28">
+        <f>((E84/   'First Table'!I13   )*100)/E5</f>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="F85" s="28">
+        <f>((F84/   'First Table'!I14    )*100)/F5</f>
+        <v>48.58642735042735</v>
+      </c>
+      <c r="G85" s="28">
+        <f>((G84/ 'First Table'!I15  )*100)/G5</f>
+        <v>71.142565268045203</v>
+      </c>
+      <c r="H85" s="28">
+        <f>((H84/   'First Table'!I16    )*100)/H5</f>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="I85" s="20" t="e">
+        <f>((I84/   'First Table'!I29    )*100)/I17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K85" s="23">
+        <f t="shared" si="14"/>
+        <v>295.98256222481734</v>
+      </c>
+      <c r="L85" s="23">
+        <f t="shared" si="4"/>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="M85" s="23">
         <f t="shared" si="5"/>
         <v>75.87845599696746</v>
       </c>
-      <c r="N55" s="25">
+      <c r="N85" s="23">
         <f t="shared" si="1"/>
-        <v>57.733623011491787</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C56" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="21">
-        <v>11</v>
-      </c>
-      <c r="E56" s="30">
-        <v>66</v>
-      </c>
-      <c r="F56" s="30">
-        <v>129</v>
-      </c>
-      <c r="G56" s="21">
-        <v>61</v>
-      </c>
-      <c r="H56" s="21">
+        <v>59.196512444963467</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C86" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="28">
+        <v>15</v>
+      </c>
+      <c r="E86" s="28">
+        <v>60</v>
+      </c>
+      <c r="F86" s="28">
+        <v>133</v>
+      </c>
+      <c r="G86" s="28">
+        <v>53</v>
+      </c>
+      <c r="H86" s="28">
         <v>191</v>
       </c>
-      <c r="I56" s="21">
-        <v>179</v>
-      </c>
-      <c r="K56" s="25">
-        <f t="shared" si="6"/>
-        <v>458</v>
-      </c>
-      <c r="L56" s="25">
+      <c r="I86" s="20">
+        <v>197</v>
+      </c>
+      <c r="K86" s="23">
+        <f t="shared" si="14"/>
+        <v>452</v>
+      </c>
+      <c r="L86" s="23">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="M56" s="25">
+        <v>15</v>
+      </c>
+      <c r="M86" s="23">
         <f t="shared" si="5"/>
         <v>191</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N86" s="23">
         <f t="shared" si="1"/>
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" hidden="1" collapsed="1">
-      <c r="C57" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="21">
-        <f>((D56/ 'First Table'!I12  )*100)/D5</f>
-        <v>44.298897117587515</v>
-      </c>
-      <c r="E57" s="30">
-        <f>((E56/   'First Table'!I13   )*100)/E5</f>
-        <v>79.491715806346861</v>
-      </c>
-      <c r="F57" s="30">
-        <f>((F56/   'First Table'!I14    )*100)/F5</f>
-        <v>48.21268560157791</v>
-      </c>
-      <c r="G57" s="21">
-        <f>((G56/ 'First Table'!I15  )*100)/G5</f>
-        <v>76.135025988609783</v>
-      </c>
-      <c r="H57" s="21">
-        <f>((H56/   'First Table'!I16    )*100)/H5</f>
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" collapsed="1">
+      <c r="C87" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="28">
+        <f>((D86/ 'First Table'!I12  )*100)/D5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E87" s="28">
+        <f>((E86/   'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F87" s="28">
+        <f>((F86/   'First Table'!I14    )*100)/F5</f>
+        <v>49.707652596975677</v>
+      </c>
+      <c r="G87" s="28">
+        <f>((G86/ 'First Table'!I15  )*100)/G5</f>
+        <v>66.150104547480638</v>
+      </c>
+      <c r="H87" s="28">
+        <f>((H86/   'First Table'!I16    )*100)/H5</f>
         <v>38.947946869857873</v>
       </c>
-      <c r="I57" s="21" t="e">
-        <f>((I56/   'First Table'!I29    )*100)/I17</f>
+      <c r="I87" s="20" t="e">
+        <f>((I86/   'First Table'!I29    )*100)/I17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K57" s="25">
-        <f t="shared" si="6"/>
-        <v>287.08627138397992</v>
-      </c>
-      <c r="L57" s="25">
+      <c r="K87" s="23">
+        <f t="shared" si="14"/>
+        <v>287.47848718043065</v>
+      </c>
+      <c r="L87" s="23">
         <f t="shared" si="4"/>
         <v>38.947946869857873</v>
       </c>
-      <c r="M57" s="25">
-        <f t="shared" si="5"/>
-        <v>79.491715806346861</v>
-      </c>
-      <c r="N57" s="25">
-        <f t="shared" si="1"/>
-        <v>57.417254276795987</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C58" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="21">
-        <v>10</v>
-      </c>
-      <c r="E58" s="30">
-        <v>62</v>
-      </c>
-      <c r="F58" s="30">
-        <v>128</v>
-      </c>
-      <c r="G58" s="21">
-        <v>50</v>
-      </c>
-      <c r="H58" s="21">
-        <v>186</v>
-      </c>
-      <c r="I58" s="21">
-        <v>173</v>
-      </c>
-      <c r="K58" s="25">
-        <f t="shared" si="6"/>
-        <v>436</v>
-      </c>
-      <c r="L58" s="25">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="M58" s="25">
-        <f t="shared" si="5"/>
-        <v>186</v>
-      </c>
-      <c r="N58" s="25">
-        <f t="shared" si="1"/>
-        <v>87.2</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" hidden="1" collapsed="1">
-      <c r="C59" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="21">
-        <f>((D58/ 'First Table'!I12  )*100)/D5</f>
-        <v>40.271724652352283</v>
-      </c>
-      <c r="E59" s="30">
-        <f>((E58/   'First Table'!I13   )*100)/E5</f>
-        <v>74.67403606050766</v>
-      </c>
-      <c r="F59" s="30">
-        <f>((F58/   'First Table'!I14    )*100)/F5</f>
-        <v>47.838943852728463</v>
-      </c>
-      <c r="G59" s="21">
-        <f>((G58/ 'First Table'!I15  )*100)/G5</f>
-        <v>62.405759007057199</v>
-      </c>
-      <c r="H59" s="21">
-        <f>((H58/   'First Table'!I16    )*100)/H5</f>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="I59" s="21" t="e">
-        <f>((I58/   'First Table'!I29    )*100)/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="25">
-        <f t="shared" si="6"/>
-        <v>263.11883068151246</v>
-      </c>
-      <c r="L59" s="25">
-        <f t="shared" si="4"/>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="M59" s="25">
-        <f t="shared" si="5"/>
-        <v>74.67403606050766</v>
-      </c>
-      <c r="N59" s="25">
-        <f t="shared" si="1"/>
-        <v>52.623766136302493</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C60" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="21">
-        <v>14</v>
-      </c>
-      <c r="E60" s="30">
-        <v>63</v>
-      </c>
-      <c r="F60" s="30">
-        <v>136</v>
-      </c>
-      <c r="G60" s="21">
-        <v>56</v>
-      </c>
-      <c r="H60" s="21">
-        <v>186</v>
-      </c>
-      <c r="I60" s="21">
-        <v>197</v>
-      </c>
-      <c r="K60" s="25">
-        <f t="shared" si="6"/>
-        <v>455</v>
-      </c>
-      <c r="L60" s="25">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="M60" s="25">
-        <f t="shared" si="5"/>
-        <v>186</v>
-      </c>
-      <c r="N60" s="25">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" hidden="1" collapsed="1">
-      <c r="C61" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="21">
-        <f>((D60/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
-      </c>
-      <c r="E61" s="30">
-        <f>((E60/   'First Table'!I13   )*100)/E5</f>
-        <v>75.87845599696746</v>
-      </c>
-      <c r="F61" s="30">
-        <f>((F60/   'First Table'!I14    )*100)/F5</f>
-        <v>50.828877843523998</v>
-      </c>
-      <c r="G61" s="33">
-        <f>((G60/ 'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
-      </c>
-      <c r="H61" s="21">
-        <f>((H60/   'First Table'!I16    )*100)/H5</f>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="I61" s="21" t="e">
-        <f>((I60/   'First Table'!I29    )*100)/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K61" s="25">
-        <f t="shared" si="6"/>
-        <v>290.91056555055553</v>
-      </c>
-      <c r="L61" s="25">
-        <f t="shared" si="4"/>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="M61" s="25">
-        <f t="shared" si="5"/>
-        <v>75.87845599696746</v>
-      </c>
-      <c r="N61" s="25">
-        <f t="shared" si="1"/>
-        <v>58.182113110111104</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C62" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="21">
-        <v>12</v>
-      </c>
-      <c r="E62" s="30">
-        <v>63</v>
-      </c>
-      <c r="F62" s="30">
-        <v>134</v>
-      </c>
-      <c r="G62" s="21">
-        <v>55</v>
-      </c>
-      <c r="H62" s="21">
-        <v>194</v>
-      </c>
-      <c r="I62" s="21">
-        <v>197</v>
-      </c>
-      <c r="K62" s="25">
-        <f t="shared" si="6"/>
-        <v>458</v>
-      </c>
-      <c r="L62" s="25">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="M62" s="25">
-        <f t="shared" si="5"/>
-        <v>194</v>
-      </c>
-      <c r="N62" s="25">
-        <f t="shared" si="1"/>
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" hidden="1" collapsed="1">
-      <c r="C63" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="21">
-        <f>((D62/ 'First Table'!I12  )*100)/D5</f>
-        <v>48.32606958282274</v>
-      </c>
-      <c r="E63" s="30">
-        <f>((E62/   'First Table'!I13   )*100)/E5</f>
-        <v>75.87845599696746</v>
-      </c>
-      <c r="F63" s="30">
-        <f>((F62/   'First Table'!I14    )*100)/F5</f>
-        <v>50.08139434582511</v>
-      </c>
-      <c r="G63" s="21">
-        <f>((G62/ 'First Table'!I15  )*100)/G5</f>
-        <v>68.646334907762906</v>
-      </c>
-      <c r="H63" s="21">
-        <f>((H62/   'First Table'!I16    )*100)/H5</f>
-        <v>39.559694726452499</v>
-      </c>
-      <c r="I63" s="21" t="e">
-        <f>((I62/   'First Table'!I29    )*100)/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="25">
-        <f t="shared" si="6"/>
-        <v>282.49194955983069</v>
-      </c>
-      <c r="L63" s="25">
-        <f t="shared" si="4"/>
-        <v>39.559694726452499</v>
-      </c>
-      <c r="M63" s="25">
-        <f t="shared" si="5"/>
-        <v>75.87845599696746</v>
-      </c>
-      <c r="N63" s="25">
-        <f t="shared" si="1"/>
-        <v>56.498389911966136</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C64" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="21">
-        <v>11</v>
-      </c>
-      <c r="E64" s="30">
-        <v>60</v>
-      </c>
-      <c r="F64" s="30">
-        <v>133</v>
-      </c>
-      <c r="G64" s="21">
-        <v>52</v>
-      </c>
-      <c r="H64" s="21">
-        <v>195</v>
-      </c>
-      <c r="I64" s="21">
-        <v>194</v>
-      </c>
-      <c r="K64" s="25">
-        <f t="shared" si="6"/>
-        <v>451</v>
-      </c>
-      <c r="L64" s="25">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="M64" s="25">
-        <f t="shared" si="5"/>
-        <v>195</v>
-      </c>
-      <c r="N64" s="25">
-        <f t="shared" si="1"/>
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14" hidden="1" collapsed="1">
-      <c r="C65" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="21">
-        <f>((D64/ 'First Table'!I12  )*100)/D5</f>
-        <v>44.298897117587515</v>
-      </c>
-      <c r="E65" s="30">
-        <f>((E64/   'First Table'!I13   )*100)/E5</f>
-        <v>72.26519618758806</v>
-      </c>
-      <c r="F65" s="30">
-        <f>((F64/   'First Table'!I14    )*100)/F5</f>
-        <v>49.707652596975677</v>
-      </c>
-      <c r="G65" s="21">
-        <f>((G64/ 'First Table'!I15  )*100)/G5</f>
-        <v>64.901989367339482</v>
-      </c>
-      <c r="H65" s="33">
-        <f>((H64/   'First Table'!I16    )*100)/H5</f>
-        <v>39.763610678650707</v>
-      </c>
-      <c r="I65" s="21" t="e">
-        <f>((I64/   'First Table'!I29    )*100)/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="25">
-        <f t="shared" si="6"/>
-        <v>270.93734594814146</v>
-      </c>
-      <c r="L65" s="25">
-        <f t="shared" si="4"/>
-        <v>39.763610678650707</v>
-      </c>
-      <c r="M65" s="25">
+      <c r="M87" s="23">
         <f t="shared" si="5"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N65" s="25">
+      <c r="N87" s="23">
         <f t="shared" si="1"/>
-        <v>54.187469189628288</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14" hidden="1" outlineLevel="2">
-      <c r="C66" s="23" t="s">
+        <v>57.495697436086132</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C88" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="28">
+        <v>16</v>
+      </c>
+      <c r="E88" s="28">
+        <v>60</v>
+      </c>
+      <c r="F88" s="28">
+        <v>131</v>
+      </c>
+      <c r="G88" s="28">
+        <v>54</v>
+      </c>
+      <c r="H88" s="28">
+        <v>203</v>
+      </c>
+      <c r="I88" s="20">
+        <v>194</v>
+      </c>
+      <c r="K88" s="23">
+        <f t="shared" si="14"/>
+        <v>464</v>
+      </c>
+      <c r="L88" s="23">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="M88" s="23">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="N88" s="23">
+        <f t="shared" si="1"/>
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" collapsed="1">
+      <c r="C89" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="31">
+        <f>((D88/ 'First Table'!I12  )*100)/D5</f>
+        <v>64.434759443763653</v>
+      </c>
+      <c r="E89" s="28">
+        <f>((E88/   'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F89" s="28">
+        <f>((F88/   'First Table'!I14    )*100)/F5</f>
+        <v>48.960169099276797</v>
+      </c>
+      <c r="G89" s="28">
+        <f>((G88/ 'First Table'!I15  )*100)/G5</f>
+        <v>67.398219727621765</v>
+      </c>
+      <c r="H89" s="31">
+        <f>((H88/   'First Table'!I16    )*100)/H5</f>
+        <v>41.394938296236383</v>
+      </c>
+      <c r="I89" s="20" t="e">
+        <f>((I88/   'First Table'!I29    )*100)/I17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K89" s="23">
+        <f t="shared" si="14"/>
+        <v>294.45328275448668</v>
+      </c>
+      <c r="L89" s="23">
+        <f t="shared" si="4"/>
+        <v>41.394938296236383</v>
+      </c>
+      <c r="M89" s="23">
+        <f t="shared" si="5"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N89" s="23">
+        <f t="shared" si="1"/>
+        <v>58.890656550897333</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" hidden="1" outlineLevel="2">
+      <c r="C90" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-    </row>
-    <row r="67" spans="3:14" hidden="1" collapsed="1">
-      <c r="C67" s="23" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="3:14" hidden="1" collapsed="1">
+      <c r="C91" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="21">
-        <f>((D66/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D91" s="20">
+        <f>((D90/ 'First Table'!I12  )*100)/D5</f>
         <v>0</v>
       </c>
-      <c r="E67" s="30">
-        <f>((E66/   'First Table'!I13   )*100)/E5</f>
+      <c r="E91" s="28">
+        <f>((E90/   'First Table'!I13   )*100)/E5</f>
         <v>0</v>
       </c>
-      <c r="F67" s="30">
-        <f>((F66/   'First Table'!I14    )*100)/F5</f>
+      <c r="F91" s="28">
+        <f>((F90/   'First Table'!I14    )*100)/F5</f>
         <v>0</v>
       </c>
-      <c r="G67" s="21">
-        <f>((G66/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G91" s="20">
+        <f>((G90/ 'First Table'!I15  )*100)/G5</f>
         <v>0</v>
       </c>
-      <c r="H67" s="21">
-        <f>((H66/   'First Table'!I16    )*100)/H5</f>
+      <c r="H91" s="20">
+        <f>((H90/   'First Table'!I16    )*100)/H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7">
-      <c r="C95" s="2" t="s">
+    <row r="119" spans="3:7">
+      <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G95">
+      <c r="G119">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7">
-      <c r="C96" s="2" t="s">
+    <row r="120" spans="3:7">
+      <c r="C120" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D120" t="s">
         <v>8</v>
       </c>
-      <c r="G96">
+      <c r="G120">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="3:7">
-      <c r="C97" s="2" t="s">
+    <row r="121" spans="3:7">
+      <c r="C121" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G97">
+      <c r="G121">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7">
-      <c r="C98" s="2" t="s">
+    <row r="122" spans="3:7">
+      <c r="C122" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G98">
+      <c r="G122">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7">
-      <c r="C99" s="2" t="s">
+    <row r="123" spans="3:7">
+      <c r="C123" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G99">
+      <c r="G123">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7">
-      <c r="C100" s="2" t="s">
+    <row r="124" spans="3:7">
+      <c r="C124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D100" t="s">
-        <v>63</v>
-      </c>
-      <c r="G100">
+      <c r="D124" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="3:7">
-      <c r="C101" s="2" t="s">
+    <row r="125" spans="3:7">
+      <c r="C125" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D101" t="s">
-        <v>64</v>
-      </c>
-      <c r="G101">
+      <c r="D125" t="s">
+        <v>58</v>
+      </c>
+      <c r="G125">
         <v>2</v>
       </c>
     </row>
@@ -6956,19 +8409,19 @@
   <sheetData>
     <row r="6" spans="5:10">
       <c r="E6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="5:10">
@@ -6990,13 +8443,13 @@
     </row>
     <row r="11" spans="5:10">
       <c r="H11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="5:10">
@@ -7028,7 +8481,7 @@
         <v>9.5635249979003717E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
+++ b/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="90" windowWidth="14520" windowHeight="12240" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="495" yWindow="90" windowWidth="14520" windowHeight="7935" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="First Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -363,11 +363,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -629,6 +629,7 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,11 +639,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -752,8 +752,19 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:stockChart>
@@ -772,80 +783,254 @@
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -856,85 +1041,260 @@
               <c:f>'Results 1994-1999'!$L$7:$L$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>33.238300208308033</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.4088398729196023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>37.520535204470413</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>38.540114965461456</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>37.112703300074003</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.132283061065039</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.908787347875787</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.073543778091903</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.783190439641757</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39.967526630848923</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39.355778774254297</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.92836710886683</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.947946869857873</c:v>
+                  <c:v>37.724451156668628</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.92836710886683</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.92836710886683</c:v>
+                  <c:v>39.559694726452499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.559694726452499</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.336199013263247</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38.540114965461456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.50095544347937</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.724451156668628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.685291634686529</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.297039491281161</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.073543778091903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.355778774254297</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39.763610678650707</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.297039491281161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.132283061065039</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.908787347875787</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35.073543778091903</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40.783190439641757</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39.355778774254297</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="61">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>39.559694726452499</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>39.763610678650707</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>41.394938296236383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -951,80 +1311,254 @@
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1035,85 +1569,260 @@
               <c:f>'Results 1994-1999'!$M$7:$M$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>66.150104547480638</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>66.243096505289046</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>26.535664168310316</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>83.104975615726289</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>80.696135742806661</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.900555679266475</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.309395552186075</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.491715806346861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.309395552186075</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.309395552186075</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77.082875933427275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.104975615726289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83.104975615726289</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>77.082875933427275</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.856356314668474</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="41">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73.46961612404786</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73.46961612404786</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>69.856356314668474</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>72.390680448186345</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>74.67403606050766</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>77.082875933427275</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1139,86 +1848,266 @@
           </c:marker>
           <c:dLbls>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1229,119 +2118,310 @@
               <c:f>'Results 1994-1999'!$N$7:$N$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>51.576440797759247</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>55.102842638005868</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>52.322937009710721</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.6939735872762718</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>57.501720771582484</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>59.233723178703613</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>59.040467292868563</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.055459334849843</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.782951010320382</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.610575215563948</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.9627495899691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.327904166206849</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.103674601212063</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.048628467729785</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.496857280733913</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58.414786915593027</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54.566757276939811</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>55.012773366721866</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55.814392704423014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59.013737869459099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.478162038725735</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58.698330647074314</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.989833761643936</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55.745454661858368</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>56.487203734300451</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>56.065381011244042</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>55.316690659191792</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>55.071198155882016</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>56.675626101668357</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>59.281064117636923</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>57.733623011491787</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>54.921023916513697</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>52.623766136302493</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>58.182113110111104</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>56.498389911966136</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>54.187469189628288</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>53.736093917675113</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>54.881128999832583</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>54.711330083089209</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>59.196512444963467</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>57.495697436086132</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>58.890656550897333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="92454272"/>
-        <c:axId val="92464256"/>
+        <c:axId val="538959872"/>
+        <c:axId val="538787840"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="92454272"/>
+        <c:axId val="538959872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92464256"/>
+        <c:crossAx val="538787840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92464256"/>
+        <c:axId val="538787840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92454272"/>
+        <c:crossAx val="538959872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1353,7 +2433,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1381,11 +2471,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -1396,7 +2491,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -1422,6 +2521,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1433,6 +2533,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr/>
@@ -1444,87 +2545,273 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1534,98 +2821,287 @@
               <c:f>'Results 1994-1999'!$D$7:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.380414513293204</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0271724652352283</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0271724652352283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.271724652352283</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>52.353242048057965</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>52.353242048057965</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>44.298897117587515</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>40.271724652352283</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>48.32606958282274</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>44.298897117587515</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>44.298897117587515</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="92797184"/>
-        <c:axId val="93868032"/>
+        <c:axId val="538961408"/>
+        <c:axId val="538790144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92797184"/>
+        <c:axId val="538961408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1650,17 +3126,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93868032"/>
+        <c:crossAx val="538790144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93868032"/>
+        <c:axId val="538790144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1673,6 +3151,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_-* ###,000_-;\-* ###,000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1697,7 +3177,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92797184"/>
+        <c:crossAx val="538961408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1713,6 +3193,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1732,7 +3213,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1760,11 +3251,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -1775,7 +3271,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -1791,6 +3291,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1802,88 +3303,275 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1893,98 +3581,287 @@
               <c:f>'Results 1994-1999'!$E$7:$E$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>50.585637331311638</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>62.629836695909653</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>66.243096505289046</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.4088398729196023</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>83.104975615726289</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>80.696135742806661</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.900555679266475</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.309395552186075</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.491715806346861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.309395552186075</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.309395552186075</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77.082875933427275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.104975615726289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83.104975615726289</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>77.082875933427275</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.856356314668474</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="39">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73.46961612404786</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.42541675944986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.220996822990053</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73.46961612404786</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>69.856356314668474</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>74.67403606050766</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>77.082875933427275</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="94458240"/>
-        <c:axId val="94459776"/>
+        <c:axId val="538963456"/>
+        <c:axId val="538791872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94458240"/>
+        <c:axId val="538963456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -2009,17 +3886,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94459776"/>
+        <c:crossAx val="538791872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94459776"/>
+        <c:axId val="538791872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2032,6 +3911,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_-* ###,000_-;\-* ###,000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -2056,7 +3937,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94458240"/>
+        <c:crossAx val="538963456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,6 +3953,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2091,7 +3973,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2119,11 +4011,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -2134,7 +4031,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -2150,6 +4051,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2161,88 +4063,275 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2252,98 +4341,287 @@
               <c:f>'Results 1994-1999'!$F$7:$F$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>49.33391084812623</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>53.445070085470078</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>47.091460355029582</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>26.535664168310316</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>46.717718606180135</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>46.717718606180135</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>47.091460355029582</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.838943852728463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.21268560157791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.21268560157791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.838943852728463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.21268560157791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.21268560157791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.838943852728463</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48.21268560157791</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.21268560157791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44.849009861932942</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.849009861932942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44.849009861932942</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.08139434582511</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.828877843523998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.08139434582511</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="45">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.182487573964494</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.58642735042735</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>47.091460355029582</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>46.343976857330702</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>50.828877843523998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>50.08139434582511</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>50.455136094674558</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>47.838943852728463</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>50.828877843523998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>50.08139434582511</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>49.707652596975677</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>46.717718606180135</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>45.596493359631815</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>49.707652596975677</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>48.960169099276797</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="94509312"/>
-        <c:axId val="94515200"/>
+        <c:axId val="541181952"/>
+        <c:axId val="538793600"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94509312"/>
+        <c:axId val="541181952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -2368,17 +4646,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94515200"/>
+        <c:crossAx val="538793600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94515200"/>
+        <c:axId val="538793600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2391,6 +4671,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_-* ###,000_-;\-* ###,000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -2415,7 +4697,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94509312"/>
+        <c:crossAx val="541181952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2431,6 +4713,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2450,7 +4733,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2478,11 +4771,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -2493,7 +4791,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -2509,6 +4811,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2520,88 +4823,275 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2611,98 +5101,287 @@
               <c:f>'Results 1994-1999'!$G$7:$G$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>66.150104547480638</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>58.661413466633768</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4.9924607205645755</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>67.398219727621765</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>67.398219727621765</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.894450087904062</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>69.894450087904062</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63.653874187198333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64.901989367339482</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>72.390680448186345</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>69.894450087904062</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.405759007057199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.398219727621765</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.150104547480638</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>63.653874187198333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>62.405759007057199</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.894450087904062</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68.646334907762906</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64.901989367339482</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>61.157643826916051</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>59.909528646774909</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.405759007057199</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>71.142565268045203</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72.390680448186345</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.653874187198333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63.653874187198333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.653874187198333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>71.142565268045203</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>66.150104547480638</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="43">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>63.653874187198333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72.390680448186345</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.653874187198333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62.405759007057199</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>61.157643826916051</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>59.909528646774909</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>62.405759007057199</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71.142565268045203</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.150104547480638</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>67.398219727621765</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="94666752"/>
-        <c:axId val="94668288"/>
+        <c:axId val="516742144"/>
+        <c:axId val="538795328"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94666752"/>
+        <c:axId val="516742144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -2727,17 +5406,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94668288"/>
+        <c:crossAx val="538795328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94668288"/>
+        <c:axId val="538795328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2750,6 +5431,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_-* ###,000_-;\-* ###,000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -2774,7 +5457,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94666752"/>
+        <c:crossAx val="516742144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2790,6 +5473,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2809,13 +5493,26 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -2826,7 +5523,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -2852,6 +5553,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2863,6 +5565,7 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr/>
@@ -2878,87 +5581,273 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2968,98 +5857,287 @@
               <c:f>'Results 1994-1999'!$H$7:$H$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>33.238300208308033</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5.5057307093516368</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>37.520535204470413</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>38.540114965461456</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>37.112703300074003</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.132283061065039</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.908787347875787</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.073543778091903</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.783190439641757</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39.967526630848923</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39.355778774254297</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.92836710886683</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.947946869857873</c:v>
+                  <c:v>37.724451156668628</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.92836710886683</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.92836710886683</c:v>
+                  <c:v>39.559694726452499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.559694726452499</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.336199013263247</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38.540114965461456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.50095544347937</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.724451156668628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.685291634686529</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.297039491281161</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.073543778091903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.355778774254297</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39.763610678650707</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.297039491281161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.132283061065039</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36.908787347875787</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35.073543778091903</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40.783190439641757</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39.355778774254297</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="61">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="65">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>39.559694726452499</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>39.763610678650707</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>41.394938296236383</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="96671616"/>
-        <c:axId val="96673152"/>
+        <c:axId val="541183488"/>
+        <c:axId val="552354944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96671616"/>
+        <c:axId val="541183488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3084,17 +6162,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96673152"/>
+        <c:crossAx val="552354944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96673152"/>
+        <c:axId val="552354944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3107,6 +6187,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3131,7 +6213,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96671616"/>
+        <c:crossAx val="541183488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3147,6 +6229,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3166,7 +6249,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3194,11 +6287,16 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -3209,7 +6307,11 @@
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9360">
@@ -3225,6 +6327,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3236,88 +6339,272 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Results 1994-1999'!$C$7:$C$90</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Adamic Adar similarity (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Adamic Adar similarity</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Jaccard similarity coefficient (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jaccard similarity coefficient</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>Preferential Attachment (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Preferential Attachment</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>TS (β = 0.8)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>Time Score DF 0.5 (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>TS (β = 0.5)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>Time Score DF 0.2  (Total Sucess)</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>TS (β =  0.2)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Domain Time Score 0.8 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Domain Time Score 0.8 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domain Time Score 0.8 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Domain Time Score 0.5 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Domain Time Score 0.5 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Domain Time Score 0.5 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Domain Time Score 0.2 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Domain Time Score 0.2 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Domain Time Score 0.2 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>cnW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>TwCN (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cnW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>TwCN (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>cnW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>TwCN (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>aaW Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>TwAA (β = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>aaW Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>TwAA (β = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>aaW Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>TwAA (β = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>cnWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CwCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>aaWJC (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CwAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="49">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="51">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="53">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="55">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="57">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="59">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="61">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="63">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="65">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="67">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="69">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="71">
+                  <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="73">
+                  <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="75">
+                  <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="77">
+                  <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="79">
+                  <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="81">
+                  <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3328,18 +6615,30 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="96828800"/>
-        <c:axId val="96834688"/>
+        <c:axId val="552122368"/>
+        <c:axId val="552356672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96828800"/>
+        <c:axId val="552122368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="ge\r\a\l" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3364,17 +6663,19 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96834688"/>
+        <c:crossAx val="552356672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96834688"/>
+        <c:axId val="552356672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3387,6 +6688,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_-* ###,000_-;\-* ###,000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3411,7 +6714,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96828800"/>
+        <c:crossAx val="552122368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3427,6 +6730,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3690,9 +6994,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3730,7 +7034,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3764,6 +7068,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3798,9 +7103,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3973,14 +7279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125"/>
     <col min="3" max="5" width="8.42578125"/>
@@ -3992,19 +7298,19 @@
     <col min="20" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="2:12">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
@@ -4027,7 +7333,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4051,7 +7357,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -4075,7 +7381,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -4099,7 +7405,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -4123,7 +7429,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -4147,7 +7453,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4157,19 +7463,19 @@
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:12" ht="36" customHeight="1">
-      <c r="B10" s="37" t="s">
+    <row r="10" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -4191,7 +7497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -4215,7 +7521,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +7545,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4263,7 +7569,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
@@ -4287,7 +7593,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -4311,7 +7617,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
@@ -4335,19 +7641,19 @@
         <v>15232</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
@@ -4370,7 +7676,7 @@
       </c>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -4380,7 +7686,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
@@ -4410,7 +7716,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>7</v>
@@ -4442,7 +7748,7 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
@@ -4472,7 +7778,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
@@ -4502,7 +7808,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
@@ -4544,14 +7850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.42578125"/>
     <col min="3" max="3" width="41.7109375" customWidth="1"/>
@@ -4564,20 +7870,20 @@
     <col min="10" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="3:14">
-      <c r="C2" s="38" t="s">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="4" spans="3:14">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
@@ -4609,11 +7915,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="36">
         <f>( 'First Table'!I12 / ( ( ('First Table'!G12 * ('First Table'!G12 - 1))/2) - 'First Table'!H12) *100)</f>
         <v>0.18125049612362076</v>
       </c>
@@ -4629,7 +7935,7 @@
         <f>( 'First Table'!I15 / ( ( ('First Table'!G15 * ('First Table'!G15 - 1))/2) - 'First Table'!H15)*100 )</f>
         <v>0.11081716547163969</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="36">
         <f>( 'First Table'!I16 / ( ( ('First Table'!G16 * ('First Table'!G16 - 1))/2) - 'First Table'!H16) *100)</f>
         <v>0.23497753808392538</v>
       </c>
@@ -4648,7 +7954,7 @@
         <v>0.15450148607375971</v>
       </c>
     </row>
-    <row r="6" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="6" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C6" s="32" t="s">
         <v>15</v>
       </c>
@@ -4681,11 +7987,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="3:14" collapsed="1">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="36">
         <f>((D6/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
@@ -4726,7 +8032,7 @@
         <v>51.576440797759247</v>
       </c>
     </row>
-    <row r="8" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="8" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C8" s="32" t="s">
         <v>17</v>
       </c>
@@ -4765,7 +8071,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="9" spans="3:14" collapsed="1">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="30" t="s">
         <v>18</v>
       </c>
@@ -4810,7 +8116,7 @@
         <v>55.102842638005868</v>
       </c>
     </row>
-    <row r="10" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="10" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C10" s="32" t="s">
         <v>19</v>
       </c>
@@ -4849,7 +8155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="3:14" collapsed="1">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
@@ -4894,7 +8200,7 @@
         <v>52.322937009710721</v>
       </c>
     </row>
-    <row r="12" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="12" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C12" s="32" t="s">
         <v>21</v>
       </c>
@@ -4933,7 +8239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="3:14" collapsed="1">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="32" t="s">
         <v>22</v>
       </c>
@@ -4978,7 +8284,7 @@
         <v>8.6939735872762718</v>
       </c>
     </row>
-    <row r="14" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="14" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" s="32" t="s">
         <v>25</v>
       </c>
@@ -5017,7 +8323,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="15" spans="3:14" collapsed="1">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="32" t="s">
         <v>39</v>
       </c>
@@ -5062,7 +8368,7 @@
         <v>57.501720771582484</v>
       </c>
     </row>
-    <row r="16" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="16" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C16" s="32" t="s">
         <v>24</v>
       </c>
@@ -5101,7 +8407,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="17" spans="3:14" collapsed="1">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="30" t="s">
         <v>38</v>
       </c>
@@ -5146,7 +8452,7 @@
         <v>59.233723178703613</v>
       </c>
     </row>
-    <row r="18" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="18" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C18" s="30" t="s">
         <v>23</v>
       </c>
@@ -5185,7 +8491,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="19" spans="3:14" collapsed="1">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="30" t="s">
         <v>37</v>
       </c>
@@ -5230,7 +8536,7 @@
         <v>59.040467292868563</v>
       </c>
     </row>
-    <row r="20" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="20" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C20" s="32" t="s">
         <v>68</v>
       </c>
@@ -5269,7 +8575,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="21" spans="3:14" hidden="1" collapsed="1">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="35" t="s">
         <v>74</v>
       </c>
@@ -5314,7 +8620,7 @@
         <v>58.055459334849843</v>
       </c>
     </row>
-    <row r="22" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="22" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C22" s="32" t="s">
         <v>69</v>
       </c>
@@ -5353,7 +8659,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="23" spans="3:14" hidden="1" collapsed="1">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="32" t="s">
         <v>75</v>
       </c>
@@ -5398,7 +8704,7 @@
         <v>60.782951010320382</v>
       </c>
     </row>
-    <row r="24" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="24" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C24" s="32" t="s">
         <v>70</v>
       </c>
@@ -5437,7 +8743,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="25" spans="3:14" hidden="1" collapsed="1">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="32" t="s">
         <v>76</v>
       </c>
@@ -5482,7 +8788,7 @@
         <v>59.610575215563948</v>
       </c>
     </row>
-    <row r="26" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="26" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C26" s="32" t="s">
         <v>71</v>
       </c>
@@ -5521,7 +8827,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="27" spans="3:14" hidden="1" collapsed="1">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="32" t="s">
         <v>77</v>
       </c>
@@ -5566,7 +8872,7 @@
         <v>60.9627495899691</v>
       </c>
     </row>
-    <row r="28" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="28" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C28" s="32" t="s">
         <v>72</v>
       </c>
@@ -5605,7 +8911,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="29" spans="3:14" hidden="1" collapsed="1">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="32" t="s">
         <v>78</v>
       </c>
@@ -5650,7 +8956,7 @@
         <v>61.327904166206849</v>
       </c>
     </row>
-    <row r="30" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="30" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C30" s="32" t="s">
         <v>73</v>
       </c>
@@ -5689,7 +8995,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="31" spans="3:14" hidden="1" collapsed="1">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="32" t="s">
         <v>79</v>
       </c>
@@ -5734,7 +9040,7 @@
         <v>58.103674601212063</v>
       </c>
     </row>
-    <row r="32" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="32" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C32" s="32" t="s">
         <v>80</v>
       </c>
@@ -5773,7 +9079,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="33" spans="3:14" hidden="1" collapsed="1">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="32" t="s">
         <v>81</v>
       </c>
@@ -5818,7 +9124,7 @@
         <v>60.048628467729785</v>
       </c>
     </row>
-    <row r="34" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="34" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C34" s="32" t="s">
         <v>82</v>
       </c>
@@ -5857,7 +9163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="3:14" hidden="1" collapsed="1">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="32" t="s">
         <v>83</v>
       </c>
@@ -5902,7 +9208,7 @@
         <v>59.496857280733913</v>
       </c>
     </row>
-    <row r="36" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="36" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C36" s="32" t="s">
         <v>84</v>
       </c>
@@ -5941,7 +9247,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="37" spans="3:14" hidden="1" collapsed="1">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="32" t="s">
         <v>85</v>
       </c>
@@ -5986,7 +9292,7 @@
         <v>58.414786915593027</v>
       </c>
     </row>
-    <row r="38" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="38" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C38" s="35" t="s">
         <v>26</v>
       </c>
@@ -6025,7 +9331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="3:14" hidden="1" collapsed="1">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="35" t="s">
         <v>40</v>
       </c>
@@ -6070,7 +9376,7 @@
         <v>54.566757276939811</v>
       </c>
     </row>
-    <row r="40" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="40" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C40" s="35" t="s">
         <v>27</v>
       </c>
@@ -6109,7 +9415,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="41" spans="3:14" hidden="1" collapsed="1">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="35" t="s">
         <v>41</v>
       </c>
@@ -6154,7 +9460,7 @@
         <v>55.012773366721866</v>
       </c>
     </row>
-    <row r="42" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="42" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C42" s="35" t="s">
         <v>28</v>
       </c>
@@ -6193,7 +9499,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="43" spans="3:14" hidden="1" collapsed="1">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" s="35" t="s">
         <v>42</v>
       </c>
@@ -6238,7 +9544,7 @@
         <v>55.814392704423014</v>
       </c>
     </row>
-    <row r="44" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="44" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C44" s="35" t="s">
         <v>29</v>
       </c>
@@ -6277,7 +9583,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="45" spans="3:14" hidden="1" collapsed="1">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C45" s="35" t="s">
         <v>43</v>
       </c>
@@ -6322,7 +9628,7 @@
         <v>59.013737869459099</v>
       </c>
     </row>
-    <row r="46" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="46" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C46" s="35" t="s">
         <v>30</v>
       </c>
@@ -6361,7 +9667,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="47" spans="3:14" hidden="1" collapsed="1">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47" s="35" t="s">
         <v>44</v>
       </c>
@@ -6406,7 +9712,7 @@
         <v>59.478162038725735</v>
       </c>
     </row>
-    <row r="48" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="48" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C48" s="35" t="s">
         <v>31</v>
       </c>
@@ -6445,7 +9751,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="49" spans="3:14" hidden="1" collapsed="1">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" s="35" t="s">
         <v>45</v>
       </c>
@@ -6490,7 +9796,7 @@
         <v>58.698330647074314</v>
       </c>
     </row>
-    <row r="50" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="50" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35" t="s">
         <v>32</v>
       </c>
@@ -6529,7 +9835,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="51" spans="3:14" hidden="1" collapsed="1">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" s="32" t="s">
         <v>46</v>
       </c>
@@ -6574,7 +9880,7 @@
         <v>50.989833761643936</v>
       </c>
     </row>
-    <row r="52" spans="3:14" hidden="1" outlineLevel="1">
+    <row r="52" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35" t="s">
         <v>33</v>
       </c>
@@ -6613,7 +9919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="3:14" hidden="1" collapsed="1">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C53" s="32" t="s">
         <v>47</v>
       </c>
@@ -6658,7 +9964,7 @@
         <v>55.745454661858368</v>
       </c>
     </row>
-    <row r="54" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="54" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C54" s="35" t="s">
         <v>48</v>
       </c>
@@ -6697,7 +10003,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="55" spans="3:14" collapsed="1">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C55" s="32" t="s">
         <v>86</v>
       </c>
@@ -6742,7 +10048,7 @@
         <v>56.487203734300451</v>
       </c>
     </row>
-    <row r="56" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="56" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C56" s="35" t="s">
         <v>49</v>
       </c>
@@ -6781,7 +10087,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="57" spans="3:14" collapsed="1">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C57" s="32" t="s">
         <v>87</v>
       </c>
@@ -6826,7 +10132,7 @@
         <v>56.065381011244042</v>
       </c>
     </row>
-    <row r="58" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="58" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C58" s="35" t="s">
         <v>50</v>
       </c>
@@ -6865,7 +10171,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="59" spans="3:14" collapsed="1">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C59" s="32" t="s">
         <v>88</v>
       </c>
@@ -6910,7 +10216,7 @@
         <v>55.316690659191792</v>
       </c>
     </row>
-    <row r="60" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="60" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C60" s="35" t="s">
         <v>51</v>
       </c>
@@ -6949,7 +10255,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="61" spans="3:14" collapsed="1">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C61" s="30" t="s">
         <v>89</v>
       </c>
@@ -6993,7 +10299,7 @@
         <v>55.071198155882016</v>
       </c>
     </row>
-    <row r="62" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="62" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C62" s="35" t="s">
         <v>52</v>
       </c>
@@ -7032,7 +10338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="3:14" collapsed="1">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C63" s="30" t="s">
         <v>90</v>
       </c>
@@ -7076,7 +10382,7 @@
         <v>56.675626101668357</v>
       </c>
     </row>
-    <row r="64" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="64" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C64" s="34" t="s">
         <v>53</v>
       </c>
@@ -7115,7 +10421,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="3:14" collapsed="1">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="30" t="s">
         <v>91</v>
       </c>
@@ -7160,7 +10466,7 @@
         <v>59.281064117636923</v>
       </c>
     </row>
-    <row r="66" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="66" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C66" s="32" t="s">
         <v>48</v>
       </c>
@@ -7199,7 +10505,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="67" spans="3:14" collapsed="1">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" s="32" t="s">
         <v>92</v>
       </c>
@@ -7244,7 +10550,7 @@
         <v>57.733623011491787</v>
       </c>
     </row>
-    <row r="68" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="68" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C68" s="35" t="s">
         <v>49</v>
       </c>
@@ -7283,7 +10589,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="69" spans="3:14" collapsed="1">
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C69" s="32" t="s">
         <v>94</v>
       </c>
@@ -7328,7 +10634,7 @@
         <v>54.921023916513697</v>
       </c>
     </row>
-    <row r="70" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="70" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C70" s="35" t="s">
         <v>50</v>
       </c>
@@ -7367,7 +10673,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="71" spans="3:14" collapsed="1">
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71" s="32" t="s">
         <v>93</v>
       </c>
@@ -7412,7 +10718,7 @@
         <v>52.623766136302493</v>
       </c>
     </row>
-    <row r="72" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="72" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C72" s="35" t="s">
         <v>51</v>
       </c>
@@ -7451,7 +10757,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="3:14" collapsed="1">
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C73" s="32" t="s">
         <v>96</v>
       </c>
@@ -7496,7 +10802,7 @@
         <v>58.182113110111104</v>
       </c>
     </row>
-    <row r="74" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="74" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C74" s="35" t="s">
         <v>52</v>
       </c>
@@ -7535,7 +10841,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="75" spans="3:14" collapsed="1">
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C75" s="32" t="s">
         <v>97</v>
       </c>
@@ -7580,7 +10886,7 @@
         <v>56.498389911966136</v>
       </c>
     </row>
-    <row r="76" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="76" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C76" s="35" t="s">
         <v>53</v>
       </c>
@@ -7619,7 +10925,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="77" spans="3:14" collapsed="1">
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C77" s="32" t="s">
         <v>98</v>
       </c>
@@ -7664,7 +10970,7 @@
         <v>54.187469189628288</v>
       </c>
     </row>
-    <row r="78" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="78" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C78" s="32" t="s">
         <v>48</v>
       </c>
@@ -7703,7 +11009,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="79" spans="3:14" collapsed="1">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C79" s="32" t="s">
         <v>99</v>
       </c>
@@ -7748,7 +11054,7 @@
         <v>53.736093917675113</v>
       </c>
     </row>
-    <row r="80" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="80" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C80" s="35" t="s">
         <v>49</v>
       </c>
@@ -7787,7 +11093,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="81" spans="3:14" collapsed="1">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C81" s="32" t="s">
         <v>100</v>
       </c>
@@ -7832,7 +11138,7 @@
         <v>54.881128999832583</v>
       </c>
     </row>
-    <row r="82" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="82" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C82" s="35" t="s">
         <v>50</v>
       </c>
@@ -7871,7 +11177,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="83" spans="3:14" collapsed="1">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C83" s="32" t="s">
         <v>101</v>
       </c>
@@ -7916,7 +11222,7 @@
         <v>54.711330083089209</v>
       </c>
     </row>
-    <row r="84" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="84" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C84" s="35" t="s">
         <v>51</v>
       </c>
@@ -7955,7 +11261,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="85" spans="3:14" collapsed="1">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C85" s="32" t="s">
         <v>95</v>
       </c>
@@ -8000,7 +11306,7 @@
         <v>59.196512444963467</v>
       </c>
     </row>
-    <row r="86" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="86" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C86" s="35" t="s">
         <v>52</v>
       </c>
@@ -8039,7 +11345,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="87" spans="3:14" collapsed="1">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C87" s="32" t="s">
         <v>102</v>
       </c>
@@ -8084,7 +11390,7 @@
         <v>57.495697436086132</v>
       </c>
     </row>
-    <row r="88" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="88" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C88" s="35" t="s">
         <v>53</v>
       </c>
@@ -8123,7 +11429,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="89" spans="3:14" collapsed="1">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C89" s="30" t="s">
         <v>103</v>
       </c>
@@ -8168,7 +11474,7 @@
         <v>58.890656550897333</v>
       </c>
     </row>
-    <row r="90" spans="3:14" hidden="1" outlineLevel="2">
+    <row r="90" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C90" s="21" t="s">
         <v>34</v>
       </c>
@@ -8178,7 +11484,7 @@
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="3:14" hidden="1" collapsed="1">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C91" s="21" t="s">
         <v>34</v>
       </c>
@@ -8203,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:7">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
@@ -8211,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:7">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120" s="2" t="s">
         <v>18</v>
       </c>
@@ -8222,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="3:7">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121" s="2" t="s">
         <v>20</v>
       </c>
@@ -8230,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C122" s="2" t="s">
         <v>22</v>
       </c>
@@ -8238,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:7">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
         <v>39</v>
       </c>
@@ -8246,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:7">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
         <v>38</v>
       </c>
@@ -8257,7 +11563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="3:7">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C125" s="2" t="s">
         <v>37</v>
       </c>
@@ -8279,14 +11585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="8.42578125"/>
   </cols>
@@ -8298,14 +11604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="8.42578125"/>
   </cols>
@@ -8317,14 +11623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="8.42578125"/>
   </cols>
@@ -8336,20 +11642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1"/>
-    <row r="2" ht="12.75" customHeight="1"/>
+    <row r="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8358,14 +11664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="8.42578125"/>
   </cols>
@@ -8377,14 +11683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8392,14 +11698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E6:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -8407,7 +11713,7 @@
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:10">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>59</v>
       </c>
@@ -8424,7 +11730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="5:10">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>2</v>
       </c>
@@ -8441,7 +11747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="5:10">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>63</v>
       </c>
@@ -8452,7 +11758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="5:10">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="H12">
         <f>(H7^F7)</f>
         <v>1</v>
@@ -8466,7 +11772,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="5:10">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="I15">
         <f>1/((1-I7)^G7)</f>
         <v>1.7411011265922482</v>
@@ -8476,7 +11782,7 @@
         <v>3.4822022531844965</v>
       </c>
     </row>
-    <row r="21" spans="9:10">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>9.5635249979003717E-2</v>
       </c>

--- a/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
+++ b/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="90" windowWidth="14520" windowHeight="7935" tabRatio="987"/>
+    <workbookView xWindow="495" yWindow="90" windowWidth="14520" windowHeight="7935" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Table" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>Article Data</t>
   </si>
@@ -358,6 +358,18 @@
   </si>
   <si>
     <t xml:space="preserve">CTwAA (β = 0.2, α = 0.2) </t>
+  </si>
+  <si>
+    <t>WCN (Total Success)</t>
+  </si>
+  <si>
+    <t>WCN</t>
+  </si>
+  <si>
+    <t>WAA (Total Success)</t>
+  </si>
+  <si>
+    <t>WAA</t>
   </si>
 </sst>
 </file>
@@ -781,9 +793,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$93</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -914,123 +926,135 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1038,10 +1062,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$L$7:$L$89</c:f>
+              <c:f>'Results 1994-1999'!$L$7:$L$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
@@ -1172,123 +1196,135 @@
                   <c:v>39.355778774254297</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.936485451154599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>36.297039491281161</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>38.132283061065039</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>35.073543778091903</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>40.783190439641757</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>39.355778774254297</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>37.92836710886683</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>38.947946869857873</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>39.559694726452499</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>41.394938296236383</c:v>
                 </c:pt>
               </c:numCache>
@@ -1309,9 +1345,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$93</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1442,123 +1478,135 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1566,10 +1614,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$M$7:$M$89</c:f>
+              <c:f>'Results 1994-1999'!$M$7:$M$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
@@ -1700,123 +1748,135 @@
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>93.94475504386449</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>93.94475504386449</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>64.901989367339482</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>178</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>68.646334907762906</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>69.856356314668474</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>72.390680448186345</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>193</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>72.26519618758806</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>75.87845599696746</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>79.491715806346861</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>79.491715806346861</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>74.67403606050766</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>194</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>77.082875933427275</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>72.26519618758806</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>75.87845599696746</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
               </c:numCache>
@@ -1858,9 +1918,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$89</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$93</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1991,123 +2051,135 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -2115,10 +2187,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$N$7:$N$89</c:f>
+              <c:f>'Results 1994-1999'!$N$7:$N$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>51.576440797759247</c:v>
                 </c:pt>
@@ -2249,123 +2321,135 @@
                   <c:v>58.698330647074314</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.01883432665808</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63.141338662052036</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
                   <c:v>87.6</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>50.989833761643936</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>55.745454661858368</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>89.4</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>56.487203734300451</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>86.6</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>56.065381011244042</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>84.2</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>55.316690659191792</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>93.6</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>55.071198155882016</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>56.675626101668357</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>59.281064117636923</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>89.8</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>57.733623011491787</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>89.6</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>54.921023916513697</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>87.2</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>52.623766136302493</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>58.182113110111104</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>91.6</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>56.498389911966136</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>90.2</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>54.187469189628288</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>87.8</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>53.736093917675113</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>86.8</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>54.881128999832583</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>85.4</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>54.711330083089209</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>92.2</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>59.196512444963467</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>90.4</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>57.495697436086132</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>92.8</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>58.890656550897333</c:v>
                 </c:pt>
               </c:numCache>
@@ -2382,11 +2466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="538959872"/>
-        <c:axId val="538787840"/>
+        <c:axId val="555504640"/>
+        <c:axId val="105111552"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="538959872"/>
+        <c:axId val="555504640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,7 +2479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538787840"/>
+        <c:crossAx val="105111552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2403,7 +2487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538787840"/>
+        <c:axId val="105111552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538959872"/>
+        <c:crossAx val="555504640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2471,6 +2555,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2555,9 +2640,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -2688,129 +2773,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2818,10 +2915,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$D$7:$D$91</c:f>
+              <c:f>'Results 1994-1999'!$D$7:$D$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
@@ -2952,126 +3049,138 @@
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68.461931908998892</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>40.271724652352283</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>52.353242048057965</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>52.353242048057965</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>44.298897117587515</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>40.271724652352283</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>48.32606958282274</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>44.298897117587515</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>44.298897117587515</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3088,12 +3197,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="538961408"/>
-        <c:axId val="538790144"/>
+        <c:axId val="556855296"/>
+        <c:axId val="105113856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="538961408"/>
+        <c:axId val="556855296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3235,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538790144"/>
+        <c:crossAx val="105113856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3134,7 +3243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538790144"/>
+        <c:axId val="105113856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3177,7 +3286,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538961408"/>
+        <c:crossAx val="556855296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3251,6 +3360,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3315,9 +3425,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -3448,129 +3558,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3578,10 +3700,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$E$7:$E$91</c:f>
+              <c:f>'Results 1994-1999'!$E$7:$E$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>50.585637331311638</c:v>
                 </c:pt>
@@ -3712,112 +3834,112 @@
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>93.94475504386449</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>93.94475504386449</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>61.42541675944986</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>60.220996822990053</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>69.856356314668474</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>72.26519618758806</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>74.67403606050766</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>77.082875933427275</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>73.46961612404786</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>72.26519618758806</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>75.87845599696746</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>60</c:v>
@@ -3826,12 +3948,24 @@
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3848,12 +3982,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="538963456"/>
-        <c:axId val="538791872"/>
+        <c:axId val="556856832"/>
+        <c:axId val="105115584"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="538963456"/>
+        <c:axId val="556856832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3886,7 +4020,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538791872"/>
+        <c:crossAx val="105115584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3894,7 +4028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538791872"/>
+        <c:axId val="105115584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,7 +4071,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538963456"/>
+        <c:crossAx val="556856832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4011,6 +4145,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4075,9 +4210,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -4208,129 +4343,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -4338,10 +4485,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$F$7:$F$91</c:f>
+              <c:f>'Results 1994-1999'!$F$7:$F$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>49.33391084812623</c:v>
                 </c:pt>
@@ -4472,16 +4619,16 @@
                   <c:v>50.08139434582511</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>130</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>48.58642735042735</c:v>
+                  <c:v>44.849009861932942</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>153</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.182487573964494</c:v>
+                  <c:v>47.465202103879015</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>130</c:v>
@@ -4490,108 +4637,120 @@
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57.182487573964494</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48.58642735042735</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>47.091460355029582</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>46.343976857330702</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>50.828877843523998</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>50.08139434582511</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>50.455136094674558</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>47.838943852728463</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>50.828877843523998</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>50.08139434582511</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>49.707652596975677</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>46.717718606180135</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>45.596493359631815</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>49.707652596975677</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>48.960169099276797</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4608,12 +4767,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="541181952"/>
-        <c:axId val="538793600"/>
+        <c:axId val="556858880"/>
+        <c:axId val="105117312"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="541181952"/>
+        <c:axId val="556858880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4646,7 +4805,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538793600"/>
+        <c:crossAx val="105117312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4654,7 +4813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538793600"/>
+        <c:axId val="105117312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4697,7 +4856,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541181952"/>
+        <c:crossAx val="556858880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4771,6 +4930,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4835,9 +4995,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -4968,129 +5128,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -5098,10 +5270,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$G$7:$G$91</c:f>
+              <c:f>'Results 1994-1999'!$G$7:$G$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
@@ -5238,46 +5410,46 @@
                   <c:v>64.901989367339482</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>68.646334907762906</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>64.901989367339482</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>72.390680448186345</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>69.894450087904062</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>69.894450087904062</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>56</c:v>
@@ -5286,72 +5458,84 @@
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>62.405759007057199</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>68.646334907762906</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>64.901989367339482</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>61.157643826916051</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>59.909528646774909</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>62.405759007057199</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>71.142565268045203</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>66.150104547480638</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>67.398219727621765</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5368,12 +5552,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="516742144"/>
-        <c:axId val="538795328"/>
+        <c:axId val="51110400"/>
+        <c:axId val="105119040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="516742144"/>
+        <c:axId val="51110400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,7 +5590,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538795328"/>
+        <c:crossAx val="105119040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5414,7 +5598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538795328"/>
+        <c:axId val="105119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5457,7 +5641,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516742144"/>
+        <c:crossAx val="51110400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5591,9 +5775,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$91</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$95</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -5724,129 +5908,141 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -5854,10 +6050,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$H$7:$H$91</c:f>
+              <c:f>'Results 1994-1999'!$H$7:$H$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
@@ -5988,64 +6184,64 @@
                   <c:v>39.355778774254297</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.936485451154599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>178</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>36.297039491281161</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>38.132283061065039</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>35.073543778091903</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>40.783190439641757</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>193</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>39.355778774254297</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>37.92836710886683</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>38.947946869857873</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>186</c:v>
@@ -6054,60 +6250,72 @@
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38.947946869857873</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>194</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>39.559694726452499</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>41.394938296236383</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6124,12 +6332,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="541183488"/>
-        <c:axId val="552354944"/>
+        <c:axId val="560989696"/>
+        <c:axId val="561472640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="541183488"/>
+        <c:axId val="560989696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6162,7 +6370,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552354944"/>
+        <c:crossAx val="561472640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6170,7 +6378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552354944"/>
+        <c:axId val="561472640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6213,7 +6421,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541183488"/>
+        <c:crossAx val="560989696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6287,6 +6495,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6351,9 +6560,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$90</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$94</c:f>
               <c:strCache>
-                <c:ptCount val="84"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -6484,126 +6693,138 @@
                   <c:v>TwAA (β = 0.2)</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>WCN (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>WCN</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>WAA (Total Success)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>WAA</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>cnWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>aaWJC (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="73">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="75">
                   <c:v>cnW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>cnW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="78">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="79">
                   <c:v>cnW Context  Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="80">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="81">
                   <c:v>aaW Context Time Score DF 0.8 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="82">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>aaW Context Time Score DF 0.5 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>aaW Context Time Score DF 0.2 (Total Success)</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="86">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="87">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -6611,7 +6832,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$I$7:$I$90</c:f>
+              <c:f>'Results 1994-1999'!$I$7:$I$94</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -6625,12 +6846,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="552122368"/>
-        <c:axId val="552356672"/>
+        <c:axId val="560991744"/>
+        <c:axId val="561474368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="552122368"/>
+        <c:axId val="560991744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6663,7 +6884,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552356672"/>
+        <c:crossAx val="561474368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6671,7 +6892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552356672"/>
+        <c:axId val="561474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6714,7 +6935,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552122368"/>
+        <c:crossAx val="560991744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6754,13 +6975,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>183696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>175845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7282,7 +7503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -7851,10 +8072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N125"/>
+  <dimension ref="C1:N129"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H89"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -7983,7 +8204,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23">
-        <f t="shared" ref="N6:N89" si="1">K6/5</f>
+        <f t="shared" ref="N6:N93" si="1">K6/5</f>
         <v>85</v>
       </c>
     </row>
@@ -9319,11 +9540,11 @@
         <v>420</v>
       </c>
       <c r="L38" s="23">
-        <f t="shared" ref="L38:L89" si="4">MIN(D38:H38)</f>
+        <f t="shared" ref="L38:L93" si="4">MIN(D38:H38)</f>
         <v>14</v>
       </c>
       <c r="M38" s="23">
-        <f t="shared" ref="M38:M89" si="5">MAX(D38:H38)</f>
+        <f t="shared" ref="M38:M93" si="5">MAX(D38:H38)</f>
         <v>175</v>
       </c>
       <c r="N38" s="23">
@@ -9798,871 +10019,871 @@
     </row>
     <row r="50" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D50" s="28">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E50" s="28">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F50" s="28">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G50" s="28">
         <v>52</v>
       </c>
       <c r="H50" s="28">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="I50" s="20">
         <v>196</v>
       </c>
       <c r="K50" s="23">
-        <f>SUM(D50:H50)</f>
-        <v>438</v>
+        <f t="shared" ref="K50:K58" si="6">SUM(D50:H50)</f>
+        <v>404</v>
       </c>
       <c r="L50" s="23">
-        <f>MIN(D50:H50)</f>
-        <v>10</v>
+        <f t="shared" ref="L50:L58" si="7">MIN(D50:H50)</f>
+        <v>17</v>
       </c>
       <c r="M50" s="23">
-        <f>MAX(D50:H50)</f>
-        <v>195</v>
+        <f t="shared" ref="M50:M58" si="8">MAX(D50:H50)</f>
+        <v>137</v>
       </c>
       <c r="N50">
-        <f>K50/5</f>
-        <v>87.6</v>
+        <f t="shared" ref="N50:N58" si="9">K50/5</f>
+        <v>80.8</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" s="32" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D51" s="28">
-        <f>((D50/ 'First Table'!I12  )*100)/D5</f>
-        <v>40.271724652352283</v>
+        <f>((D50/  'First Table'!I12  )*100)/D5</f>
+        <v>68.461931908998892</v>
       </c>
       <c r="E51" s="29">
         <f>((E50/   'First Table'!I13   )*100)/E5</f>
-        <v>61.42541675944986</v>
+        <v>93.94475504386449</v>
       </c>
       <c r="F51" s="28">
-        <f>((F50/   'First Table'!I14    )*100)/F5</f>
-        <v>48.58642735042735</v>
+        <f>((F50/    'First Table'!I14    )*100)/F5</f>
+        <v>44.849009861932942</v>
       </c>
       <c r="G51" s="28">
-        <f>((G50/ 'First Table'!I15  )*100)/G5</f>
+        <f>((G50/  'First Table'!I15  )*100)/G5</f>
         <v>64.901989367339482</v>
       </c>
       <c r="H51" s="28">
         <f>((H50/   'First Table'!I16    )*100)/H5</f>
-        <v>39.763610678650707</v>
-      </c>
-      <c r="I51" s="20">
-        <f>((I50/   'First Table'!I17    )*100)/I5</f>
-        <v>39.034579267138838</v>
+        <v>27.936485451154599</v>
+      </c>
+      <c r="I51" s="20" t="e">
+        <f>((I50/   'First Table'!I13    )*100)/I1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K51" s="23">
-        <f>SUM(D51:H51)</f>
-        <v>254.94916880821967</v>
+        <f t="shared" si="6"/>
+        <v>300.09417163329039</v>
       </c>
       <c r="L51" s="23">
-        <f>MIN(D51:H51)</f>
-        <v>39.763610678650707</v>
+        <f t="shared" si="7"/>
+        <v>27.936485451154599</v>
       </c>
       <c r="M51" s="23">
-        <f>MAX(D51:H51)</f>
-        <v>64.901989367339482</v>
+        <f t="shared" si="8"/>
+        <v>93.94475504386449</v>
       </c>
       <c r="N51" s="23">
-        <f>K51/5</f>
-        <v>50.989833761643936</v>
+        <f t="shared" si="9"/>
+        <v>60.01883432665808</v>
       </c>
     </row>
     <row r="52" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D52" s="28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52" s="28">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F52" s="28">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="G52" s="28">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H52" s="28">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="I52" s="20">
         <v>179</v>
       </c>
       <c r="K52" s="23">
-        <f>SUM(D52:H52)</f>
-        <v>450</v>
+        <f t="shared" si="6"/>
+        <v>473</v>
       </c>
       <c r="L52" s="23">
-        <f>MIN(D52:H52)</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="M52" s="23">
-        <f>MAX(D52:H52)</f>
-        <v>178</v>
+        <f t="shared" si="8"/>
+        <v>196</v>
       </c>
       <c r="N52" s="23">
-        <f>K52/5</f>
-        <v>90</v>
+        <f t="shared" si="9"/>
+        <v>94.6</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C53" s="32" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D53" s="28">
         <f>((D52/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
+        <v>64.434759443763653</v>
       </c>
       <c r="E53" s="29">
-        <f>((E52/   'First Table'!I13   )*100)/E5</f>
-        <v>60.220996822990053</v>
+        <f>((E52/  'First Table'!I13   )*100)/E5</f>
+        <v>93.94475504386449</v>
       </c>
       <c r="F53" s="28">
-        <f>((F52/   'First Table'!I14    )*100)/F5</f>
-        <v>57.182487573964494</v>
+        <f>((F52/     'First Table'!I14    )*100)/F5</f>
+        <v>47.465202103879015</v>
       </c>
       <c r="G53" s="28">
-        <f>((G52/ 'First Table'!I15  )*100)/G5</f>
-        <v>68.646334907762906</v>
+        <f>((G52/  'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
       </c>
       <c r="H53" s="28">
         <f>((H52/   'First Table'!I16    )*100)/H5</f>
-        <v>36.297039491281161</v>
-      </c>
-      <c r="I53" s="20">
-        <f>((I52/   'First Table'!I17    )*100)/I5</f>
-        <v>35.648926983764554</v>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="I53" s="20" t="e">
+        <f>((I52/   'First Table'!I13    )*100)/I1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K53" s="23">
-        <f>SUM(D53:H53)</f>
-        <v>278.72727330929183</v>
+        <f t="shared" si="6"/>
+        <v>315.70669331026016</v>
       </c>
       <c r="L53" s="23">
-        <f>MIN(D53:H53)</f>
-        <v>36.297039491281161</v>
+        <f t="shared" si="7"/>
+        <v>39.967526630848923</v>
       </c>
       <c r="M53" s="23">
-        <f>MAX(D53:H53)</f>
-        <v>68.646334907762906</v>
+        <f t="shared" si="8"/>
+        <v>93.94475504386449</v>
       </c>
       <c r="N53" s="23">
-        <f>K53/5</f>
-        <v>55.745454661858368</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>63.141338662052036</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D54" s="28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="28">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F54" s="28">
         <v>130</v>
       </c>
       <c r="G54" s="28">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H54" s="28">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I54" s="20">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K54" s="23">
-        <f>SUM(D54:H54)</f>
-        <v>447</v>
+        <f t="shared" si="6"/>
+        <v>438</v>
       </c>
       <c r="L54" s="23">
-        <f>MIN(D54:H54)</f>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="M54" s="23">
-        <f>MAX(D54:H54)</f>
-        <v>187</v>
-      </c>
-      <c r="N54" s="23">
-        <f>K54/5</f>
-        <v>89.4</v>
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="9"/>
+        <v>87.6</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C55" s="32" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D55" s="28">
         <f>((D54/ 'First Table'!I12  )*100)/D5</f>
+        <v>40.271724652352283</v>
+      </c>
+      <c r="E55" s="29">
+        <f>((E54/   'First Table'!I13   )*100)/E5</f>
+        <v>61.42541675944986</v>
+      </c>
+      <c r="F55" s="28">
+        <f>((F54/   'First Table'!I14    )*100)/F5</f>
+        <v>48.58642735042735</v>
+      </c>
+      <c r="G55" s="28">
+        <f>((G54/ 'First Table'!I15  )*100)/G5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H55" s="28">
+        <f>((H54/   'First Table'!I16    )*100)/H5</f>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="I55" s="20">
+        <f>((I54/   'First Table'!I17    )*100)/I5</f>
+        <v>39.034579267138838</v>
+      </c>
+      <c r="K55" s="23">
+        <f t="shared" si="6"/>
+        <v>254.94916880821967</v>
+      </c>
+      <c r="L55" s="23">
+        <f t="shared" si="7"/>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="M55" s="23">
+        <f t="shared" si="8"/>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="N55" s="23">
+        <f t="shared" si="9"/>
+        <v>50.989833761643936</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="28">
+        <v>14</v>
+      </c>
+      <c r="E56" s="28">
+        <v>50</v>
+      </c>
+      <c r="F56" s="28">
+        <v>153</v>
+      </c>
+      <c r="G56" s="28">
+        <v>55</v>
+      </c>
+      <c r="H56" s="28">
+        <v>178</v>
+      </c>
+      <c r="I56" s="20">
+        <v>179</v>
+      </c>
+      <c r="K56" s="23">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="L56" s="23">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="M56" s="23">
+        <f t="shared" si="8"/>
+        <v>178</v>
+      </c>
+      <c r="N56" s="23">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="28">
+        <f>((D56/ 'First Table'!I12  )*100)/D5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E57" s="29">
+        <f>((E56/   'First Table'!I13   )*100)/E5</f>
+        <v>60.220996822990053</v>
+      </c>
+      <c r="F57" s="28">
+        <f>((F56/   'First Table'!I14    )*100)/F5</f>
+        <v>57.182487573964494</v>
+      </c>
+      <c r="G57" s="28">
+        <f>((G56/ 'First Table'!I15  )*100)/G5</f>
+        <v>68.646334907762906</v>
+      </c>
+      <c r="H57" s="28">
+        <f>((H56/   'First Table'!I16    )*100)/H5</f>
+        <v>36.297039491281161</v>
+      </c>
+      <c r="I57" s="20">
+        <f>((I56/   'First Table'!I17    )*100)/I5</f>
+        <v>35.648926983764554</v>
+      </c>
+      <c r="K57" s="23">
+        <f t="shared" si="6"/>
+        <v>278.72727330929183</v>
+      </c>
+      <c r="L57" s="23">
+        <f t="shared" si="7"/>
+        <v>36.297039491281161</v>
+      </c>
+      <c r="M57" s="23">
+        <f t="shared" si="8"/>
+        <v>68.646334907762906</v>
+      </c>
+      <c r="N57" s="23">
+        <f t="shared" si="9"/>
+        <v>55.745454661858368</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C58" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="28">
+        <v>13</v>
+      </c>
+      <c r="E58" s="28">
+        <v>61</v>
+      </c>
+      <c r="F58" s="28">
+        <v>130</v>
+      </c>
+      <c r="G58" s="28">
+        <v>56</v>
+      </c>
+      <c r="H58" s="28">
+        <v>187</v>
+      </c>
+      <c r="I58" s="20">
+        <v>176</v>
+      </c>
+      <c r="K58" s="23">
+        <f t="shared" si="6"/>
+        <v>447</v>
+      </c>
+      <c r="L58" s="23">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="M58" s="23">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="N58" s="23">
+        <f t="shared" si="9"/>
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C59" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="28">
+        <f>((D58/ 'First Table'!I12  )*100)/D5</f>
         <v>52.353242048057965</v>
       </c>
-      <c r="E55" s="28">
-        <f>((E54/    'First Table'!I13   )*100)/E5</f>
+      <c r="E59" s="28">
+        <f>((E58/    'First Table'!I13   )*100)/E5</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="F55" s="28">
-        <f>((F54/    'First Table'!I14    )*100)/F5</f>
+      <c r="F59" s="28">
+        <f>((F58/    'First Table'!I14    )*100)/F5</f>
         <v>48.58642735042735</v>
       </c>
-      <c r="G55" s="28">
-        <f>((G54/  'First Table'!I15  )*100)/G5</f>
+      <c r="G59" s="28">
+        <f>((G58/  'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H55" s="28">
-        <f>((H54/  'First Table'!I16    )*100)/H5</f>
+      <c r="H59" s="28">
+        <f>((H58/  'First Table'!I16    )*100)/H5</f>
         <v>38.132283061065039</v>
       </c>
-      <c r="I55" s="20" t="e">
+      <c r="I59" s="20" t="e">
         <f>((I32/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K55" s="23">
-        <f t="shared" ref="K55:K67" si="6">SUM(D55:H55)</f>
+      <c r="K59" s="23">
+        <f t="shared" ref="K59:K71" si="10">SUM(D59:H59)</f>
         <v>282.43601867150227</v>
       </c>
-      <c r="L55" s="23">
-        <f t="shared" ref="L55:L67" si="7">MIN(D55:H55)</f>
+      <c r="L59" s="23">
+        <f t="shared" ref="L59:L71" si="11">MIN(D59:H59)</f>
         <v>38.132283061065039</v>
       </c>
-      <c r="M55" s="23">
-        <f t="shared" ref="M55:M67" si="8">MAX(D55:H55)</f>
+      <c r="M59" s="23">
+        <f t="shared" ref="M59:M71" si="12">MAX(D59:H59)</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="N55" s="23">
-        <f t="shared" ref="N55:N67" si="9">K55/5</f>
+      <c r="N59" s="23">
+        <f t="shared" ref="N59:N71" si="13">K59/5</f>
         <v>56.487203734300451</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C56" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="28">
-        <v>15</v>
-      </c>
-      <c r="E56" s="28">
-        <v>60</v>
-      </c>
-      <c r="F56" s="28">
-        <v>126</v>
-      </c>
-      <c r="G56" s="28">
-        <v>51</v>
-      </c>
-      <c r="H56" s="28">
-        <v>181</v>
-      </c>
-      <c r="I56" s="20">
-        <v>179</v>
-      </c>
-      <c r="K56" s="23">
-        <f t="shared" si="6"/>
-        <v>433</v>
-      </c>
-      <c r="L56" s="23">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="M56" s="23">
-        <f t="shared" si="8"/>
-        <v>181</v>
-      </c>
-      <c r="N56" s="23">
-        <f t="shared" si="9"/>
-        <v>86.6</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C57" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="28">
-        <f>((D56/  'First Table'!I12  )*100)/D5</f>
-        <v>60.407586978528435</v>
-      </c>
-      <c r="E57" s="28">
-        <f>((E56/    'First Table'!I13   )*100)/E5</f>
-        <v>72.26519618758806</v>
-      </c>
-      <c r="F57" s="28">
-        <f>((F56/   'First Table'!I14    )*100)/F5</f>
-        <v>47.091460355029582</v>
-      </c>
-      <c r="G57" s="28">
-        <f>((G56/  'First Table'!I15  )*100)/G5</f>
-        <v>63.653874187198333</v>
-      </c>
-      <c r="H57" s="28">
-        <f>((H56/   'First Table'!I16    )*100)/H5</f>
-        <v>36.908787347875787</v>
-      </c>
-      <c r="I57" s="20" t="e">
-        <f>((I56/   'First Table'!I7    )*100)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K57" s="23">
-        <f t="shared" si="6"/>
-        <v>280.3269050562202</v>
-      </c>
-      <c r="L57" s="23">
-        <f t="shared" si="7"/>
-        <v>36.908787347875787</v>
-      </c>
-      <c r="M57" s="23">
-        <f t="shared" si="8"/>
-        <v>72.26519618758806</v>
-      </c>
-      <c r="N57" s="23">
-        <f t="shared" si="9"/>
-        <v>56.065381011244042</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C58" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="28">
-        <v>15</v>
-      </c>
-      <c r="E58" s="28">
-        <v>58</v>
-      </c>
-      <c r="F58" s="28">
-        <v>124</v>
-      </c>
-      <c r="G58" s="28">
-        <v>52</v>
-      </c>
-      <c r="H58" s="28">
-        <v>172</v>
-      </c>
-      <c r="I58" s="20">
-        <v>173</v>
-      </c>
-      <c r="K58" s="23">
-        <f t="shared" si="6"/>
-        <v>421</v>
-      </c>
-      <c r="L58" s="23">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="M58" s="23">
-        <f t="shared" si="8"/>
-        <v>172</v>
-      </c>
-      <c r="N58" s="23">
-        <f t="shared" si="9"/>
-        <v>84.2</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C59" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="28">
-        <f>((D58/ 'First Table'!I12  )*100)/D5</f>
-        <v>60.407586978528435</v>
-      </c>
-      <c r="E59" s="28">
-        <f>((E58/   'First Table'!I13   )*100)/E5</f>
-        <v>69.856356314668474</v>
-      </c>
-      <c r="F59" s="28">
-        <f>((F58/   'First Table'!I14    )*100)/F5</f>
-        <v>46.343976857330702</v>
-      </c>
-      <c r="G59" s="28">
-        <f>((G58/  'First Table'!I15  )*100)/G5</f>
-        <v>64.901989367339482</v>
-      </c>
-      <c r="H59" s="28">
-        <f>((H58/    'First Table'!I16    )*100)/H5</f>
-        <v>35.073543778091903</v>
-      </c>
-      <c r="I59" s="20" t="e">
-        <f>((I58/   'First Table'!I7    )*100)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K59" s="23">
-        <f t="shared" si="6"/>
-        <v>276.58345329595898</v>
-      </c>
-      <c r="L59" s="23">
-        <f t="shared" si="7"/>
-        <v>35.073543778091903</v>
-      </c>
-      <c r="M59" s="23">
-        <f t="shared" si="8"/>
-        <v>69.856356314668474</v>
-      </c>
-      <c r="N59" s="23">
-        <f t="shared" si="9"/>
-        <v>55.316690659191792</v>
       </c>
     </row>
     <row r="60" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C60" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="28">
+        <v>15</v>
+      </c>
+      <c r="E60" s="28">
+        <v>60</v>
+      </c>
+      <c r="F60" s="28">
+        <v>126</v>
+      </c>
+      <c r="G60" s="28">
         <v>51</v>
       </c>
-      <c r="D60" s="28">
-        <v>13</v>
-      </c>
-      <c r="E60" s="28">
-        <v>61</v>
-      </c>
-      <c r="F60" s="28">
-        <v>136</v>
-      </c>
-      <c r="G60" s="28">
-        <v>58</v>
-      </c>
       <c r="H60" s="28">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="I60" s="20">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K60" s="23">
-        <f t="shared" si="6"/>
-        <v>468</v>
+        <f t="shared" si="10"/>
+        <v>433</v>
       </c>
       <c r="L60" s="23">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="M60" s="23">
-        <f t="shared" si="8"/>
-        <v>200</v>
+        <f t="shared" si="12"/>
+        <v>181</v>
       </c>
       <c r="N60" s="23">
-        <f t="shared" si="9"/>
-        <v>93.6</v>
+        <f t="shared" si="13"/>
+        <v>86.6</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
-        <v>89</v>
+      <c r="C61" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="D61" s="28">
         <f>((D60/  'First Table'!I12  )*100)/D5</f>
-        <v>52.353242048057965</v>
+        <v>60.407586978528435</v>
       </c>
       <c r="E61" s="28">
-        <v>59</v>
+        <f>((E60/    'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
       </c>
       <c r="F61" s="28">
-        <f>((F60/    'First Table'!I14    )*100)/F5</f>
-        <v>50.828877843523998</v>
-      </c>
-      <c r="G61" s="31">
+        <f>((F60/   'First Table'!I14    )*100)/F5</f>
+        <v>47.091460355029582</v>
+      </c>
+      <c r="G61" s="28">
         <f>((G60/  'First Table'!I15  )*100)/G5</f>
-        <v>72.390680448186345</v>
+        <v>63.653874187198333</v>
       </c>
       <c r="H61" s="28">
-        <f>((H60/    'First Table'!I16    )*100)/H5</f>
-        <v>40.783190439641757</v>
+        <f>((H60/   'First Table'!I16    )*100)/H5</f>
+        <v>36.908787347875787</v>
       </c>
       <c r="I61" s="20" t="e">
         <f>((I60/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K61" s="23">
-        <f t="shared" si="6"/>
-        <v>275.35599077941009</v>
+        <f t="shared" si="10"/>
+        <v>280.3269050562202</v>
       </c>
       <c r="L61" s="23">
-        <f t="shared" si="7"/>
-        <v>40.783190439641757</v>
+        <f t="shared" si="11"/>
+        <v>36.908787347875787</v>
       </c>
       <c r="M61" s="23">
-        <f t="shared" si="8"/>
-        <v>72.390680448186345</v>
+        <f t="shared" si="12"/>
+        <v>72.26519618758806</v>
       </c>
       <c r="N61" s="23">
-        <f t="shared" si="9"/>
-        <v>55.071198155882016</v>
+        <f t="shared" si="13"/>
+        <v>56.065381011244042</v>
       </c>
     </row>
     <row r="62" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C62" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="28">
+        <v>15</v>
+      </c>
+      <c r="E62" s="28">
+        <v>58</v>
+      </c>
+      <c r="F62" s="28">
+        <v>124</v>
+      </c>
+      <c r="G62" s="28">
         <v>52</v>
       </c>
-      <c r="D62" s="28">
-        <v>16</v>
-      </c>
-      <c r="E62" s="28">
-        <v>63</v>
-      </c>
-      <c r="F62" s="28">
-        <v>134</v>
-      </c>
-      <c r="G62" s="28">
-        <v>56</v>
-      </c>
       <c r="H62" s="28">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I62" s="20">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="K62" s="23">
-        <f t="shared" si="6"/>
-        <v>465</v>
+        <f t="shared" si="10"/>
+        <v>421</v>
       </c>
       <c r="L62" s="23">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="M62" s="23">
-        <f t="shared" si="8"/>
-        <v>196</v>
+        <f t="shared" si="12"/>
+        <v>172</v>
       </c>
       <c r="N62" s="23">
-        <f t="shared" si="9"/>
-        <v>93</v>
+        <f t="shared" si="13"/>
+        <v>84.2</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C63" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="31">
+      <c r="C63" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="28">
         <f>((D62/ 'First Table'!I12  )*100)/D5</f>
-        <v>64.434759443763653</v>
+        <v>60.407586978528435</v>
       </c>
       <c r="E63" s="28">
-        <v>59</v>
+        <f>((E62/   'First Table'!I13   )*100)/E5</f>
+        <v>69.856356314668474</v>
       </c>
       <c r="F63" s="28">
-        <f>((F62/    'First Table'!I14    )*100)/F5</f>
-        <v>50.08139434582511</v>
+        <f>((F62/   'First Table'!I14    )*100)/F5</f>
+        <v>46.343976857330702</v>
       </c>
       <c r="G63" s="28">
-        <f>((G62/ 'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
+        <f>((G62/  'First Table'!I15  )*100)/G5</f>
+        <v>64.901989367339482</v>
       </c>
       <c r="H63" s="28">
-        <f>((H62/   'First Table'!I16    )*100)/H5</f>
-        <v>39.967526630848923</v>
+        <f>((H62/    'First Table'!I16    )*100)/H5</f>
+        <v>35.073543778091903</v>
       </c>
       <c r="I63" s="20" t="e">
         <f>((I62/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K63" s="23">
-        <f t="shared" si="6"/>
-        <v>283.37813050834177</v>
+        <f t="shared" si="10"/>
+        <v>276.58345329595898</v>
       </c>
       <c r="L63" s="23">
-        <f t="shared" si="7"/>
-        <v>39.967526630848923</v>
+        <f t="shared" si="11"/>
+        <v>35.073543778091903</v>
       </c>
       <c r="M63" s="23">
-        <f t="shared" si="8"/>
-        <v>69.894450087904062</v>
+        <f t="shared" si="12"/>
+        <v>69.856356314668474</v>
       </c>
       <c r="N63" s="23">
-        <f t="shared" si="9"/>
-        <v>56.675626101668357</v>
+        <f t="shared" si="13"/>
+        <v>55.316690659191792</v>
       </c>
     </row>
     <row r="64" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C64" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="31">
-        <v>16</v>
+      <c r="C64" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="28">
+        <v>13</v>
       </c>
       <c r="E64" s="28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F64" s="28">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G64" s="28">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H64" s="28">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="I64" s="20">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K64" s="23">
-        <f t="shared" si="6"/>
-        <v>460</v>
+        <f t="shared" si="10"/>
+        <v>468</v>
       </c>
       <c r="L64" s="23">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="M64" s="23">
-        <f t="shared" si="8"/>
-        <v>193</v>
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="N64" s="23">
-        <f t="shared" si="9"/>
-        <v>92</v>
+        <f t="shared" si="13"/>
+        <v>93.6</v>
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="31">
+        <v>89</v>
+      </c>
+      <c r="D65" s="28">
         <f>((D64/  'First Table'!I12  )*100)/D5</f>
-        <v>64.434759443763653</v>
+        <v>52.353242048057965</v>
       </c>
       <c r="E65" s="28">
-        <f>((E64/   'First Table'!I13   )*100)/E5</f>
-        <v>72.26519618758806</v>
+        <v>59</v>
       </c>
       <c r="F65" s="28">
-        <f>((F64/   'First Table'!I14    )*100)/F5</f>
-        <v>50.455136094674558</v>
-      </c>
-      <c r="G65" s="28">
-        <f>((G64/ 'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
+        <f>((F64/    'First Table'!I14    )*100)/F5</f>
+        <v>50.828877843523998</v>
+      </c>
+      <c r="G65" s="31">
+        <f>((G64/  'First Table'!I15  )*100)/G5</f>
+        <v>72.390680448186345</v>
       </c>
       <c r="H65" s="28">
         <f>((H64/    'First Table'!I16    )*100)/H5</f>
-        <v>39.355778774254297</v>
+        <v>40.783190439641757</v>
       </c>
       <c r="I65" s="20" t="e">
         <f>((I64/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K65" s="23">
-        <f t="shared" si="6"/>
-        <v>296.40532058818462</v>
+        <f t="shared" si="10"/>
+        <v>275.35599077941009</v>
       </c>
       <c r="L65" s="23">
-        <f t="shared" si="7"/>
-        <v>39.355778774254297</v>
+        <f t="shared" si="11"/>
+        <v>40.783190439641757</v>
       </c>
       <c r="M65" s="23">
-        <f t="shared" si="8"/>
-        <v>72.26519618758806</v>
+        <f t="shared" si="12"/>
+        <v>72.390680448186345</v>
       </c>
       <c r="N65" s="23">
-        <f t="shared" si="9"/>
-        <v>59.281064117636923</v>
+        <f t="shared" si="13"/>
+        <v>55.071198155882016</v>
       </c>
     </row>
     <row r="66" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C66" s="32" t="s">
-        <v>48</v>
+      <c r="C66" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="D66" s="28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E66" s="28">
         <v>63</v>
       </c>
       <c r="F66" s="28">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G66" s="28">
         <v>56</v>
       </c>
       <c r="H66" s="28">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I66" s="20">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K66" s="23">
-        <f t="shared" si="6"/>
-        <v>449</v>
+        <f t="shared" si="10"/>
+        <v>465</v>
       </c>
       <c r="L66" s="23">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
       <c r="M66" s="23">
-        <f t="shared" si="8"/>
-        <v>186</v>
+        <f t="shared" si="12"/>
+        <v>196</v>
       </c>
       <c r="N66" s="23">
-        <f t="shared" si="9"/>
-        <v>89.8</v>
+        <f t="shared" si="13"/>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C67" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="28">
+      <c r="C67" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="31">
         <f>((D66/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
+        <v>64.434759443763653</v>
       </c>
       <c r="E67" s="28">
-        <f>((E66/    'First Table'!I13   )*100)/E5</f>
-        <v>75.87845599696746</v>
+        <v>59</v>
       </c>
       <c r="F67" s="28">
-        <f>((F66/   'First Table'!I14    )*100)/F5</f>
-        <v>48.58642735042735</v>
+        <f>((F66/    'First Table'!I14    )*100)/F5</f>
+        <v>50.08139434582511</v>
       </c>
       <c r="G67" s="28">
-        <f>((G66/  'First Table'!I15  )*100)/G5</f>
+        <f>((G66/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
       <c r="H67" s="28">
         <f>((H66/   'First Table'!I16    )*100)/H5</f>
-        <v>37.92836710886683</v>
+        <v>39.967526630848923</v>
       </c>
       <c r="I67" s="20" t="e">
-        <f>((I66/   'First Table'!I16    )*100)/I4</f>
-        <v>#VALUE!</v>
+        <f>((I66/   'First Table'!I7    )*100)/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="K67" s="23">
-        <f t="shared" si="6"/>
-        <v>288.66811505745892</v>
+        <f t="shared" si="10"/>
+        <v>283.37813050834177</v>
       </c>
       <c r="L67" s="23">
-        <f t="shared" si="7"/>
-        <v>37.92836710886683</v>
+        <f t="shared" si="11"/>
+        <v>39.967526630848923</v>
       </c>
       <c r="M67" s="23">
-        <f t="shared" si="8"/>
-        <v>75.87845599696746</v>
+        <f t="shared" si="12"/>
+        <v>69.894450087904062</v>
       </c>
       <c r="N67" s="23">
-        <f t="shared" si="9"/>
-        <v>57.733623011491787</v>
+        <f t="shared" si="13"/>
+        <v>56.675626101668357</v>
       </c>
     </row>
     <row r="68" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C68" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="28">
-        <v>11</v>
+      <c r="C68" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="31">
+        <v>16</v>
       </c>
       <c r="E68" s="28">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F68" s="28">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G68" s="28">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H68" s="28">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I68" s="20">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K68" s="23">
-        <f t="shared" ref="K68:K79" si="10">SUM(D68:H68)</f>
-        <v>448</v>
+        <f t="shared" si="10"/>
+        <v>460</v>
       </c>
       <c r="L68" s="23">
-        <f t="shared" ref="L68:L79" si="11">MIN(D68:H68)</f>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
       <c r="M68" s="23">
-        <f t="shared" ref="M68:M79" si="12">MAX(D68:H68)</f>
-        <v>191</v>
+        <f t="shared" si="12"/>
+        <v>193</v>
       </c>
       <c r="N68" s="23">
-        <f t="shared" ref="N68:N79" si="13">K68/5</f>
-        <v>89.6</v>
+        <f t="shared" si="13"/>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C69" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="28">
-        <f>((D68/'First Table'!I12  )*100)/D5</f>
-        <v>44.298897117587515</v>
+      <c r="C69" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="31">
+        <f>((D68/  'First Table'!I12  )*100)/D5</f>
+        <v>64.434759443763653</v>
       </c>
       <c r="E69" s="28">
         <f>((E68/   'First Table'!I13   )*100)/E5</f>
-        <v>79.491715806346861</v>
+        <v>72.26519618758806</v>
       </c>
       <c r="F69" s="28">
-        <f>((F68/    'First Table'!I14    )*100)/F5</f>
-        <v>48.21268560157791</v>
+        <f>((F68/   'First Table'!I14    )*100)/F5</f>
+        <v>50.455136094674558</v>
       </c>
       <c r="G69" s="28">
-        <f>((G68/  'First Table'!I15  )*100)/G5</f>
-        <v>63.653874187198333</v>
+        <f>((G68/ 'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
       </c>
       <c r="H69" s="28">
-        <f>((H68/   'First Table'!I16    )*100)/H5</f>
-        <v>38.947946869857873</v>
+        <f>((H68/    'First Table'!I16    )*100)/H5</f>
+        <v>39.355778774254297</v>
       </c>
       <c r="I69" s="20" t="e">
-        <f>((I68/   'First Table'!I18    )*100)/I6</f>
-        <v>#DIV/0!</v>
+        <f>((I68/   'First Table'!I7    )*100)/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="K69" s="23">
         <f t="shared" si="10"/>
-        <v>274.60511958256848</v>
+        <v>296.40532058818462</v>
       </c>
       <c r="L69" s="23">
         <f t="shared" si="11"/>
-        <v>38.947946869857873</v>
+        <v>39.355778774254297</v>
       </c>
       <c r="M69" s="23">
         <f t="shared" si="12"/>
-        <v>79.491715806346861</v>
+        <v>72.26519618758806</v>
       </c>
       <c r="N69" s="23">
         <f t="shared" si="13"/>
-        <v>54.921023916513697</v>
+        <v>59.281064117636923</v>
       </c>
     </row>
     <row r="70" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C70" s="35" t="s">
-        <v>50</v>
+      <c r="C70" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="D70" s="28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70" s="28">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" s="28">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G70" s="28">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H70" s="28">
         <v>186</v>
       </c>
       <c r="I70" s="20">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K70" s="23">
         <f t="shared" si="10"/>
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="L70" s="23">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M70" s="23">
         <f t="shared" si="12"/>
@@ -10670,40 +10891,40 @@
       </c>
       <c r="N70" s="23">
         <f t="shared" si="13"/>
-        <v>87.2</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="28">
         <f>((D70/ 'First Table'!I12  )*100)/D5</f>
-        <v>40.271724652352283</v>
+        <v>56.380414513293204</v>
       </c>
       <c r="E71" s="28">
-        <f>((E70/  'First Table'!I13   )*100)/E5</f>
-        <v>74.67403606050766</v>
+        <f>((E70/    'First Table'!I13   )*100)/E5</f>
+        <v>75.87845599696746</v>
       </c>
       <c r="F71" s="28">
-        <f>((F70/    'First Table'!I14    )*100)/F5</f>
-        <v>47.838943852728463</v>
+        <f>((F70/   'First Table'!I14    )*100)/F5</f>
+        <v>48.58642735042735</v>
       </c>
       <c r="G71" s="28">
-        <f>((G70/ 'First Table'!I15  )*100)/G5</f>
-        <v>62.405759007057199</v>
+        <f>((G70/  'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
       </c>
       <c r="H71" s="28">
         <f>((H70/   'First Table'!I16    )*100)/H5</f>
         <v>37.92836710886683</v>
       </c>
       <c r="I71" s="20" t="e">
-        <f>((I70/   'First Table'!I18    )*100)/I6</f>
-        <v>#DIV/0!</v>
+        <f>((I70/   'First Table'!I16    )*100)/I4</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K71" s="23">
         <f t="shared" si="10"/>
-        <v>263.11883068151246</v>
+        <v>288.66811505745892</v>
       </c>
       <c r="L71" s="23">
         <f t="shared" si="11"/>
@@ -10711,647 +10932,647 @@
       </c>
       <c r="M71" s="23">
         <f t="shared" si="12"/>
-        <v>74.67403606050766</v>
+        <v>75.87845599696746</v>
       </c>
       <c r="N71" s="23">
         <f t="shared" si="13"/>
-        <v>52.623766136302493</v>
+        <v>57.733623011491787</v>
       </c>
     </row>
     <row r="72" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C72" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="28">
+        <v>11</v>
+      </c>
+      <c r="E72" s="28">
+        <v>66</v>
+      </c>
+      <c r="F72" s="28">
+        <v>129</v>
+      </c>
+      <c r="G72" s="28">
         <v>51</v>
       </c>
-      <c r="D72" s="28">
-        <v>14</v>
-      </c>
-      <c r="E72" s="28">
-        <v>63</v>
-      </c>
-      <c r="F72" s="28">
-        <v>136</v>
-      </c>
-      <c r="G72" s="28">
-        <v>56</v>
-      </c>
       <c r="H72" s="28">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I72" s="20">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K72" s="23">
-        <f t="shared" si="10"/>
-        <v>455</v>
+        <f t="shared" ref="K72:K83" si="14">SUM(D72:H72)</f>
+        <v>448</v>
       </c>
       <c r="L72" s="23">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" ref="L72:L83" si="15">MIN(D72:H72)</f>
+        <v>11</v>
       </c>
       <c r="M72" s="23">
-        <f t="shared" si="12"/>
-        <v>186</v>
+        <f t="shared" ref="M72:M83" si="16">MAX(D72:H72)</f>
+        <v>191</v>
       </c>
       <c r="N72" s="23">
-        <f t="shared" si="13"/>
-        <v>91</v>
+        <f t="shared" ref="N72:N83" si="17">K72/5</f>
+        <v>89.6</v>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C73" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D73" s="28">
-        <f>((D72/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
+        <f>((D72/'First Table'!I12  )*100)/D5</f>
+        <v>44.298897117587515</v>
       </c>
       <c r="E73" s="28">
-        <f>((E72/  'First Table'!I13   )*100)/E5</f>
-        <v>75.87845599696746</v>
+        <f>((E72/   'First Table'!I13   )*100)/E5</f>
+        <v>79.491715806346861</v>
       </c>
       <c r="F73" s="28">
-        <f>((F72/   'First Table'!I14    )*100)/F5</f>
-        <v>50.828877843523998</v>
+        <f>((F72/    'First Table'!I14    )*100)/F5</f>
+        <v>48.21268560157791</v>
       </c>
       <c r="G73" s="28">
         <f>((G72/  'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
+        <v>63.653874187198333</v>
       </c>
       <c r="H73" s="28">
         <f>((H72/   'First Table'!I16    )*100)/H5</f>
-        <v>37.92836710886683</v>
+        <v>38.947946869857873</v>
       </c>
       <c r="I73" s="20" t="e">
         <f>((I72/   'First Table'!I18    )*100)/I6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K73" s="23">
-        <f t="shared" si="10"/>
-        <v>290.91056555055553</v>
+        <f t="shared" si="14"/>
+        <v>274.60511958256848</v>
       </c>
       <c r="L73" s="23">
-        <f t="shared" si="11"/>
-        <v>37.92836710886683</v>
+        <f t="shared" si="15"/>
+        <v>38.947946869857873</v>
       </c>
       <c r="M73" s="23">
-        <f t="shared" si="12"/>
-        <v>75.87845599696746</v>
+        <f t="shared" si="16"/>
+        <v>79.491715806346861</v>
       </c>
       <c r="N73" s="23">
-        <f t="shared" si="13"/>
-        <v>58.182113110111104</v>
+        <f t="shared" si="17"/>
+        <v>54.921023916513697</v>
       </c>
     </row>
     <row r="74" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C74" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D74" s="28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E74" s="28">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F74" s="28">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G74" s="28">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H74" s="28">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I74" s="20">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="K74" s="23">
-        <f t="shared" si="10"/>
-        <v>458</v>
+        <f t="shared" si="14"/>
+        <v>436</v>
       </c>
       <c r="L74" s="23">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="M74" s="23">
-        <f t="shared" si="12"/>
-        <v>194</v>
+        <f t="shared" si="16"/>
+        <v>186</v>
       </c>
       <c r="N74" s="23">
-        <f t="shared" si="13"/>
-        <v>91.6</v>
+        <f t="shared" si="17"/>
+        <v>87.2</v>
       </c>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C75" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D75" s="28">
         <f>((D74/ 'First Table'!I12  )*100)/D5</f>
-        <v>48.32606958282274</v>
+        <v>40.271724652352283</v>
       </c>
       <c r="E75" s="28">
         <f>((E74/  'First Table'!I13   )*100)/E5</f>
-        <v>75.87845599696746</v>
+        <v>74.67403606050766</v>
       </c>
       <c r="F75" s="28">
         <f>((F74/    'First Table'!I14    )*100)/F5</f>
-        <v>50.08139434582511</v>
+        <v>47.838943852728463</v>
       </c>
       <c r="G75" s="28">
-        <f>((G74/  'First Table'!I15  )*100)/G5</f>
-        <v>68.646334907762906</v>
+        <f>((G74/ 'First Table'!I15  )*100)/G5</f>
+        <v>62.405759007057199</v>
       </c>
       <c r="H75" s="28">
-        <f>((H74/    'First Table'!I16    )*100)/H5</f>
-        <v>39.559694726452499</v>
+        <f>((H74/   'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
       </c>
       <c r="I75" s="20" t="e">
         <f>((I74/   'First Table'!I18    )*100)/I6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K75" s="23">
-        <f t="shared" si="10"/>
-        <v>282.49194955983069</v>
+        <f t="shared" si="14"/>
+        <v>263.11883068151246</v>
       </c>
       <c r="L75" s="23">
-        <f t="shared" si="11"/>
-        <v>39.559694726452499</v>
+        <f t="shared" si="15"/>
+        <v>37.92836710886683</v>
       </c>
       <c r="M75" s="23">
-        <f t="shared" si="12"/>
-        <v>75.87845599696746</v>
+        <f t="shared" si="16"/>
+        <v>74.67403606050766</v>
       </c>
       <c r="N75" s="23">
-        <f t="shared" si="13"/>
-        <v>56.498389911966136</v>
+        <f t="shared" si="17"/>
+        <v>52.623766136302493</v>
       </c>
     </row>
     <row r="76" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C76" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D76" s="28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E76" s="28">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F76" s="28">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G76" s="28">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H76" s="28">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I76" s="20">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K76" s="23">
-        <f t="shared" si="10"/>
-        <v>451</v>
+        <f t="shared" si="14"/>
+        <v>455</v>
       </c>
       <c r="L76" s="23">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
       <c r="M76" s="23">
-        <f t="shared" si="12"/>
-        <v>195</v>
+        <f t="shared" si="16"/>
+        <v>186</v>
       </c>
       <c r="N76" s="23">
-        <f t="shared" si="13"/>
-        <v>90.2</v>
+        <f t="shared" si="17"/>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C77" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D77" s="28">
-        <f>((D76/'First Table'!I12  )*100)/D5</f>
-        <v>44.298897117587515</v>
+        <f>((D76/ 'First Table'!I12  )*100)/D5</f>
+        <v>56.380414513293204</v>
       </c>
       <c r="E77" s="28">
-        <f>((E76/   'First Table'!I13   )*100)/E5</f>
-        <v>72.26519618758806</v>
+        <f>((E76/  'First Table'!I13   )*100)/E5</f>
+        <v>75.87845599696746</v>
       </c>
       <c r="F77" s="28">
-        <f>((F76/    'First Table'!I14    )*100)/F5</f>
-        <v>49.707652596975677</v>
+        <f>((F76/   'First Table'!I14    )*100)/F5</f>
+        <v>50.828877843523998</v>
       </c>
       <c r="G77" s="28">
-        <f>((G76/ 'First Table'!I15  )*100)/G5</f>
-        <v>64.901989367339482</v>
+        <f>((G76/  'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
       </c>
       <c r="H77" s="28">
-        <f>((H76/    'First Table'!I16    )*100)/H5</f>
-        <v>39.763610678650707</v>
+        <f>((H76/   'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
       </c>
       <c r="I77" s="20" t="e">
         <f>((I76/   'First Table'!I18    )*100)/I6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K77" s="23">
-        <f t="shared" si="10"/>
-        <v>270.93734594814146</v>
+        <f t="shared" si="14"/>
+        <v>290.91056555055553</v>
       </c>
       <c r="L77" s="23">
-        <f t="shared" si="11"/>
-        <v>39.763610678650707</v>
+        <f t="shared" si="15"/>
+        <v>37.92836710886683</v>
       </c>
       <c r="M77" s="23">
-        <f t="shared" si="12"/>
-        <v>72.26519618758806</v>
+        <f t="shared" si="16"/>
+        <v>75.87845599696746</v>
       </c>
       <c r="N77" s="23">
-        <f t="shared" si="13"/>
-        <v>54.187469189628288</v>
+        <f t="shared" si="17"/>
+        <v>58.182113110111104</v>
       </c>
     </row>
     <row r="78" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C78" s="32" t="s">
-        <v>48</v>
+      <c r="C78" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="D78" s="28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78" s="28">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F78" s="28">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G78" s="28">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H78" s="28">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I78" s="20">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K78" s="23">
-        <f t="shared" si="10"/>
-        <v>439</v>
+        <f t="shared" si="14"/>
+        <v>458</v>
       </c>
       <c r="L78" s="23">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="15"/>
+        <v>12</v>
       </c>
       <c r="M78" s="23">
-        <f t="shared" si="12"/>
-        <v>186</v>
+        <f t="shared" si="16"/>
+        <v>194</v>
       </c>
       <c r="N78" s="23">
-        <f t="shared" si="13"/>
-        <v>87.8</v>
+        <f t="shared" si="17"/>
+        <v>91.6</v>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C79" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D79" s="28">
         <f>((D78/ 'First Table'!I12  )*100)/D5</f>
-        <v>44.298897117587515</v>
+        <v>48.32606958282274</v>
       </c>
       <c r="E79" s="28">
-        <f>((E78/   'First Table'!I13   )*100)/E5</f>
-        <v>77.082875933427275</v>
+        <f>((E78/  'First Table'!I13   )*100)/E5</f>
+        <v>75.87845599696746</v>
       </c>
       <c r="F79" s="28">
-        <f>((F78/   'First Table'!I14    )*100)/F5</f>
-        <v>48.21268560157791</v>
+        <f>((F78/    'First Table'!I14    )*100)/F5</f>
+        <v>50.08139434582511</v>
       </c>
       <c r="G79" s="28">
         <f>((G78/  'First Table'!I15  )*100)/G5</f>
-        <v>61.157643826916051</v>
+        <v>68.646334907762906</v>
       </c>
       <c r="H79" s="28">
-        <f>((H78/  'First Table'!I16    )*100)/H5</f>
-        <v>37.92836710886683</v>
+        <f>((H78/    'First Table'!I16    )*100)/H5</f>
+        <v>39.559694726452499</v>
       </c>
       <c r="I79" s="20" t="e">
-        <f>((I78/   'First Table'!I27    )*100)/I15</f>
+        <f>((I78/   'First Table'!I18    )*100)/I6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K79" s="23">
-        <f t="shared" si="10"/>
-        <v>268.68046958837556</v>
+        <f t="shared" si="14"/>
+        <v>282.49194955983069</v>
       </c>
       <c r="L79" s="23">
-        <f t="shared" si="11"/>
-        <v>37.92836710886683</v>
+        <f t="shared" si="15"/>
+        <v>39.559694726452499</v>
       </c>
       <c r="M79" s="23">
-        <f t="shared" si="12"/>
-        <v>77.082875933427275</v>
+        <f t="shared" si="16"/>
+        <v>75.87845599696746</v>
       </c>
       <c r="N79" s="23">
-        <f t="shared" si="13"/>
-        <v>53.736093917675113</v>
+        <f t="shared" si="17"/>
+        <v>56.498389911966136</v>
       </c>
     </row>
     <row r="80" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C80" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="28">
+        <v>11</v>
+      </c>
+      <c r="E80" s="28">
+        <v>60</v>
+      </c>
+      <c r="F80" s="28">
+        <v>133</v>
+      </c>
+      <c r="G80" s="28">
+        <v>52</v>
+      </c>
+      <c r="H80" s="28">
+        <v>195</v>
+      </c>
+      <c r="I80" s="20">
+        <v>194</v>
+      </c>
+      <c r="K80" s="23">
+        <f t="shared" si="14"/>
+        <v>451</v>
+      </c>
+      <c r="L80" s="23">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="M80" s="23">
+        <f t="shared" si="16"/>
+        <v>195</v>
+      </c>
+      <c r="N80" s="23">
+        <f t="shared" si="17"/>
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C81" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="28">
+        <f>((D80/'First Table'!I12  )*100)/D5</f>
+        <v>44.298897117587515</v>
+      </c>
+      <c r="E81" s="28">
+        <f>((E80/   'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F81" s="28">
+        <f>((F80/    'First Table'!I14    )*100)/F5</f>
+        <v>49.707652596975677</v>
+      </c>
+      <c r="G81" s="28">
+        <f>((G80/ 'First Table'!I15  )*100)/G5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H81" s="28">
+        <f>((H80/    'First Table'!I16    )*100)/H5</f>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="I81" s="20" t="e">
+        <f>((I80/   'First Table'!I18    )*100)/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K81" s="23">
+        <f t="shared" si="14"/>
+        <v>270.93734594814146</v>
+      </c>
+      <c r="L81" s="23">
+        <f t="shared" si="15"/>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="M81" s="23">
+        <f t="shared" si="16"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N81" s="23">
+        <f t="shared" si="17"/>
+        <v>54.187469189628288</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C82" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="28">
+        <v>11</v>
+      </c>
+      <c r="E82" s="28">
+        <v>64</v>
+      </c>
+      <c r="F82" s="28">
+        <v>129</v>
+      </c>
+      <c r="G82" s="28">
         <v>49</v>
       </c>
-      <c r="D80" s="28">
+      <c r="H82" s="28">
+        <v>186</v>
+      </c>
+      <c r="I82" s="20">
+        <v>179</v>
+      </c>
+      <c r="K82" s="23">
+        <f t="shared" si="14"/>
+        <v>439</v>
+      </c>
+      <c r="L82" s="23">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="M82" s="23">
+        <f t="shared" si="16"/>
+        <v>186</v>
+      </c>
+      <c r="N82" s="23">
+        <f t="shared" si="17"/>
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="28">
+        <f>((D82/ 'First Table'!I12  )*100)/D5</f>
+        <v>44.298897117587515</v>
+      </c>
+      <c r="E83" s="28">
+        <f>((E82/   'First Table'!I13   )*100)/E5</f>
+        <v>77.082875933427275</v>
+      </c>
+      <c r="F83" s="28">
+        <f>((F82/   'First Table'!I14    )*100)/F5</f>
+        <v>48.21268560157791</v>
+      </c>
+      <c r="G83" s="28">
+        <f>((G82/  'First Table'!I15  )*100)/G5</f>
+        <v>61.157643826916051</v>
+      </c>
+      <c r="H83" s="28">
+        <f>((H82/  'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="I83" s="20" t="e">
+        <f>((I82/   'First Table'!I27    )*100)/I15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K83" s="23">
+        <f t="shared" si="14"/>
+        <v>268.68046958837556</v>
+      </c>
+      <c r="L83" s="23">
+        <f t="shared" si="15"/>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="M83" s="23">
+        <f t="shared" si="16"/>
+        <v>77.082875933427275</v>
+      </c>
+      <c r="N83" s="23">
+        <f t="shared" si="17"/>
+        <v>53.736093917675113</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C84" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="28">
         <v>14</v>
       </c>
-      <c r="E80" s="28">
+      <c r="E84" s="28">
         <v>61</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F84" s="28">
         <v>125</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G84" s="28">
         <v>48</v>
       </c>
-      <c r="H80" s="28">
+      <c r="H84" s="28">
         <v>186</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I84" s="20">
         <v>179</v>
       </c>
-      <c r="K80" s="23">
-        <f t="shared" ref="K80:K89" si="14">SUM(D80:H80)</f>
+      <c r="K84" s="23">
+        <f t="shared" ref="K84:K93" si="18">SUM(D84:H84)</f>
         <v>434</v>
       </c>
-      <c r="L80" s="23">
+      <c r="L84" s="23">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M80" s="23">
+      <c r="M84" s="23">
         <f t="shared" si="5"/>
         <v>186</v>
       </c>
-      <c r="N80" s="23">
+      <c r="N84" s="23">
         <f t="shared" si="1"/>
         <v>86.8</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" s="28">
-        <f>((D80/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
-      </c>
-      <c r="E81" s="28">
-        <f>((E80/   'First Table'!I13   )*100)/E5</f>
-        <v>73.46961612404786</v>
-      </c>
-      <c r="F81" s="28">
-        <f>((F80/   'First Table'!I14    )*100)/F5</f>
-        <v>46.717718606180135</v>
-      </c>
-      <c r="G81" s="28">
-        <f>((G80/ 'First Table'!I15  )*100)/G5</f>
-        <v>59.909528646774909</v>
-      </c>
-      <c r="H81" s="28">
-        <f>((H80/   'First Table'!I16    )*100)/H5</f>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="I81" s="20" t="e">
-        <f>((I80/   'First Table'!I29    )*100)/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K81" s="23">
-        <f t="shared" si="14"/>
-        <v>274.40564499916292</v>
-      </c>
-      <c r="L81" s="23">
-        <f t="shared" si="4"/>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="M81" s="23">
-        <f t="shared" si="5"/>
-        <v>73.46961612404786</v>
-      </c>
-      <c r="N81" s="23">
-        <f t="shared" si="1"/>
-        <v>54.881128999832583</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C82" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="28">
-        <v>14</v>
-      </c>
-      <c r="E82" s="28">
-        <v>60</v>
-      </c>
-      <c r="F82" s="28">
-        <v>122</v>
-      </c>
-      <c r="G82" s="28">
-        <v>50</v>
-      </c>
-      <c r="H82" s="28">
-        <v>181</v>
-      </c>
-      <c r="I82" s="20">
-        <v>173</v>
-      </c>
-      <c r="K82" s="23">
-        <f t="shared" si="14"/>
-        <v>427</v>
-      </c>
-      <c r="L82" s="23">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="M82" s="23">
-        <f t="shared" si="5"/>
-        <v>181</v>
-      </c>
-      <c r="N82" s="23">
-        <f t="shared" si="1"/>
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C83" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="28">
-        <f>((D82/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
-      </c>
-      <c r="E83" s="28">
-        <f>((E82/   'First Table'!I13   )*100)/E5</f>
-        <v>72.26519618758806</v>
-      </c>
-      <c r="F83" s="28">
-        <f>((F82/   'First Table'!I14    )*100)/F5</f>
-        <v>45.596493359631815</v>
-      </c>
-      <c r="G83" s="28">
-        <f>((G82/ 'First Table'!I15  )*100)/G5</f>
-        <v>62.405759007057199</v>
-      </c>
-      <c r="H83" s="28">
-        <f>((H82/   'First Table'!I16    )*100)/H5</f>
-        <v>36.908787347875787</v>
-      </c>
-      <c r="I83" s="20" t="e">
-        <f>((I82/   'First Table'!I29    )*100)/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K83" s="23">
-        <f t="shared" si="14"/>
-        <v>273.55665041544603</v>
-      </c>
-      <c r="L83" s="23">
-        <f t="shared" si="4"/>
-        <v>36.908787347875787</v>
-      </c>
-      <c r="M83" s="23">
-        <f t="shared" si="5"/>
-        <v>72.26519618758806</v>
-      </c>
-      <c r="N83" s="23">
-        <f t="shared" si="1"/>
-        <v>54.711330083089209</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C84" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D84" s="28">
-        <v>15</v>
-      </c>
-      <c r="E84" s="28">
-        <v>63</v>
-      </c>
-      <c r="F84" s="28">
-        <v>130</v>
-      </c>
-      <c r="G84" s="28">
-        <v>57</v>
-      </c>
-      <c r="H84" s="28">
-        <v>196</v>
-      </c>
-      <c r="I84" s="20">
-        <v>197</v>
-      </c>
-      <c r="K84" s="23">
-        <f t="shared" si="14"/>
-        <v>461</v>
-      </c>
-      <c r="L84" s="23">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="M84" s="23">
-        <f t="shared" si="5"/>
-        <v>196</v>
-      </c>
-      <c r="N84" s="23">
-        <f t="shared" si="1"/>
-        <v>92.2</v>
-      </c>
-    </row>
     <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C85" s="32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D85" s="28">
         <f>((D84/ 'First Table'!I12  )*100)/D5</f>
-        <v>60.407586978528435</v>
+        <v>56.380414513293204</v>
       </c>
       <c r="E85" s="28">
         <f>((E84/   'First Table'!I13   )*100)/E5</f>
-        <v>75.87845599696746</v>
+        <v>73.46961612404786</v>
       </c>
       <c r="F85" s="28">
         <f>((F84/   'First Table'!I14    )*100)/F5</f>
-        <v>48.58642735042735</v>
+        <v>46.717718606180135</v>
       </c>
       <c r="G85" s="28">
         <f>((G84/ 'First Table'!I15  )*100)/G5</f>
-        <v>71.142565268045203</v>
+        <v>59.909528646774909</v>
       </c>
       <c r="H85" s="28">
         <f>((H84/   'First Table'!I16    )*100)/H5</f>
-        <v>39.967526630848923</v>
+        <v>37.92836710886683</v>
       </c>
       <c r="I85" s="20" t="e">
         <f>((I84/   'First Table'!I29    )*100)/I17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K85" s="23">
-        <f t="shared" si="14"/>
-        <v>295.98256222481734</v>
+        <f t="shared" si="18"/>
+        <v>274.40564499916292</v>
       </c>
       <c r="L85" s="23">
         <f t="shared" si="4"/>
-        <v>39.967526630848923</v>
+        <v>37.92836710886683</v>
       </c>
       <c r="M85" s="23">
         <f t="shared" si="5"/>
-        <v>75.87845599696746</v>
+        <v>73.46961612404786</v>
       </c>
       <c r="N85" s="23">
         <f t="shared" si="1"/>
-        <v>59.196512444963467</v>
+        <v>54.881128999832583</v>
       </c>
     </row>
     <row r="86" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C86" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D86" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86" s="28">
         <v>60</v>
       </c>
       <c r="F86" s="28">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G86" s="28">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H86" s="28">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I86" s="20">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="K86" s="23">
-        <f t="shared" si="14"/>
-        <v>452</v>
+        <f t="shared" si="18"/>
+        <v>427</v>
       </c>
       <c r="L86" s="23">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M86" s="23">
         <f t="shared" si="5"/>
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="N86" s="23">
         <f t="shared" si="1"/>
-        <v>90.4</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C87" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D87" s="28">
         <f>((D86/ 'First Table'!I12  )*100)/D5</f>
-        <v>60.407586978528435</v>
+        <v>56.380414513293204</v>
       </c>
       <c r="E87" s="28">
         <f>((E86/   'First Table'!I13   )*100)/E5</f>
@@ -11359,27 +11580,27 @@
       </c>
       <c r="F87" s="28">
         <f>((F86/   'First Table'!I14    )*100)/F5</f>
-        <v>49.707652596975677</v>
+        <v>45.596493359631815</v>
       </c>
       <c r="G87" s="28">
         <f>((G86/ 'First Table'!I15  )*100)/G5</f>
-        <v>66.150104547480638</v>
+        <v>62.405759007057199</v>
       </c>
       <c r="H87" s="28">
         <f>((H86/   'First Table'!I16    )*100)/H5</f>
-        <v>38.947946869857873</v>
+        <v>36.908787347875787</v>
       </c>
       <c r="I87" s="20" t="e">
         <f>((I86/   'First Table'!I29    )*100)/I17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K87" s="23">
-        <f t="shared" si="14"/>
-        <v>287.47848718043065</v>
+        <f t="shared" si="18"/>
+        <v>273.55665041544603</v>
       </c>
       <c r="L87" s="23">
         <f t="shared" si="4"/>
-        <v>38.947946869857873</v>
+        <v>36.908787347875787</v>
       </c>
       <c r="M87" s="23">
         <f t="shared" si="5"/>
@@ -11387,166 +11608,299 @@
       </c>
       <c r="N87" s="23">
         <f t="shared" si="1"/>
-        <v>57.495697436086132</v>
+        <v>54.711330083089209</v>
       </c>
     </row>
     <row r="88" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C88" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D88" s="28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" s="28">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F88" s="28">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G88" s="28">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H88" s="28">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I88" s="20">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K88" s="23">
-        <f t="shared" si="14"/>
-        <v>464</v>
+        <f t="shared" si="18"/>
+        <v>461</v>
       </c>
       <c r="L88" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M88" s="23">
         <f t="shared" si="5"/>
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N88" s="23">
         <f t="shared" si="1"/>
-        <v>92.8</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="89" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C89" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="31">
+      <c r="C89" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="28">
         <f>((D88/ 'First Table'!I12  )*100)/D5</f>
-        <v>64.434759443763653</v>
+        <v>60.407586978528435</v>
       </c>
       <c r="E89" s="28">
         <f>((E88/   'First Table'!I13   )*100)/E5</f>
-        <v>72.26519618758806</v>
+        <v>75.87845599696746</v>
       </c>
       <c r="F89" s="28">
         <f>((F88/   'First Table'!I14    )*100)/F5</f>
-        <v>48.960169099276797</v>
+        <v>48.58642735042735</v>
       </c>
       <c r="G89" s="28">
         <f>((G88/ 'First Table'!I15  )*100)/G5</f>
-        <v>67.398219727621765</v>
-      </c>
-      <c r="H89" s="31">
+        <v>71.142565268045203</v>
+      </c>
+      <c r="H89" s="28">
         <f>((H88/   'First Table'!I16    )*100)/H5</f>
-        <v>41.394938296236383</v>
+        <v>39.967526630848923</v>
       </c>
       <c r="I89" s="20" t="e">
         <f>((I88/   'First Table'!I29    )*100)/I17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K89" s="23">
-        <f t="shared" si="14"/>
-        <v>294.45328275448668</v>
+        <f t="shared" si="18"/>
+        <v>295.98256222481734</v>
       </c>
       <c r="L89" s="23">
         <f t="shared" si="4"/>
-        <v>41.394938296236383</v>
+        <v>39.967526630848923</v>
       </c>
       <c r="M89" s="23">
         <f t="shared" si="5"/>
-        <v>72.26519618758806</v>
+        <v>75.87845599696746</v>
       </c>
       <c r="N89" s="23">
         <f t="shared" si="1"/>
-        <v>58.890656550897333</v>
+        <v>59.196512444963467</v>
       </c>
     </row>
     <row r="90" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C90" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
+      <c r="C90" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="28">
+        <v>15</v>
+      </c>
+      <c r="E90" s="28">
+        <v>60</v>
+      </c>
+      <c r="F90" s="28">
+        <v>133</v>
+      </c>
+      <c r="G90" s="28">
+        <v>53</v>
+      </c>
+      <c r="H90" s="28">
+        <v>191</v>
+      </c>
+      <c r="I90" s="20">
+        <v>197</v>
+      </c>
+      <c r="K90" s="23">
+        <f t="shared" si="18"/>
+        <v>452</v>
+      </c>
+      <c r="L90" s="23">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M90" s="23">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="N90" s="23">
+        <f t="shared" si="1"/>
+        <v>90.4</v>
+      </c>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C91" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="20">
+      <c r="C91" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="28">
         <f>((D90/ 'First Table'!I12  )*100)/D5</f>
-        <v>0</v>
+        <v>60.407586978528435</v>
       </c>
       <c r="E91" s="28">
         <f>((E90/   'First Table'!I13   )*100)/E5</f>
-        <v>0</v>
+        <v>72.26519618758806</v>
       </c>
       <c r="F91" s="28">
         <f>((F90/   'First Table'!I14    )*100)/F5</f>
+        <v>49.707652596975677</v>
+      </c>
+      <c r="G91" s="28">
+        <f>((G90/ 'First Table'!I15  )*100)/G5</f>
+        <v>66.150104547480638</v>
+      </c>
+      <c r="H91" s="28">
+        <f>((H90/   'First Table'!I16    )*100)/H5</f>
+        <v>38.947946869857873</v>
+      </c>
+      <c r="I91" s="20" t="e">
+        <f>((I90/   'First Table'!I29    )*100)/I17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K91" s="23">
+        <f t="shared" si="18"/>
+        <v>287.47848718043065</v>
+      </c>
+      <c r="L91" s="23">
+        <f t="shared" si="4"/>
+        <v>38.947946869857873</v>
+      </c>
+      <c r="M91" s="23">
+        <f t="shared" si="5"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N91" s="23">
+        <f t="shared" si="1"/>
+        <v>57.495697436086132</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C92" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="28">
+        <v>16</v>
+      </c>
+      <c r="E92" s="28">
+        <v>60</v>
+      </c>
+      <c r="F92" s="28">
+        <v>131</v>
+      </c>
+      <c r="G92" s="28">
+        <v>54</v>
+      </c>
+      <c r="H92" s="28">
+        <v>203</v>
+      </c>
+      <c r="I92" s="20">
+        <v>194</v>
+      </c>
+      <c r="K92" s="23">
+        <f t="shared" si="18"/>
+        <v>464</v>
+      </c>
+      <c r="L92" s="23">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="M92" s="23">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="N92" s="23">
+        <f t="shared" si="1"/>
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C93" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="31">
+        <f>((D92/ 'First Table'!I12  )*100)/D5</f>
+        <v>64.434759443763653</v>
+      </c>
+      <c r="E93" s="28">
+        <f>((E92/   'First Table'!I13   )*100)/E5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F93" s="28">
+        <f>((F92/   'First Table'!I14    )*100)/F5</f>
+        <v>48.960169099276797</v>
+      </c>
+      <c r="G93" s="28">
+        <f>((G92/ 'First Table'!I15  )*100)/G5</f>
+        <v>67.398219727621765</v>
+      </c>
+      <c r="H93" s="31">
+        <f>((H92/   'First Table'!I16    )*100)/H5</f>
+        <v>41.394938296236383</v>
+      </c>
+      <c r="I93" s="20" t="e">
+        <f>((I92/   'First Table'!I29    )*100)/I17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K93" s="23">
+        <f t="shared" si="18"/>
+        <v>294.45328275448668</v>
+      </c>
+      <c r="L93" s="23">
+        <f t="shared" si="4"/>
+        <v>41.394938296236383</v>
+      </c>
+      <c r="M93" s="23">
+        <f t="shared" si="5"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N93" s="23">
+        <f t="shared" si="1"/>
+        <v>58.890656550897333</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C94" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C95" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="20">
+        <f>((D94/ 'First Table'!I12  )*100)/D5</f>
         <v>0</v>
       </c>
-      <c r="G91" s="20">
-        <f>((G90/ 'First Table'!I15  )*100)/G5</f>
+      <c r="E95" s="28">
+        <f>((E94/   'First Table'!I13   )*100)/E5</f>
         <v>0</v>
       </c>
-      <c r="H91" s="20">
-        <f>((H90/   'First Table'!I16    )*100)/H5</f>
+      <c r="F95" s="28">
+        <f>((F94/   'First Table'!I14    )*100)/F5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119">
+      <c r="G95" s="20">
+        <f>((G94/ 'First Table'!I15  )*100)/G5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122">
+      <c r="H95" s="20">
+        <f>((H94/   'First Table'!I16    )*100)/H5</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11554,23 +11908,58 @@
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s">
+        <v>57</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C129" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D129" t="s">
         <v>58</v>
       </c>
-      <c r="G125">
+      <c r="G129">
         <v>2</v>
       </c>
     </row>
@@ -11627,7 +12016,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
+++ b/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
@@ -246,60 +246,6 @@
     <t>df = 0,2 e 0,8</t>
   </si>
   <si>
-    <t>Domain Time Score 0.8 0.8 (Total Success)</t>
-  </si>
-  <si>
-    <t>Domain Time Score 0.8 0.5 (Total Success)</t>
-  </si>
-  <si>
-    <t>Domain Time Score 0.8 0.2 (Total Success)</t>
-  </si>
-  <si>
-    <t>Domain Time Score 0.5 0.8 (Total Success)</t>
-  </si>
-  <si>
-    <t>Domain Time Score 0.5 0.5 (Total Success)</t>
-  </si>
-  <si>
-    <t>Domain Time Score 0.5 0.2 (Total Success)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.8, α = 0.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.8, α = 0.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.8, α = 0.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.5, α = 0.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.5, α = 0.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.5, α = 0.2) </t>
-  </si>
-  <si>
-    <t>Domain Time Score 0.2 0.8 (Total Success)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.2, α = 0.8) </t>
-  </si>
-  <si>
-    <t>Domain Time Score 0.2 0.5 (Total Success)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.2, α = 0.5) </t>
-  </si>
-  <si>
-    <t>Domain Time Score 0.2 0.2 (Total Success)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTS (β = 0.2, α = 0.2) </t>
-  </si>
-  <si>
     <t xml:space="preserve">CTwCN (β = 0.8, α = 0.8) </t>
   </si>
   <si>
@@ -544,6 +490,60 @@
       </rPr>
       <t xml:space="preserve"> =  0.9)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS (β = 0.4, α = 0.1) </t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.1 (Total Success)</t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.2 (Total Success)</t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.3 (Total Success)</t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.4 (Total Success)</t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.5 (Total Success)</t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.6 (Total Success)</t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.7 (Total Success)</t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.8 (Total Success)</t>
+  </si>
+  <si>
+    <t>Domain Time Score 0.4 0.9 (Total Success)</t>
   </si>
 </sst>
 </file>
@@ -1010,31 +1010,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -1205,28 +1205,28 @@
                   <c:v>37.316619252272204</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>38.744030917659664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.540114965461456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.744030917659664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.132283061065039</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>37.724451156668628</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>39.559694726452499</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39.763610678650707</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>38.336199013263247</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.540114965461456</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.947946869857873</c:v>
+                  <c:v>37.316619252272204</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.50095544347937</c:v>
+                  <c:v>37.316619252272204</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.112703300074003</c:v>
+                  <c:v>37.316619252272204</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>37.724451156668628</c:v>
@@ -1412,31 +1412,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -1607,31 +1607,31 @@
                   <c:v>81.900555679266475</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.491715806346861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.104975615726289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.922655361565475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.718235425105675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.104975615726289</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>81.900555679266475</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>84.309395552186075</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>79.491715806346861</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>84.309395552186075</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>84.309395552186075</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77.082875933427275</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>83.104975615726289</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>83.104975615726289</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>77.082875933427275</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>72.26519618758806</c:v>
@@ -1835,31 +1835,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -2030,31 +2030,31 @@
                   <c:v>57.61833416992863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.055459334849843</c:v>
+                  <c:v>57.322761351423992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.782951010320382</c:v>
+                  <c:v>59.808556760020188</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59.610575215563948</c:v>
+                  <c:v>59.823122804251035</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60.9627495899691</c:v>
+                  <c:v>60.414686146071723</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.327904166206849</c:v>
+                  <c:v>61.396916343003987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.103674601212063</c:v>
+                  <c:v>60.168200277962249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60.048628467729785</c:v>
+                  <c:v>60.027442627158734</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.496857280733913</c:v>
+                  <c:v>61.258079709827349</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.414786915593027</c:v>
+                  <c:v>60.016782560795605</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>48.909011175722199</c:v>
@@ -2190,11 +2190,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="535145984"/>
-        <c:axId val="535052864"/>
+        <c:axId val="533297664"/>
+        <c:axId val="533482880"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="535145984"/>
+        <c:axId val="533297664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535052864"/>
+        <c:crossAx val="533482880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535052864"/>
+        <c:axId val="533482880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535145984"/>
+        <c:crossAx val="533297664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2406,31 +2406,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -2604,31 +2604,31 @@
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>64.434759443763653</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>64.434759443763653</c:v>
+                  <c:v>60.407586978528435</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.434759443763653</c:v>
+                  <c:v>60.407586978528435</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.380414513293204</c:v>
+                  <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60.407586978528435</c:v>
+                  <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.407586978528435</c:v>
+                  <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.407586978528435</c:v>
+                  <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44.298897117587515</c:v>
@@ -2767,12 +2767,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="535142400"/>
-        <c:axId val="535055168"/>
+        <c:axId val="538359296"/>
+        <c:axId val="69083136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="535142400"/>
+        <c:axId val="538359296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,7 +2805,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535055168"/>
+        <c:crossAx val="69083136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2813,7 +2813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535055168"/>
+        <c:axId val="69083136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2856,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535142400"/>
+        <c:crossAx val="538359296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3037,31 +3037,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -3235,31 +3235,31 @@
                   <c:v>81.900555679266475</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>75.87845599696746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.491715806346861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.104975615726289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.922655361565475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.718235425105675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.104975615726289</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>81.900555679266475</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>84.309395552186075</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>79.491715806346861</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>84.309395552186075</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>84.309395552186075</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77.082875933427275</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>83.104975615726289</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>83.104975615726289</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>77.082875933427275</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>72.26519618758806</c:v>
@@ -3398,12 +3398,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="538469888"/>
-        <c:axId val="535056896"/>
+        <c:axId val="92934144"/>
+        <c:axId val="69086016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="538469888"/>
+        <c:axId val="92934144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3436,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535056896"/>
+        <c:crossAx val="69086016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3444,7 +3444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535056896"/>
+        <c:axId val="69086016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,7 +3487,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538469888"/>
+        <c:crossAx val="92934144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3668,31 +3668,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -3866,7 +3866,7 @@
                   <c:v>46.343976857330702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.838943852728463</c:v>
+                  <c:v>48.21268560157791</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>48.21268560157791</c:v>
@@ -3875,22 +3875,22 @@
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.838943852728463</c:v>
+                  <c:v>48.21268560157791</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.21268560157791</c:v>
+                  <c:v>48.58642735042735</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>47.838943852728463</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.21268560157791</c:v>
+                  <c:v>47.838943852728463</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.21268560157791</c:v>
+                  <c:v>47.465202103879015</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42.606559368836287</c:v>
@@ -4029,12 +4029,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="548503552"/>
-        <c:axId val="535058624"/>
+        <c:axId val="92935680"/>
+        <c:axId val="69088896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="548503552"/>
+        <c:axId val="92935680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,7 +4067,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535058624"/>
+        <c:crossAx val="69088896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4075,7 +4075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535058624"/>
+        <c:axId val="69088896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4118,7 +4118,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548503552"/>
+        <c:crossAx val="92935680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4299,31 +4299,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -4497,31 +4497,31 @@
                   <c:v>66.150104547480638</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.405759007057199</c:v>
+                  <c:v>67.398219727621765</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>72.390680448186345</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>67.398219727621765</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.398219727621765</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.390680448186345</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>66.150104547480638</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.894450087904062</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71.142565268045203</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>69.894450087904062</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>72.390680448186345</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68.646334907762906</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>68.646334907762906</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>58.661413466633768</c:v>
@@ -4660,12 +4660,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="548506624"/>
-        <c:axId val="548225024"/>
+        <c:axId val="532698624"/>
+        <c:axId val="94634560"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="548506624"/>
+        <c:axId val="532698624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4698,7 +4698,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548225024"/>
+        <c:crossAx val="94634560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4706,7 +4706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548225024"/>
+        <c:axId val="94634560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4749,7 +4749,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548506624"/>
+        <c:crossAx val="532698624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4926,31 +4926,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -5124,28 +5124,28 @@
                   <c:v>37.316619252272204</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>38.744030917659664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.540114965461456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.744030917659664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.132283061065039</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>37.724451156668628</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>39.559694726452499</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39.763610678650707</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>38.336199013263247</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38.540114965461456</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.947946869857873</c:v>
+                  <c:v>37.316619252272204</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.50095544347937</c:v>
+                  <c:v>37.316619252272204</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.112703300074003</c:v>
+                  <c:v>37.316619252272204</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>37.724451156668628</c:v>
@@ -5287,12 +5287,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="548504576"/>
-        <c:axId val="548226752"/>
+        <c:axId val="94593024"/>
+        <c:axId val="94637440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="548504576"/>
+        <c:axId val="94593024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +5325,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548226752"/>
+        <c:crossAx val="94637440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5333,7 +5333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548226752"/>
+        <c:axId val="94637440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5376,7 +5376,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548504576"/>
+        <c:crossAx val="94593024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5557,31 +5557,31 @@
                   <c:v>TS (β =  0.9)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>CTS (β = 0.8, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.1) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>CTS (β = 0.8, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.2) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>CTS (β = 0.8, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.3) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>CTS (β = 0.5, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.4) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>CTS (β = 0.5, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.5) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CTS (β = 0.5, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.6) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>CTS (β = 0.2, α = 0.8) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.7) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>CTS (β = 0.2, α = 0.5) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.8) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>CTS (β = 0.2, α = 0.2) </c:v>
+                  <c:v>CTS (β = 0.4, α = 0.9) </c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>TwCN (β = 0.9)</c:v>
@@ -5722,12 +5722,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="548640256"/>
-        <c:axId val="548228480"/>
+        <c:axId val="94594560"/>
+        <c:axId val="94639744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="548640256"/>
+        <c:axId val="94594560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5760,7 +5760,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548228480"/>
+        <c:crossAx val="94639744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5768,7 +5768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548228480"/>
+        <c:axId val="94639744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5811,7 +5811,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548640256"/>
+        <c:crossAx val="94594560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6950,8 +6950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="14" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C14" s="32" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D14" s="28">
         <v>15</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="15" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C15" s="32" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D15" s="28">
         <f>((D14/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -7467,7 +7467,7 @@
     </row>
     <row r="16" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C16" s="32" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D16" s="28">
         <v>15</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="17" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C17" s="30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D17" s="28">
         <f>((D16/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="18" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C18" s="30" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D18" s="28">
         <v>16</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="19" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C19" s="30" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D19" s="28">
         <f>((D18/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="20" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C20" s="32" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D20" s="28">
         <v>16</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="21" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C21" s="32" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D21" s="28">
         <f>((D20/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="24" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D24" s="28">
         <v>15</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="25" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D25" s="28">
         <f>((D24/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="26" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C26" s="32" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D26" s="28">
         <v>15</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="27" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C27" s="32" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D27" s="28">
         <f>((D26/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="28" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C28" s="32" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D28" s="28">
         <v>14</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="30" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C30" s="30" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D30" s="28">
         <v>14</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="31" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C31" s="30" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D31" s="28">
         <f>((D30/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -8139,66 +8139,66 @@
     </row>
     <row r="32" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C32" s="32" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="D32" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="28">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F32" s="28">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32" s="28">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H32" s="28">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I32" s="20">
         <v>1264</v>
       </c>
       <c r="K32" s="23">
         <f t="shared" si="0"/>
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L32" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M32" s="23">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="1"/>
-        <v>89.2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="D33" s="28">
         <f>((D32/ 'First Table'!I12  )*100)/D5</f>
-        <v>60.407586978528435</v>
+        <v>56.380414513293204</v>
       </c>
       <c r="E33" s="29">
         <f>((E32/   'First Table'!I13   )*100)/E5</f>
-        <v>81.900555679266475</v>
+        <v>75.87845599696746</v>
       </c>
       <c r="F33" s="28">
         <f>((F32/   'First Table'!I14    )*100)/F5</f>
-        <v>47.838943852728463</v>
+        <v>48.21268560157791</v>
       </c>
       <c r="G33" s="28">
         <f>((G32/ 'First Table'!I15  )*100)/G5</f>
-        <v>62.405759007057199</v>
+        <v>67.398219727621765</v>
       </c>
       <c r="H33" s="28">
         <f>((H32/   'First Table'!I16    )*100)/H5</f>
-        <v>37.724451156668628</v>
+        <v>38.744030917659664</v>
       </c>
       <c r="I33" s="20" t="e">
         <f>((I32/   'First Table'!I11    )*100)/#REF!</f>
@@ -8206,71 +8206,71 @@
       </c>
       <c r="K33" s="23">
         <f t="shared" si="0"/>
-        <v>290.27729667424921</v>
+        <v>286.61380675711996</v>
       </c>
       <c r="L33" s="23">
         <f t="shared" si="2"/>
-        <v>37.724451156668628</v>
+        <v>38.744030917659664</v>
       </c>
       <c r="M33" s="23">
         <f t="shared" si="3"/>
-        <v>81.900555679266475</v>
+        <v>75.87845599696746</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="1"/>
-        <v>58.055459334849843</v>
+        <v>57.322761351423992</v>
       </c>
     </row>
     <row r="34" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C34" s="32" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="D34" s="28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="28">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F34" s="28">
         <v>129</v>
       </c>
       <c r="G34" s="28">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H34" s="28">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I34" s="20">
         <v>1239</v>
       </c>
       <c r="K34" s="23">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L34" s="23">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M34" s="23">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N34" s="23">
         <f t="shared" si="1"/>
-        <v>92.6</v>
+        <v>91.4</v>
       </c>
     </row>
     <row r="35" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C35" s="32" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D35" s="28">
         <f>((D34/ 'First Table'!I12  )*100)/D5</f>
-        <v>64.434759443763653</v>
+        <v>60.407586978528435</v>
       </c>
       <c r="E35" s="29">
         <f>((E34/   'First Table'!I13   )*100)/E5</f>
-        <v>84.309395552186075</v>
+        <v>79.491715806346861</v>
       </c>
       <c r="F35" s="27">
         <f>((F34/   'First Table'!$I$14    )*100)/$F$5</f>
@@ -8278,11 +8278,11 @@
       </c>
       <c r="G35" s="27">
         <f>((G34/ 'First Table'!$I$15  )*100)/$G$5</f>
-        <v>67.398219727621765</v>
+        <v>72.390680448186345</v>
       </c>
       <c r="H35" s="28">
         <f>((H34/   'First Table'!I16    )*100)/H5</f>
-        <v>39.559694726452499</v>
+        <v>38.540114965461456</v>
       </c>
       <c r="I35" s="20" t="e">
         <f>((I34/   'First Table'!I11    )*100)/#REF!</f>
@@ -8290,71 +8290,71 @@
       </c>
       <c r="K35" s="23">
         <f t="shared" si="0"/>
-        <v>303.9147550516019</v>
+        <v>299.04278380010095</v>
       </c>
       <c r="L35" s="23">
         <f t="shared" si="2"/>
-        <v>39.559694726452499</v>
+        <v>38.540114965461456</v>
       </c>
       <c r="M35" s="23">
         <f t="shared" si="3"/>
-        <v>84.309395552186075</v>
+        <v>79.491715806346861</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="1"/>
-        <v>60.782951010320382</v>
+        <v>59.808556760020188</v>
       </c>
     </row>
     <row r="36" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C36" s="32" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="D36" s="28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="28">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F36" s="28">
         <v>129</v>
       </c>
       <c r="G36" s="28">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H36" s="28">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I36" s="20">
         <v>1232</v>
       </c>
       <c r="K36" s="23">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L36" s="23">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M36" s="23">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="1"/>
-        <v>91.8</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="37" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C37" s="32" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="D37" s="28">
         <f>((D36/ 'First Table'!I12  )*100)/D5</f>
-        <v>64.434759443763653</v>
+        <v>60.407586978528435</v>
       </c>
       <c r="E37" s="29">
         <f>((E36/   'First Table'!I13   )*100)/E5</f>
-        <v>79.491715806346861</v>
+        <v>83.104975615726289</v>
       </c>
       <c r="F37" s="28">
         <f>((F36/   'First Table'!I14    )*100)/F5</f>
@@ -8362,11 +8362,11 @@
       </c>
       <c r="G37" s="28">
         <f>((G36/ 'First Table'!I15  )*100)/G5</f>
-        <v>66.150104547480638</v>
+        <v>68.646334907762906</v>
       </c>
       <c r="H37" s="28">
         <f>((H36/   'First Table'!I16    )*100)/H5</f>
-        <v>39.763610678650707</v>
+        <v>38.744030917659664</v>
       </c>
       <c r="I37" s="20" t="e">
         <f>((I36/   'First Table'!I11    )*100)/#REF!</f>
@@ -8374,39 +8374,39 @@
       </c>
       <c r="K37" s="23">
         <f t="shared" si="0"/>
-        <v>298.05287607781975</v>
+        <v>299.11561402125517</v>
       </c>
       <c r="L37" s="23">
         <f t="shared" si="2"/>
-        <v>39.763610678650707</v>
+        <v>38.744030917659664</v>
       </c>
       <c r="M37" s="23">
         <f t="shared" si="3"/>
-        <v>79.491715806346861</v>
+        <v>83.104975615726289</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="1"/>
-        <v>59.610575215563948</v>
+        <v>59.823122804251035</v>
       </c>
     </row>
     <row r="38" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" s="32" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="D38" s="28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="28">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F38" s="28">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G38" s="28">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H38" s="28">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I38" s="20">
         <v>1264</v>
@@ -8417,11 +8417,11 @@
       </c>
       <c r="L38" s="23">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M38" s="23">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="1"/>
@@ -8430,27 +8430,27 @@
     </row>
     <row r="39" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C39" s="32" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D39" s="28">
         <f>((D38/ 'First Table'!I12  )*100)/D5</f>
-        <v>64.434759443763653</v>
+        <v>60.407586978528435</v>
       </c>
       <c r="E39" s="29">
         <f>((E38/   'First Table'!I13   )*100)/E5</f>
-        <v>84.309395552186075</v>
+        <v>87.922655361565475</v>
       </c>
       <c r="F39" s="28">
         <f>((F38/   'First Table'!I14    )*100)/F5</f>
-        <v>47.838943852728463</v>
+        <v>48.21268560157791</v>
       </c>
       <c r="G39" s="28">
         <f>((G38/ 'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
+        <v>67.398219727621765</v>
       </c>
       <c r="H39" s="28">
         <f>((H38/   'First Table'!I16    )*100)/H5</f>
-        <v>38.336199013263247</v>
+        <v>38.132283061065039</v>
       </c>
       <c r="I39" s="20" t="e">
         <f>((I38/   'First Table'!I11    )*100)/#REF!</f>
@@ -8458,46 +8458,46 @@
       </c>
       <c r="K39" s="23">
         <f t="shared" si="0"/>
-        <v>304.81374794984549</v>
+        <v>302.07343073035861</v>
       </c>
       <c r="L39" s="23">
         <f t="shared" si="2"/>
-        <v>38.336199013263247</v>
+        <v>38.132283061065039</v>
       </c>
       <c r="M39" s="23">
         <f t="shared" si="3"/>
-        <v>84.309395552186075</v>
+        <v>87.922655361565475</v>
       </c>
       <c r="N39" s="23">
         <f t="shared" si="1"/>
-        <v>60.9627495899691</v>
+        <v>60.414686146071723</v>
       </c>
     </row>
     <row r="40" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="32" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D40" s="28">
         <v>16</v>
       </c>
       <c r="E40" s="28">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F40" s="28">
         <v>129</v>
       </c>
       <c r="G40" s="28">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="28">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I40" s="20">
         <v>1239</v>
       </c>
       <c r="K40" s="23">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L40" s="23">
         <f t="shared" si="2"/>
@@ -8505,16 +8505,16 @@
       </c>
       <c r="M40" s="23">
         <f t="shared" si="3"/>
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N40" s="23">
         <f t="shared" si="1"/>
-        <v>92.2</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="41" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C41" s="32" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D41" s="28">
         <f>((D40/ 'First Table'!I12  )*100)/D5</f>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="E41" s="29">
         <f>((E40/   'First Table'!I13   )*100)/E5</f>
-        <v>84.309395552186075</v>
+        <v>86.718235425105675</v>
       </c>
       <c r="F41" s="28">
         <f>((F40/   'First Table'!I14    )*100)/F5</f>
@@ -8530,11 +8530,11 @@
       </c>
       <c r="G41" s="28">
         <f>((G40/ 'First Table'!I15  )*100)/G5</f>
-        <v>71.142565268045203</v>
+        <v>69.894450087904062</v>
       </c>
       <c r="H41" s="28">
         <f>((H40/   'First Table'!I16    )*100)/H5</f>
-        <v>38.540114965461456</v>
+        <v>37.724451156668628</v>
       </c>
       <c r="I41" s="20" t="e">
         <f>((I40/   'First Table'!I11    )*100)/#REF!</f>
@@ -8542,83 +8542,83 @@
       </c>
       <c r="K41" s="23">
         <f t="shared" si="0"/>
-        <v>306.63952083103425</v>
+        <v>306.98458171501994</v>
       </c>
       <c r="L41" s="23">
         <f t="shared" si="2"/>
-        <v>38.540114965461456</v>
+        <v>37.724451156668628</v>
       </c>
       <c r="M41" s="23">
         <f t="shared" si="3"/>
-        <v>84.309395552186075</v>
+        <v>86.718235425105675</v>
       </c>
       <c r="N41" s="23">
         <f t="shared" si="1"/>
-        <v>61.327904166206849</v>
+        <v>61.396916343003987</v>
       </c>
     </row>
     <row r="42" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" s="32" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="D42" s="28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42" s="28">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F42" s="28">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G42" s="28">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H42" s="28">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I42" s="20">
         <v>1232</v>
       </c>
       <c r="K42" s="23">
         <f t="shared" si="0"/>
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L42" s="23">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M42" s="23">
         <f t="shared" si="3"/>
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N42" s="23">
         <f t="shared" si="1"/>
-        <v>90.8</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="43" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C43" s="32" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D43" s="28">
         <f>((D42/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
+        <v>64.434759443763653</v>
       </c>
       <c r="E43" s="29">
         <f>((E42/   'First Table'!I13   )*100)/E5</f>
-        <v>77.082875933427275</v>
+        <v>83.104975615726289</v>
       </c>
       <c r="F43" s="28">
         <f>((F42/   'First Table'!I14    )*100)/F5</f>
-        <v>48.21268560157791</v>
+        <v>48.58642735042735</v>
       </c>
       <c r="G43" s="28">
         <f>((G42/ 'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
+        <v>67.398219727621765</v>
       </c>
       <c r="H43" s="28">
         <f>((H42/   'First Table'!I16    )*100)/H5</f>
-        <v>38.947946869857873</v>
+        <v>37.316619252272204</v>
       </c>
       <c r="I43" s="20" t="e">
         <f>((I42/   'First Table'!I11    )*100)/#REF!</f>
@@ -8626,71 +8626,71 @@
       </c>
       <c r="K43" s="23">
         <f t="shared" si="0"/>
-        <v>290.5183730060603</v>
+        <v>300.84100138981125</v>
       </c>
       <c r="L43" s="23">
         <f t="shared" si="2"/>
-        <v>38.947946869857873</v>
+        <v>37.316619252272204</v>
       </c>
       <c r="M43" s="23">
         <f t="shared" si="3"/>
-        <v>77.082875933427275</v>
+        <v>83.104975615726289</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="1"/>
-        <v>58.103674601212063</v>
+        <v>60.168200277962249</v>
       </c>
     </row>
     <row r="44" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="32" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D44" s="28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="28">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" s="28">
         <v>128</v>
       </c>
       <c r="G44" s="28">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H44" s="28">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I44" s="20">
         <v>1264</v>
       </c>
       <c r="K44" s="23">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L44" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M44" s="23">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="1"/>
-        <v>89.8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C45" s="32" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D45" s="28">
         <f>((D44/ 'First Table'!I12  )*100)/D5</f>
-        <v>60.407586978528435</v>
+        <v>64.434759443763653</v>
       </c>
       <c r="E45" s="29">
         <f>((E44/   'First Table'!I13   )*100)/E5</f>
-        <v>83.104975615726289</v>
+        <v>81.900555679266475</v>
       </c>
       <c r="F45" s="28">
         <f>((F44/   'First Table'!I14    )*100)/F5</f>
@@ -8698,11 +8698,11 @@
       </c>
       <c r="G45" s="28">
         <f>((G44/ 'First Table'!I15  )*100)/G5</f>
-        <v>72.390680448186345</v>
+        <v>68.646334907762906</v>
       </c>
       <c r="H45" s="28">
         <f>((H44/   'First Table'!I16    )*100)/H5</f>
-        <v>36.50095544347937</v>
+        <v>37.316619252272204</v>
       </c>
       <c r="I45" s="20">
         <f>((I44/   'First Table'!I17    )*100)/I5</f>
@@ -8710,83 +8710,83 @@
       </c>
       <c r="K45" s="23">
         <f t="shared" si="0"/>
-        <v>300.24314233864891</v>
+        <v>300.13721313579367</v>
       </c>
       <c r="L45" s="23">
         <f t="shared" si="2"/>
-        <v>36.50095544347937</v>
+        <v>37.316619252272204</v>
       </c>
       <c r="M45" s="23">
         <f t="shared" si="3"/>
-        <v>83.104975615726289</v>
+        <v>81.900555679266475</v>
       </c>
       <c r="N45" s="23">
         <f t="shared" si="1"/>
-        <v>60.048628467729785</v>
+        <v>60.027442627158734</v>
       </c>
     </row>
     <row r="46" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" s="32" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D46" s="28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" s="28">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F46" s="28">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46" s="28">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H46" s="28">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I46" s="20">
         <v>1239</v>
       </c>
       <c r="K46" s="23">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L46" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M46" s="23">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N46" s="23">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C47" s="32" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D47" s="28">
         <f>((D46/ 'First Table'!I12  )*100)/D5</f>
-        <v>60.407586978528435</v>
+        <v>64.434759443763653</v>
       </c>
       <c r="E47" s="29">
         <f>((E46/   'First Table'!I13   )*100)/E5</f>
-        <v>83.104975615726289</v>
+        <v>84.309395552186075</v>
       </c>
       <c r="F47" s="28">
         <f>((F46/   'First Table'!I14    )*100)/F5</f>
-        <v>48.21268560157791</v>
+        <v>47.838943852728463</v>
       </c>
       <c r="G47" s="28">
         <f>((G46/ 'First Table'!I15  )*100)/G5</f>
-        <v>68.646334907762906</v>
+        <v>72.390680448186345</v>
       </c>
       <c r="H47" s="28">
         <f>((H46/   'First Table'!I16    )*100)/H5</f>
-        <v>37.112703300074003</v>
+        <v>37.316619252272204</v>
       </c>
       <c r="I47" s="20">
         <f>((I46/   'First Table'!I17    )*100)/I5</f>
@@ -8794,36 +8794,36 @@
       </c>
       <c r="K47" s="23">
         <f t="shared" si="0"/>
-        <v>297.48428640366956</v>
+        <v>306.29039854913674</v>
       </c>
       <c r="L47" s="23">
         <f t="shared" si="2"/>
-        <v>37.112703300074003</v>
+        <v>37.316619252272204</v>
       </c>
       <c r="M47" s="23">
         <f t="shared" si="3"/>
-        <v>83.104975615726289</v>
+        <v>84.309395552186075</v>
       </c>
       <c r="N47" s="23">
         <f t="shared" si="1"/>
-        <v>59.496857280733913</v>
+        <v>61.258079709827349</v>
       </c>
     </row>
     <row r="48" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="32" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="D48" s="28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" s="28">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F48" s="28">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G48" s="28">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H48" s="28">
         <v>185</v>
@@ -8833,11 +8833,11 @@
       </c>
       <c r="K48" s="23">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L48" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M48" s="23">
         <f t="shared" si="3"/>
@@ -8845,28 +8845,28 @@
       </c>
       <c r="N48" s="23">
         <f t="shared" si="1"/>
-        <v>89.6</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="49" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C49" s="32" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D49" s="28">
         <f>((D48/ 'First Table'!I12  )*100)/D5</f>
-        <v>60.407586978528435</v>
+        <v>64.434759443763653</v>
       </c>
       <c r="E49" s="29">
         <f>((E48/   'First Table'!I13   )*100)/E5</f>
-        <v>77.082875933427275</v>
+        <v>84.309395552186075</v>
       </c>
       <c r="F49" s="28">
         <f>((F48/   'First Table'!$I$14    )*100)/$F$5</f>
-        <v>48.21268560157791</v>
+        <v>47.465202103879015</v>
       </c>
       <c r="G49" s="28">
         <f>((G48/ 'First Table'!$I$15  )*100)/$G$5</f>
-        <v>68.646334907762906</v>
+        <v>66.150104547480638</v>
       </c>
       <c r="H49" s="28">
         <f>((H48/   'First Table'!$I$16    )*100)/$H$5</f>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="K49" s="23">
         <f t="shared" si="0"/>
-        <v>292.07393457796513</v>
+        <v>300.08391280397802</v>
       </c>
       <c r="L49" s="23">
         <f t="shared" si="2"/>
@@ -8886,16 +8886,16 @@
       </c>
       <c r="M49" s="23">
         <f t="shared" si="3"/>
-        <v>77.082875933427275</v>
+        <v>84.309395552186075</v>
       </c>
       <c r="N49" s="23">
         <f t="shared" si="1"/>
-        <v>58.414786915593027</v>
+        <v>60.016782560795605</v>
       </c>
     </row>
     <row r="50" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C50" s="32" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D50" s="28">
         <v>11</v>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="51" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C51" s="32" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D51" s="28">
         <f>((D50/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="54" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C54" s="32" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D54" s="28">
         <v>13</v>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="55" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C55" s="32" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D55" s="28">
         <f>((D54/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="56" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C56" s="32" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D56" s="28">
         <v>15</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="57" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C57" s="32" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D57" s="28">
         <f>((D56/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -9315,7 +9315,7 @@
     </row>
     <row r="60" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C60" s="32" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D60" s="28">
         <v>16</v>
@@ -9354,7 +9354,7 @@
     </row>
     <row r="61" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C61" s="32" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D61" s="28">
         <f>((D60/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="62" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C62" s="32" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D62" s="28">
         <v>16</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="63" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C63" s="32" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D63" s="28">
         <f>((D62/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="66" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C66" s="32" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D66" s="28">
         <v>16</v>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="67" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C67" s="32" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D67" s="28">
         <f>((D66/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="68" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C68" s="32" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D68" s="28">
         <v>15</v>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="69" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C69" s="32" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D69" s="28">
         <f>((D68/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="72" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C72" s="32" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D72" s="28">
         <v>14</v>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="73" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C73" s="32" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D73" s="28">
         <f>((D72/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="74" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C74" s="32" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D74" s="28">
         <v>14</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="75" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C75" s="32" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D75" s="28">
         <f>((D74/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="78" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C78" s="32" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D78" s="28">
         <v>17</v>
@@ -10110,7 +10110,7 @@
     </row>
     <row r="79" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C79" s="32" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D79" s="28">
         <f>((D78/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="80" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C80" s="32" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D80" s="28">
         <v>16</v>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="81" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C81" s="32" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D81" s="28">
         <f>((D80/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="84" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C84" s="32" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D84" s="28">
         <v>16</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="85" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C85" s="32" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D85" s="28">
         <f>((D84/ 'First Table'!$I$12  )*100)/$D$5</f>
@@ -10407,7 +10407,7 @@
     </row>
     <row r="86" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C86" s="35" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D86" s="28">
         <v>17</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="87" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C87" s="32" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D87" s="28">
         <f>((D86/  'First Table'!I12  )*100)/D5</f>
@@ -10491,7 +10491,7 @@
     </row>
     <row r="88" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C88" s="35" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D88" s="28">
         <v>16</v>
@@ -10530,7 +10530,7 @@
     </row>
     <row r="89" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C89" s="32" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D89" s="28">
         <f>((D88/ 'First Table'!I12  )*100)/D5</f>
@@ -10782,7 +10782,7 @@
     </row>
     <row r="95" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C95" s="32" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D95" s="28">
         <f>((D94/ 'First Table'!I12  )*100)/D5</f>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="97" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C97" s="32" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D97" s="28">
         <f>((D96/  'First Table'!I12  )*100)/D5</f>
@@ -10950,7 +10950,7 @@
     </row>
     <row r="99" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C99" s="32" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D99" s="28">
         <f>((D98/ 'First Table'!I12  )*100)/D5</f>
@@ -11034,7 +11034,7 @@
     </row>
     <row r="101" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C101" s="30" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D101" s="28">
         <f>((D100/  'First Table'!I12  )*100)/D5</f>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="103" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C103" s="30" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D103" s="31">
         <f>((D102/ 'First Table'!I12  )*100)/D5</f>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="105" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C105" s="30" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D105" s="31">
         <f>((D104/  'First Table'!I12  )*100)/D5</f>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="107" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C107" s="32" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D107" s="28">
         <f>((D106/ 'First Table'!I12  )*100)/D5</f>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="109" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C109" s="32" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D109" s="28">
         <f>((D108/'First Table'!I12  )*100)/D5</f>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="111" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C111" s="32" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D111" s="28">
         <f>((D110/ 'First Table'!I12  )*100)/D5</f>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="113" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C113" s="32" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D113" s="28">
         <f>((D112/ 'First Table'!I12  )*100)/D5</f>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="115" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C115" s="32" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D115" s="28">
         <f>((D114/ 'First Table'!I12  )*100)/D5</f>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="117" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C117" s="32" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D117" s="28">
         <f>((D116/'First Table'!I12  )*100)/D5</f>
@@ -11788,7 +11788,7 @@
     </row>
     <row r="119" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C119" s="32" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D119" s="28">
         <f>((D118/ 'First Table'!I12  )*100)/D5</f>
@@ -11872,7 +11872,7 @@
     </row>
     <row r="121" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C121" s="32" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D121" s="28">
         <f>((D120/ 'First Table'!I12  )*100)/D5</f>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="123" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C123" s="32" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D123" s="28">
         <f>((D122/ 'First Table'!I12  )*100)/D5</f>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="125" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C125" s="32" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D125" s="28">
         <f>((D124/ 'First Table'!I12  )*100)/D5</f>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="127" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C127" s="32" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D127" s="28">
         <f>((D126/ 'First Table'!I12  )*100)/D5</f>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="129" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C129" s="30" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D129" s="31">
         <f>((D128/ 'First Table'!I12  )*100)/D5</f>

--- a/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
+++ b/PredLig/src/Documentation/Resultados/1999_resultadoCompleto.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="181">
   <si>
     <t>Article Data</t>
   </si>
@@ -544,6 +544,114 @@
   </si>
   <si>
     <t>Domain Time Score 0.4 0.9 (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.1)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.2)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.3)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.4)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.5)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.6)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.7)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.8)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.9)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.9)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.1)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.2)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.3)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.4)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.5)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.6)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.7)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.8)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.1) Total Success</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.2) Total Success</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.3) Total Success</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.1) Total Success</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.2) Total Success</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.3) Total Success</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.4) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.5) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.6) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.6) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.5) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.4) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.9) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.8) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwCN (β = 0.6,α  = 0.7) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.9) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.8) (Total Success)</t>
+  </si>
+  <si>
+    <t>CTwAA  (β = 0.6,α  = 0.7) (Total Success)</t>
   </si>
 </sst>
 </file>
@@ -967,9 +1075,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$129</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$165</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1091,69 +1199,126 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1161,10 +1326,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$L$7:$L$129</c:f>
+              <c:f>'Results 1994-1999'!$L$7:$L$165</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
@@ -1286,69 +1451,126 @@
                   <c:v>40.171442583047124</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.297039491281161</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.704871395677579</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38.336199013263247</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.724451156668628</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.744030917659664</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.355778774254297</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.559694726452499</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39.763610678650707</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40.579274487443548</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.987106391839959</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.171442583047124</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40.171442583047124</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>27.936485451154599</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>36.297039491281161</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>38.132283061065039</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>35.073543778091903</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>40.783190439641757</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>39.355778774254297</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>39.559694726452499</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>41.394938296236383</c:v>
                 </c:pt>
               </c:numCache>
@@ -1369,9 +1591,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$129</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$165</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1493,69 +1715,126 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1563,10 +1842,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$M$7:$M$129</c:f>
+              <c:f>'Results 1994-1999'!$M$7:$M$165</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
@@ -1688,69 +1967,126 @@
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.94475504386449</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>93.94475504386449</c:v>
+                  <c:v>69.856356314668474</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>64.901989367339482</c:v>
+                  <c:v>69.856356314668474</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>68.646334907762906</c:v>
+                  <c:v>71.06077625112826</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>69.856356314668474</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>72.26519618758806</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>69.856356314668474</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>72.390680448186345</c:v>
+                  <c:v>75.87845599696746</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>69.894450087904062</c:v>
+                  <c:v>75.87845599696746</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.142565268045203</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71.142565268045203</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73.638795628327486</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>77.082875933427275</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.28729586988706</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93.94475504386449</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>93.94475504386449</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73.46961612404786</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.856356314668474</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72.390680448186345</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>74.67403606050766</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>77.082875933427275</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
               </c:numCache>
@@ -1792,9 +2128,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$129</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$165</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -1916,69 +2252,126 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -1986,10 +2379,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$N$7:$N$129</c:f>
+              <c:f>'Results 1994-1999'!$N$7:$N$165</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>51.576440797759247</c:v>
                 </c:pt>
@@ -2111,69 +2504,126 @@
                   <c:v>59.01096010837265</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>55.643333173510577</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55.806465935269145</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56.465029613738274</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55.575025864048442</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55.384217107142788</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.103866193255172</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>58.139560778169177</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.869222363197572</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53.98355323743008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58.707069695810581</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58.025905791709327</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58.107472172588622</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58.066688982148982</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57.884066282769183</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58.247299841380084</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59.476015906421807</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.970230672840486</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.981182444798847</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>60.01883432665808</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>63.141338662052036</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>50.989833761643936</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>55.745454661858368</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>56.487203734300451</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>56.065381011244042</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>55.316690659191792</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>55.071198155882016</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>56.675626101668357</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>59.281064117636923</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>57.733623011491787</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>54.921023916513697</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>52.623766136302493</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>58.182113110111104</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>56.498389911966136</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>54.187469189628288</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>53.736093917675113</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>54.881128999832583</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>54.711330083089209</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>59.196512444963467</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>57.495697436086132</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>58.890656550897333</c:v>
                 </c:pt>
               </c:numCache>
@@ -2190,11 +2640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines/>
-        <c:axId val="533297664"/>
-        <c:axId val="533482880"/>
+        <c:axId val="542490112"/>
+        <c:axId val="82924608"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="533297664"/>
+        <c:axId val="542490112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533482880"/>
+        <c:crossAx val="82924608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533482880"/>
+        <c:axId val="82924608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533297664"/>
+        <c:crossAx val="542490112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2363,9 +2813,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$131</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$167</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -2487,72 +2937,129 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2560,10 +3067,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$D$7:$D$131</c:f>
+              <c:f>'Results 1994-1999'!$D$7:$D$167</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
@@ -2685,72 +3192,129 @@
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68.461931908998892</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.271724652352283</c:v>
+                  <c:v>64.434759443763653</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>52.353242048057965</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44.298897117587515</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>52.353242048057965</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>64.434759443763653</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>64.434759443763653</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>56.380414513293204</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44.298897117587515</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40.271724652352283</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>56.380414513293204</c:v>
+                  <c:v>60.407586978528435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.32606958282274</c:v>
+                  <c:v>60.407586978528435</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44.298897117587515</c:v>
+                  <c:v>60.407586978528435</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44.298897117587515</c:v>
+                  <c:v>60.407586978528435</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>52.353242048057965</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>68.461931908998892</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40.271724652352283</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>56.380414513293204</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
+                  <c:v>52.353242048057965</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="65">
                   <c:v>60.407586978528435</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="66">
+                  <c:v>52.353242048057965</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>64.434759443763653</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.298897117587515</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40.271724652352283</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48.32606958282274</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44.298897117587515</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44.298897117587515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>56.380414513293204</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>60.407586978528435</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>64.434759443763653</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2767,12 +3331,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="538359296"/>
-        <c:axId val="69083136"/>
+        <c:axId val="584463872"/>
+        <c:axId val="82926912"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="538359296"/>
+        <c:axId val="584463872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,7 +3369,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69083136"/>
+        <c:crossAx val="82926912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2813,7 +3377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69083136"/>
+        <c:axId val="82926912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +3420,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538359296"/>
+        <c:crossAx val="584463872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2994,9 +3558,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$131</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$167</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -3118,72 +3682,129 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3191,10 +3812,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$E$7:$E$131</c:f>
+              <c:f>'Results 1994-1999'!$E$7:$E$167</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>50.585637331311638</c:v>
                 </c:pt>
@@ -3316,72 +3937,129 @@
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.94475504386449</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>93.94475504386449</c:v>
+                  <c:v>69.856356314668474</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61.42541675944986</c:v>
+                  <c:v>69.856356314668474</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>60.220996822990053</c:v>
+                  <c:v>71.06077625112826</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>69.856356314668474</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>72.26519618758806</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>69.856356314668474</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>59</c:v>
+                  <c:v>75.87845599696746</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59</c:v>
+                  <c:v>75.87845599696746</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71.06077625112826</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>67.44751644174886</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>68.651936378208646</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>77.082875933427275</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.28729586988706</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93.94475504386449</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>93.94475504386449</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61.42541675944986</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60.220996822990053</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73.46961612404786</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.856356314668474</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>72.26519618758806</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>79.491715806346861</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>74.67403606050766</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>77.082875933427275</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>73.46961612404786</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>75.87845599696746</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>72.26519618758806</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3398,12 +4076,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="92934144"/>
-        <c:axId val="69086016"/>
+        <c:axId val="584465920"/>
+        <c:axId val="542549120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92934144"/>
+        <c:axId val="584465920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +4114,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69086016"/>
+        <c:crossAx val="542549120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3444,7 +4122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69086016"/>
+        <c:axId val="542549120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,7 +4165,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92934144"/>
+        <c:crossAx val="584465920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3625,9 +4303,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$131</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$167</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -3749,72 +4427,129 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3822,10 +4557,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$F$7:$F$131</c:f>
+              <c:f>'Results 1994-1999'!$F$7:$F$167</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>49.33391084812623</c:v>
                 </c:pt>
@@ -3947,72 +4682,129 @@
                   <c:v>50.828877843523998</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45.222751610782375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45.222751610782375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45.222751610782375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.596493359631815</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.465202103879015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.838943852728463</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.960169099276797</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.21268560157791</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.707652596975677</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.08139434582511</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.455136094674558</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.455136094674558</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.455136094674558</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.455136094674558</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.455136094674558</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50.08139434582511</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50.08139434582511</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50.455136094674558</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>44.849009861932942</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>47.465202103879015</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>57.182487573964494</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>47.091460355029582</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>46.343976857330702</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>50.828877843523998</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>50.08139434582511</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>50.455136094674558</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>47.838943852728463</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>50.828877843523998</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>50.08139434582511</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>49.707652596975677</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>48.21268560157791</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>46.717718606180135</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>45.596493359631815</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>48.58642735042735</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>49.707652596975677</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>48.960169099276797</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4029,12 +4821,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="92935680"/>
-        <c:axId val="69088896"/>
+        <c:axId val="584568832"/>
+        <c:axId val="542550848"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92935680"/>
+        <c:axId val="584568832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,7 +4859,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69088896"/>
+        <c:crossAx val="542550848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4075,7 +4867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69088896"/>
+        <c:axId val="542550848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4118,7 +4910,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92935680"/>
+        <c:crossAx val="584568832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4256,9 +5048,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$131</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$167</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -4380,72 +5172,129 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -4453,10 +5302,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$G$7:$G$131</c:f>
+              <c:f>'Results 1994-1999'!$G$7:$G$167</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
@@ -4578,72 +5427,129 @@
                   <c:v>66.150104547480638</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62.405759007057199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.405759007057199</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>64.901989367339482</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>69.894450087904062</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>64.901989367339482</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>68.646334907762906</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>69.894450087904062</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>63.653874187198333</c:v>
+                  <c:v>64.901989367339482</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>64.901989367339482</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>71.142565268045203</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66.150104547480638</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>67.398219727621765</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.142565268045203</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71.142565268045203</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73.638795628327486</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>76.135025988609783</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>73.638795628327486</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68.646334907762906</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.894450087904062</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63.653874187198333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64.901989367339482</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>72.390680448186345</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>63.653874187198333</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>62.405759007057199</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>69.894450087904062</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>68.646334907762906</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>64.901989367339482</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>61.157643826916051</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>59.909528646774909</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>62.405759007057199</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>71.142565268045203</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>66.150104547480638</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>67.398219727621765</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4660,12 +5566,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="532698624"/>
-        <c:axId val="94634560"/>
+        <c:axId val="584570880"/>
+        <c:axId val="542552576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="532698624"/>
+        <c:axId val="584570880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4698,7 +5604,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94634560"/>
+        <c:crossAx val="542552576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4706,7 +5612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94634560"/>
+        <c:axId val="542552576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4749,7 +5655,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532698624"/>
+        <c:crossAx val="584570880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4883,9 +5789,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$131</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$167</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -5007,72 +5913,129 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>Combinacao Linear (cn, aas, jc, pa, ts08, ts05, ts02)</c:v>
                 </c:pt>
               </c:strCache>
@@ -5080,10 +6043,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$H$7:$H$131</c:f>
+              <c:f>'Results 1994-1999'!$H$7:$H$167</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
@@ -5205,72 +6168,129 @@
                   <c:v>40.171442583047124</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.297039491281161</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.704871395677579</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.112703300074003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37.92836710886683</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38.336199013263247</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.724451156668628</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.744030917659664</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.355778774254297</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.559694726452499</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39.763610678650707</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39.967526630848923</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40.579274487443548</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.987106391839959</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.171442583047124</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40.171442583047124</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>27.936485451154599</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>36.297039491281161</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>38.132283061065039</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>35.073543778091903</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>40.783190439641757</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>39.355778774254297</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>39.559694726452499</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>39.763610678650707</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>37.92836710886683</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>36.908787347875787</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>39.967526630848923</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>38.947946869857873</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>41.394938296236383</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5287,12 +6307,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="94593024"/>
-        <c:axId val="94637440"/>
+        <c:axId val="584572416"/>
+        <c:axId val="542554304"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94593024"/>
+        <c:axId val="584572416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +6345,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94637440"/>
+        <c:crossAx val="542554304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5333,7 +6353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94637440"/>
+        <c:axId val="542554304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5376,7 +6396,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94593024"/>
+        <c:crossAx val="584572416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5514,9 +6534,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Results 1994-1999'!$C$7:$C$130</c:f>
+              <c:f>'Results 1994-1999'!$C$7:$C$166</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>Common Neighbors</c:v>
                 </c:pt>
@@ -5638,69 +6658,126 @@
                   <c:v>TwAA (β = 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1) Total Success</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>CTwCN (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>CTwCN (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>CTwCN (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>CTwCN (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>CTwCN (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>CTwCN (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>CTwCN (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>CTwCN (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>CTwCN (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.1)</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.2)</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.3)</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.4)</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.5)</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.6)</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.7)</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.8)</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>CTwAA  (β = 0.6,α  = 0.9)</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>WCN</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>WAA</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>CwCN</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>CwAA</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>CTwCN (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>CTwCN (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>CTwCN (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>CTwAA (β = 0.8, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>CTwAA (β = 0.8, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>CTwAA (β = 0.8, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>CTwCN (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>CTwCN (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>CTwCN (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>CTwAA (β = 0.5, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>CTwAA (β = 0.5, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>CTwAA (β = 0.5, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>CTwCN (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>CTwCN (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>CTwCN (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>CTwAA (β = 0.2, α = 0.8) </c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>CTwAA (β = 0.2, α = 0.5) </c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>CTwAA (β = 0.2, α = 0.2) </c:v>
                 </c:pt>
               </c:strCache>
@@ -5708,7 +6785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Results 1994-1999'!$I$7:$I$130</c:f>
+              <c:f>'Results 1994-1999'!$I$7:$I$166</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -5722,12 +6799,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="94594560"/>
-        <c:axId val="94639744"/>
+        <c:axId val="584852992"/>
+        <c:axId val="584736768"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94594560"/>
+        <c:axId val="584852992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5760,7 +6837,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94639744"/>
+        <c:crossAx val="584736768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5768,7 +6845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94639744"/>
+        <c:axId val="584736768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5811,7 +6888,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94594560"/>
+        <c:crossAx val="584852992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5851,13 +6928,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>183696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>175845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6948,10 +8025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N165"/>
+  <dimension ref="C1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:H49"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86:C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -7080,7 +8157,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23">
-        <f t="shared" ref="N6:N129" si="1">K6/5</f>
+        <f t="shared" ref="N6:N165" si="1">K6/5</f>
         <v>85</v>
       </c>
     </row>
@@ -9004,11 +10081,11 @@
         <v>389</v>
       </c>
       <c r="L52" s="23">
-        <f t="shared" ref="L52:L129" si="14">MIN(D52:H52)</f>
+        <f t="shared" ref="L52:L165" si="14">MIN(D52:H52)</f>
         <v>12</v>
       </c>
       <c r="M52" s="23">
-        <f t="shared" ref="M52:M129" si="15">MAX(D52:H52)</f>
+        <f t="shared" ref="M52:M165" si="15">MAX(D52:H52)</f>
         <v>150</v>
       </c>
       <c r="N52" s="23">
@@ -10344,19 +11421,19 @@
         <v>194</v>
       </c>
       <c r="K84" s="23">
-        <f t="shared" ref="K84:K85" si="40">SUM(D84:H84)</f>
+        <f t="shared" ref="K84:K119" si="40">SUM(D84:H84)</f>
         <v>463</v>
       </c>
       <c r="L84" s="23">
-        <f t="shared" ref="L84:L85" si="41">MIN(D84:H84)</f>
+        <f t="shared" ref="L84:L119" si="41">MIN(D84:H84)</f>
         <v>16</v>
       </c>
       <c r="M84" s="23">
-        <f t="shared" ref="M84:M85" si="42">MAX(D84:H84)</f>
+        <f t="shared" ref="M84:M119" si="42">MAX(D84:H84)</f>
         <v>197</v>
       </c>
       <c r="N84" s="23">
-        <f t="shared" ref="N84:N85" si="43">K84/5</f>
+        <f t="shared" ref="N84:N119" si="43">K84/5</f>
         <v>92.6</v>
       </c>
     </row>
@@ -10405,1949 +11482,3461 @@
         <v>59.01096010837265</v>
       </c>
     </row>
-    <row r="86" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="35" t="s">
-        <v>84</v>
+    <row r="86" spans="3:14" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C86" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="D86" s="28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86" s="28">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F86" s="28">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G86" s="28">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H86" s="28">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="I86" s="20">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K86" s="23">
-        <f t="shared" ref="K86:K94" si="44">SUM(D86:H86)</f>
-        <v>404</v>
+        <f t="shared" si="40"/>
+        <v>423</v>
       </c>
       <c r="L86" s="23">
-        <f t="shared" ref="L86:L94" si="45">MIN(D86:H86)</f>
-        <v>17</v>
+        <f t="shared" si="41"/>
+        <v>16</v>
       </c>
       <c r="M86" s="23">
-        <f t="shared" ref="M86:M94" si="46">MAX(D86:H86)</f>
-        <v>137</v>
-      </c>
-      <c r="N86">
-        <f t="shared" ref="N86:N94" si="47">K86/5</f>
-        <v>80.8</v>
-      </c>
-    </row>
-    <row r="87" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>178</v>
+      </c>
+      <c r="N86" s="23">
+        <f t="shared" si="43"/>
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C87" s="32" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="D87" s="28">
-        <f>((D86/  'First Table'!I12  )*100)/D5</f>
-        <v>68.461931908998892</v>
-      </c>
-      <c r="E87" s="29">
-        <f>((E86/   'First Table'!I13   )*100)/E5</f>
-        <v>93.94475504386449</v>
+        <f>((D86/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>64.434759443763653</v>
+      </c>
+      <c r="E87" s="28">
+        <f>((E86/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>69.856356314668474</v>
       </c>
       <c r="F87" s="28">
         <f>((F86/   'First Table'!$I$14    )*100)/$F$5</f>
-        <v>44.849009861932942</v>
+        <v>45.222751610782375</v>
       </c>
       <c r="G87" s="28">
         <f>((G86/ 'First Table'!$I$15  )*100)/$G$5</f>
-        <v>64.901989367339482</v>
+        <v>62.405759007057199</v>
       </c>
       <c r="H87" s="28">
         <f>((H86/   'First Table'!$I$16    )*100)/$H$5</f>
-        <v>27.936485451154599</v>
+        <v>36.297039491281161</v>
       </c>
       <c r="I87" s="20" t="e">
-        <f>((I86/   'First Table'!I13    )*100)/I1</f>
+        <f>((I86/   'First Table'!I51    )*100)/I39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K87" s="23">
-        <f t="shared" si="44"/>
-        <v>300.09417163329039</v>
+        <f t="shared" si="40"/>
+        <v>278.21666586755288</v>
       </c>
       <c r="L87" s="23">
-        <f t="shared" si="45"/>
-        <v>27.936485451154599</v>
+        <f t="shared" si="41"/>
+        <v>36.297039491281161</v>
       </c>
       <c r="M87" s="23">
-        <f t="shared" si="46"/>
-        <v>93.94475504386449</v>
+        <f t="shared" si="42"/>
+        <v>69.856356314668474</v>
       </c>
       <c r="N87" s="23">
-        <f t="shared" si="47"/>
-        <v>60.01883432665808</v>
-      </c>
-    </row>
-    <row r="88" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="35" t="s">
-        <v>86</v>
+        <f t="shared" si="43"/>
+        <v>55.643333173510577</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C88" s="32" t="s">
+        <v>164</v>
       </c>
       <c r="D88" s="28">
         <v>16</v>
       </c>
       <c r="E88" s="28">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F88" s="28">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G88" s="28">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H88" s="28">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="I88" s="20">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K88" s="23">
-        <f t="shared" si="44"/>
-        <v>473</v>
+        <f t="shared" si="40"/>
+        <v>427</v>
       </c>
       <c r="L88" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>16</v>
       </c>
       <c r="M88" s="23">
-        <f t="shared" si="46"/>
-        <v>196</v>
+        <f t="shared" si="42"/>
+        <v>182</v>
       </c>
       <c r="N88" s="23">
-        <f t="shared" si="47"/>
-        <v>94.6</v>
+        <f t="shared" si="43"/>
+        <v>85.4</v>
       </c>
     </row>
     <row r="89" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="32" t="s">
-        <v>87</v>
+      <c r="C89" s="35" t="s">
+        <v>146</v>
       </c>
       <c r="D89" s="28">
-        <f>((D88/ 'First Table'!I12  )*100)/D5</f>
+        <f>((D88/ 'First Table'!$I$12  )*100)/$D$5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E89" s="29">
-        <f>((E88/  'First Table'!I13   )*100)/E5</f>
-        <v>93.94475504386449</v>
+      <c r="E89" s="28">
+        <f>((E88/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>69.856356314668474</v>
       </c>
       <c r="F89" s="28">
         <f>((F88/   'First Table'!$I$14    )*100)/$F$5</f>
-        <v>47.465202103879015</v>
+        <v>45.222751610782375</v>
       </c>
       <c r="G89" s="28">
-        <f>((G88/  'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
+        <f>((G88/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>62.405759007057199</v>
       </c>
       <c r="H89" s="28">
         <f>((H88/   'First Table'!$I$16    )*100)/$H$5</f>
-        <v>39.967526630848923</v>
+        <v>37.112703300074003</v>
       </c>
       <c r="I89" s="20" t="e">
-        <f>((I88/   'First Table'!I13    )*100)/I1</f>
+        <f>((I88/   'First Table'!I53    )*100)/I41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K89" s="23">
-        <f t="shared" si="44"/>
-        <v>315.70669331026016</v>
+        <f t="shared" si="40"/>
+        <v>279.03232967634574</v>
       </c>
       <c r="L89" s="23">
-        <f t="shared" si="45"/>
-        <v>39.967526630848923</v>
+        <f t="shared" si="41"/>
+        <v>37.112703300074003</v>
       </c>
       <c r="M89" s="23">
-        <f t="shared" si="46"/>
-        <v>93.94475504386449</v>
+        <f t="shared" si="42"/>
+        <v>69.856356314668474</v>
       </c>
       <c r="N89" s="23">
-        <f t="shared" si="47"/>
-        <v>63.141338662052036</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="35" t="s">
-        <v>30</v>
+        <f t="shared" si="43"/>
+        <v>55.806465935269145</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C90" s="32" t="s">
+        <v>165</v>
       </c>
       <c r="D90" s="28">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E90" s="28">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F90" s="28">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G90" s="28">
         <v>52</v>
       </c>
       <c r="H90" s="28">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I90" s="20">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K90" s="23">
-        <f t="shared" si="44"/>
-        <v>438</v>
+        <f t="shared" si="40"/>
+        <v>428</v>
       </c>
       <c r="L90" s="23">
-        <f t="shared" si="45"/>
-        <v>10</v>
+        <f t="shared" si="41"/>
+        <v>16</v>
       </c>
       <c r="M90" s="23">
-        <f t="shared" si="46"/>
-        <v>195</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="47"/>
-        <v>87.6</v>
+        <f t="shared" si="42"/>
+        <v>180</v>
+      </c>
+      <c r="N90" s="23">
+        <f t="shared" si="43"/>
+        <v>85.6</v>
       </c>
     </row>
     <row r="91" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C91" s="32" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D91" s="28">
-        <f>((D90/ 'First Table'!I12  )*100)/D5</f>
-        <v>40.271724652352283</v>
-      </c>
-      <c r="E91" s="29">
-        <f>((E90/   'First Table'!I13   )*100)/E5</f>
-        <v>61.42541675944986</v>
+        <f>((D90/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>64.434759443763653</v>
+      </c>
+      <c r="E91" s="28">
+        <f>((E90/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>71.06077625112826</v>
       </c>
       <c r="F91" s="28">
-        <f>((F90/   'First Table'!I14    )*100)/F5</f>
-        <v>48.58642735042735</v>
+        <f>((F90/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>45.222751610782375</v>
       </c>
       <c r="G91" s="28">
-        <f>((G90/ 'First Table'!I15  )*100)/G5</f>
+        <f>((G90/ 'First Table'!$I$15  )*100)/$G$5</f>
         <v>64.901989367339482</v>
       </c>
       <c r="H91" s="28">
-        <f>((H90/   'First Table'!I16    )*100)/H5</f>
-        <v>39.763610678650707</v>
-      </c>
-      <c r="I91" s="20">
-        <f>((I90/   'First Table'!I17    )*100)/I5</f>
-        <v>39.034579267138838</v>
+        <f>((H90/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>36.704871395677579</v>
+      </c>
+      <c r="I91" s="20" t="e">
+        <f>((I90/   'First Table'!I51    )*100)/I39</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K91" s="23">
-        <f t="shared" si="44"/>
-        <v>254.94916880821967</v>
+        <f t="shared" si="40"/>
+        <v>282.32514806869136</v>
       </c>
       <c r="L91" s="23">
-        <f t="shared" si="45"/>
-        <v>39.763610678650707</v>
+        <f t="shared" si="41"/>
+        <v>36.704871395677579</v>
       </c>
       <c r="M91" s="23">
-        <f t="shared" si="46"/>
-        <v>64.901989367339482</v>
+        <f t="shared" si="42"/>
+        <v>71.06077625112826</v>
       </c>
       <c r="N91" s="23">
-        <f t="shared" si="47"/>
-        <v>50.989833761643936</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="35" t="s">
-        <v>31</v>
+        <f t="shared" si="43"/>
+        <v>56.465029613738274</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C92" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="D92" s="28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E92" s="28">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F92" s="28">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="G92" s="28">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H92" s="28">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I92" s="20">
         <v>179</v>
       </c>
       <c r="K92" s="23">
-        <f t="shared" si="44"/>
-        <v>450</v>
+        <f t="shared" si="40"/>
+        <v>429</v>
       </c>
       <c r="L92" s="23">
-        <f t="shared" si="45"/>
-        <v>14</v>
+        <f t="shared" si="41"/>
+        <v>15</v>
       </c>
       <c r="M92" s="23">
-        <f t="shared" si="46"/>
-        <v>178</v>
+        <f t="shared" si="42"/>
+        <v>182</v>
       </c>
       <c r="N92" s="23">
-        <f t="shared" si="47"/>
-        <v>90</v>
+        <f t="shared" si="43"/>
+        <v>85.8</v>
       </c>
     </row>
     <row r="93" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C93" s="32" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="D93" s="28">
-        <f>((D92/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
-      </c>
-      <c r="E93" s="29">
-        <f>((E92/   'First Table'!I13   )*100)/E5</f>
-        <v>60.220996822990053</v>
+        <f>((D92/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E93" s="28">
+        <f>((E92/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>69.856356314668474</v>
       </c>
       <c r="F93" s="28">
-        <f>((F92/   'First Table'!I14    )*100)/F5</f>
-        <v>57.182487573964494</v>
+        <f>((F92/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>45.596493359631815</v>
       </c>
       <c r="G93" s="28">
-        <f>((G92/ 'First Table'!I15  )*100)/G5</f>
-        <v>68.646334907762906</v>
+        <f>((G92/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>64.901989367339482</v>
       </c>
       <c r="H93" s="28">
-        <f>((H92/   'First Table'!I16    )*100)/H5</f>
-        <v>36.297039491281161</v>
-      </c>
-      <c r="I93" s="20">
-        <f>((I92/   'First Table'!I17    )*100)/I5</f>
-        <v>35.648926983764554</v>
+        <f>((H92/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>37.112703300074003</v>
+      </c>
+      <c r="I93" s="20" t="e">
+        <f>((I92/   'First Table'!I51    )*100)/I39</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K93" s="23">
-        <f t="shared" si="44"/>
-        <v>278.72727330929183</v>
+        <f t="shared" si="40"/>
+        <v>277.87512932024219</v>
       </c>
       <c r="L93" s="23">
-        <f t="shared" si="45"/>
-        <v>36.297039491281161</v>
+        <f t="shared" si="41"/>
+        <v>37.112703300074003</v>
       </c>
       <c r="M93" s="23">
-        <f t="shared" si="46"/>
-        <v>68.646334907762906</v>
+        <f t="shared" si="42"/>
+        <v>69.856356314668474</v>
       </c>
       <c r="N93" s="23">
-        <f t="shared" si="47"/>
-        <v>55.745454661858368</v>
+        <f t="shared" si="43"/>
+        <v>55.575025864048442</v>
       </c>
     </row>
     <row r="94" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C94" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="28">
+        <v>14</v>
+      </c>
+      <c r="E94" s="28">
+        <v>59</v>
+      </c>
+      <c r="F94" s="28">
+        <v>127</v>
+      </c>
+      <c r="G94" s="28">
+        <v>52</v>
+      </c>
+      <c r="H94" s="28">
+        <v>182</v>
+      </c>
+      <c r="I94" s="20">
+        <v>179</v>
+      </c>
+      <c r="K94" s="23">
+        <f t="shared" si="40"/>
+        <v>434</v>
+      </c>
+      <c r="L94" s="23">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="M94" s="23">
+        <f t="shared" si="42"/>
+        <v>182</v>
+      </c>
+      <c r="N94" s="23">
+        <f t="shared" si="43"/>
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="28">
+        <f>((D94/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E95" s="28">
+        <f>((E94/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>71.06077625112826</v>
+      </c>
+      <c r="F95" s="28">
+        <f>((F94/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>47.465202103879015</v>
+      </c>
+      <c r="G95" s="28">
+        <f>((G94/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H95" s="28">
+        <f>((H94/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>37.112703300074003</v>
+      </c>
+      <c r="I95" s="20" t="e">
+        <f>((I94/   'First Table'!I53    )*100)/I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K95" s="23">
+        <f t="shared" si="40"/>
+        <v>276.92108553571393</v>
+      </c>
+      <c r="L95" s="23">
+        <f t="shared" si="41"/>
+        <v>37.112703300074003</v>
+      </c>
+      <c r="M95" s="23">
+        <f t="shared" si="42"/>
+        <v>71.06077625112826</v>
+      </c>
+      <c r="N95" s="23">
+        <f t="shared" si="43"/>
+        <v>55.384217107142788</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C96" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="28">
+        <v>14</v>
+      </c>
+      <c r="E96" s="28">
+        <v>61</v>
+      </c>
+      <c r="F96" s="28">
+        <v>128</v>
+      </c>
+      <c r="G96" s="28">
+        <v>52</v>
+      </c>
+      <c r="H96" s="28">
+        <v>186</v>
+      </c>
+      <c r="I96" s="20">
+        <v>173</v>
+      </c>
+      <c r="K96" s="23">
+        <f t="shared" si="40"/>
+        <v>441</v>
+      </c>
+      <c r="L96" s="23">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="M96" s="23">
+        <f t="shared" si="42"/>
+        <v>186</v>
+      </c>
+      <c r="N96" s="23">
+        <f t="shared" si="43"/>
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="28">
+        <f>((D96/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E97" s="28">
+        <f>((E96/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>73.46961612404786</v>
+      </c>
+      <c r="F97" s="28">
+        <f>((F96/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>47.838943852728463</v>
+      </c>
+      <c r="G97" s="28">
+        <f>((G96/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H97" s="28">
+        <f>((H96/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="I97" s="20" t="e">
+        <f>((I96/   'First Table'!I51    )*100)/I39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K97" s="23">
+        <f t="shared" si="40"/>
+        <v>280.51933096627585</v>
+      </c>
+      <c r="L97" s="23">
+        <f t="shared" si="41"/>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="M97" s="23">
+        <f t="shared" si="42"/>
+        <v>73.46961612404786</v>
+      </c>
+      <c r="N97" s="23">
+        <f t="shared" si="43"/>
+        <v>56.103866193255172</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C98" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D98" s="28">
+        <v>14</v>
+      </c>
+      <c r="E98" s="28">
+        <v>63</v>
+      </c>
+      <c r="F98" s="28">
+        <v>131</v>
+      </c>
+      <c r="G98" s="28">
+        <v>57</v>
+      </c>
+      <c r="H98" s="28">
+        <v>188</v>
+      </c>
+      <c r="I98" s="20">
+        <v>173</v>
+      </c>
+      <c r="K98" s="23">
+        <f t="shared" si="40"/>
+        <v>453</v>
+      </c>
+      <c r="L98" s="23">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="M98" s="23">
+        <f t="shared" si="42"/>
+        <v>188</v>
+      </c>
+      <c r="N98" s="23">
+        <f t="shared" si="43"/>
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="28">
+        <f>((D98/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E99" s="28">
+        <f>((E98/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="F99" s="28">
+        <f>((F98/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>48.960169099276797</v>
+      </c>
+      <c r="G99" s="28">
+        <f>((G98/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>71.142565268045203</v>
+      </c>
+      <c r="H99" s="28">
+        <f>((H98/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>38.336199013263247</v>
+      </c>
+      <c r="I99" s="20" t="e">
+        <f>((I98/   'First Table'!I51    )*100)/I39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K99" s="23">
+        <f t="shared" si="40"/>
+        <v>290.69780389084588</v>
+      </c>
+      <c r="L99" s="23">
+        <f t="shared" si="41"/>
+        <v>38.336199013263247</v>
+      </c>
+      <c r="M99" s="23">
+        <f t="shared" si="42"/>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="N99" s="23">
+        <f t="shared" si="43"/>
+        <v>58.139560778169177</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C100" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" s="28">
+        <v>14</v>
+      </c>
+      <c r="E100" s="28">
+        <v>63</v>
+      </c>
+      <c r="F100" s="28">
+        <v>129</v>
+      </c>
+      <c r="G100" s="28">
+        <v>53</v>
+      </c>
+      <c r="H100" s="28">
+        <v>185</v>
+      </c>
+      <c r="I100" s="20">
+        <v>173</v>
+      </c>
+      <c r="K100" s="23">
+        <f t="shared" si="40"/>
+        <v>444</v>
+      </c>
+      <c r="L100" s="23">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="M100" s="23">
+        <f t="shared" si="42"/>
+        <v>185</v>
+      </c>
+      <c r="N100" s="23">
+        <f t="shared" si="43"/>
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" s="28">
+        <f>((D100/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E101" s="28">
+        <f>((E100/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="F101" s="28">
+        <f>((F100/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>48.21268560157791</v>
+      </c>
+      <c r="G101" s="28">
+        <f>((G100/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>66.150104547480638</v>
+      </c>
+      <c r="H101" s="28">
+        <f>((H100/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>37.724451156668628</v>
+      </c>
+      <c r="I101" s="20" t="e">
+        <f>((I100/   'First Table'!I53    )*100)/I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K101" s="23">
+        <f t="shared" si="40"/>
+        <v>284.34611181598785</v>
+      </c>
+      <c r="L101" s="23">
+        <f t="shared" si="41"/>
+        <v>37.724451156668628</v>
+      </c>
+      <c r="M101" s="23">
+        <f t="shared" si="42"/>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="N101" s="23">
+        <f t="shared" si="43"/>
+        <v>56.869222363197572</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C102" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" s="28">
+        <v>11</v>
+      </c>
+      <c r="E102" s="28">
+        <v>60</v>
+      </c>
+      <c r="F102" s="28">
+        <v>133</v>
+      </c>
+      <c r="G102" s="28">
+        <v>52</v>
+      </c>
+      <c r="H102" s="28">
+        <v>190</v>
+      </c>
+      <c r="I102" s="20">
+        <v>173</v>
+      </c>
+      <c r="K102" s="23">
+        <f t="shared" si="40"/>
+        <v>446</v>
+      </c>
+      <c r="L102" s="23">
+        <f t="shared" si="41"/>
+        <v>11</v>
+      </c>
+      <c r="M102" s="23">
+        <f t="shared" si="42"/>
+        <v>190</v>
+      </c>
+      <c r="N102" s="23">
+        <f t="shared" si="43"/>
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="28">
+        <f>((D102/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>44.298897117587515</v>
+      </c>
+      <c r="E103" s="28">
+        <f>((E102/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F103" s="28">
+        <f>((F102/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>49.707652596975677</v>
+      </c>
+      <c r="G103" s="28">
+        <f>((G102/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H103" s="28">
+        <f>((H102/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>38.744030917659664</v>
+      </c>
+      <c r="I103" s="20" t="e">
+        <f>((I102/   'First Table'!I55    )*100)/I43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K103" s="23">
+        <f t="shared" si="40"/>
+        <v>269.91776618715039</v>
+      </c>
+      <c r="L103" s="23">
+        <f t="shared" si="41"/>
+        <v>38.744030917659664</v>
+      </c>
+      <c r="M103" s="23">
+        <f t="shared" si="42"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N103" s="23">
+        <f t="shared" si="43"/>
+        <v>53.98355323743008</v>
+      </c>
+    </row>
+    <row r="104" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C104" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" s="28">
+        <v>16</v>
+      </c>
+      <c r="E104" s="28">
+        <v>60</v>
+      </c>
+      <c r="F104" s="28">
+        <v>134</v>
+      </c>
+      <c r="G104" s="28">
+        <v>54</v>
+      </c>
+      <c r="H104" s="28">
+        <v>193</v>
+      </c>
+      <c r="I104" s="20">
+        <v>197</v>
+      </c>
+      <c r="K104" s="23">
+        <f t="shared" si="40"/>
+        <v>457</v>
+      </c>
+      <c r="L104" s="23">
+        <f t="shared" si="41"/>
+        <v>16</v>
+      </c>
+      <c r="M104" s="23">
+        <f t="shared" si="42"/>
+        <v>193</v>
+      </c>
+      <c r="N104" s="23">
+        <f t="shared" si="43"/>
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="105" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" s="28">
+        <f>((D104/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>64.434759443763653</v>
+      </c>
+      <c r="E105" s="28">
+        <f>((E104/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F105" s="28">
+        <f>((F104/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.08139434582511</v>
+      </c>
+      <c r="G105" s="28">
+        <f>((G104/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>67.398219727621765</v>
+      </c>
+      <c r="H105" s="28">
+        <f>((H104/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>39.355778774254297</v>
+      </c>
+      <c r="I105" s="20" t="e">
+        <f>((I104/   'First Table'!I51    )*100)/I39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K105" s="23">
+        <f t="shared" si="40"/>
+        <v>293.53534847905291</v>
+      </c>
+      <c r="L105" s="23">
+        <f t="shared" si="41"/>
+        <v>39.355778774254297</v>
+      </c>
+      <c r="M105" s="23">
+        <f t="shared" si="42"/>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="N105" s="23">
+        <f t="shared" si="43"/>
+        <v>58.707069695810581</v>
+      </c>
+    </row>
+    <row r="106" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C106" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="28">
+        <v>15</v>
+      </c>
+      <c r="E106" s="28">
+        <v>59</v>
+      </c>
+      <c r="F106" s="28">
+        <v>135</v>
+      </c>
+      <c r="G106" s="28">
+        <v>55</v>
+      </c>
+      <c r="H106" s="28">
+        <v>194</v>
+      </c>
+      <c r="I106" s="20">
+        <v>197</v>
+      </c>
+      <c r="K106" s="23">
+        <f t="shared" si="40"/>
+        <v>458</v>
+      </c>
+      <c r="L106" s="23">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="M106" s="23">
+        <f t="shared" si="42"/>
+        <v>194</v>
+      </c>
+      <c r="N106" s="23">
+        <f t="shared" si="43"/>
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="107" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="28">
+        <f>((D106/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E107" s="28">
+        <f>((E106/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>71.06077625112826</v>
+      </c>
+      <c r="F107" s="28">
+        <f>((F106/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.455136094674558</v>
+      </c>
+      <c r="G107" s="28">
+        <f>((G106/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>68.646334907762906</v>
+      </c>
+      <c r="H107" s="28">
+        <f>((H106/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>39.559694726452499</v>
+      </c>
+      <c r="I107" s="20" t="e">
+        <f>((I106/   'First Table'!I53    )*100)/I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K107" s="23">
+        <f t="shared" si="40"/>
+        <v>290.12952895854664</v>
+      </c>
+      <c r="L107" s="23">
+        <f t="shared" si="41"/>
+        <v>39.559694726452499</v>
+      </c>
+      <c r="M107" s="23">
+        <f t="shared" si="42"/>
+        <v>71.06077625112826</v>
+      </c>
+      <c r="N107" s="23">
+        <f t="shared" si="43"/>
+        <v>58.025905791709327</v>
+      </c>
+    </row>
+    <row r="108" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C108" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" s="28">
+        <v>15</v>
+      </c>
+      <c r="E108" s="28">
+        <v>59</v>
+      </c>
+      <c r="F108" s="28">
+        <v>135</v>
+      </c>
+      <c r="G108" s="28">
+        <v>55</v>
+      </c>
+      <c r="H108" s="28">
+        <v>196</v>
+      </c>
+      <c r="I108" s="20">
+        <v>197</v>
+      </c>
+      <c r="K108" s="23">
+        <f t="shared" si="40"/>
+        <v>460</v>
+      </c>
+      <c r="L108" s="23">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="M108" s="23">
+        <f t="shared" si="42"/>
+        <v>196</v>
+      </c>
+      <c r="N108" s="23">
+        <f t="shared" si="43"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109" s="28">
+        <f>((D108/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E109" s="28">
+        <f>((E108/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>71.06077625112826</v>
+      </c>
+      <c r="F109" s="28">
+        <f>((F108/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.455136094674558</v>
+      </c>
+      <c r="G109" s="28">
+        <f>((G108/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>68.646334907762906</v>
+      </c>
+      <c r="H109" s="28">
+        <f>((H108/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="I109" s="20" t="e">
+        <f>((I108/   'First Table'!I55    )*100)/I43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K109" s="23">
+        <f t="shared" si="40"/>
+        <v>290.5373608629431</v>
+      </c>
+      <c r="L109" s="23">
+        <f t="shared" si="41"/>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="M109" s="23">
+        <f t="shared" si="42"/>
+        <v>71.06077625112826</v>
+      </c>
+      <c r="N109" s="23">
+        <f t="shared" si="43"/>
+        <v>58.107472172588622</v>
+      </c>
+    </row>
+    <row r="110" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C110" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="28">
+        <v>15</v>
+      </c>
+      <c r="E110" s="28">
+        <v>59</v>
+      </c>
+      <c r="F110" s="28">
+        <v>135</v>
+      </c>
+      <c r="G110" s="28">
+        <v>55</v>
+      </c>
+      <c r="H110" s="28">
+        <v>195</v>
+      </c>
+      <c r="I110" s="20">
+        <v>197</v>
+      </c>
+      <c r="K110" s="23">
+        <f t="shared" si="40"/>
+        <v>459</v>
+      </c>
+      <c r="L110" s="23">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="M110" s="23">
+        <f t="shared" si="42"/>
+        <v>195</v>
+      </c>
+      <c r="N110" s="23">
+        <f t="shared" si="43"/>
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="111" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="28">
+        <f>((D110/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E111" s="28">
+        <f>((E110/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>71.06077625112826</v>
+      </c>
+      <c r="F111" s="28">
+        <f>((F110/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.455136094674558</v>
+      </c>
+      <c r="G111" s="28">
+        <f>((G110/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>68.646334907762906</v>
+      </c>
+      <c r="H111" s="28">
+        <f>((H110/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="I111" s="20" t="e">
+        <f>((I110/   'First Table'!I51    )*100)/I39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K111" s="23">
+        <f t="shared" si="40"/>
+        <v>290.3334449107449</v>
+      </c>
+      <c r="L111" s="23">
+        <f t="shared" si="41"/>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="M111" s="23">
+        <f t="shared" si="42"/>
+        <v>71.06077625112826</v>
+      </c>
+      <c r="N111" s="23">
+        <f t="shared" si="43"/>
+        <v>58.066688982148982</v>
+      </c>
+    </row>
+    <row r="112" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C112" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="28">
+        <v>15</v>
+      </c>
+      <c r="E112" s="28">
+        <v>56</v>
+      </c>
+      <c r="F112" s="28">
+        <v>135</v>
+      </c>
+      <c r="G112" s="28">
+        <v>57</v>
+      </c>
+      <c r="H112" s="28">
+        <v>196</v>
+      </c>
+      <c r="I112" s="20">
+        <v>197</v>
+      </c>
+      <c r="K112" s="23">
+        <f t="shared" si="40"/>
+        <v>459</v>
+      </c>
+      <c r="L112" s="23">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="M112" s="23">
+        <f t="shared" si="42"/>
+        <v>196</v>
+      </c>
+      <c r="N112" s="23">
+        <f t="shared" si="43"/>
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="113" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" s="28">
+        <f>((D112/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E113" s="28">
+        <f>((E112/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>67.44751644174886</v>
+      </c>
+      <c r="F113" s="28">
+        <f>((F112/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.455136094674558</v>
+      </c>
+      <c r="G113" s="28">
+        <f>((G112/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>71.142565268045203</v>
+      </c>
+      <c r="H113" s="28">
+        <f>((H112/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="I113" s="20" t="e">
+        <f>((I112/   'First Table'!I53    )*100)/I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K113" s="23">
+        <f t="shared" si="40"/>
+        <v>289.42033141384593</v>
+      </c>
+      <c r="L113" s="23">
+        <f t="shared" si="41"/>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="M113" s="23">
+        <f t="shared" si="42"/>
+        <v>71.142565268045203</v>
+      </c>
+      <c r="N113" s="23">
+        <f t="shared" si="43"/>
+        <v>57.884066282769183</v>
+      </c>
+    </row>
+    <row r="114" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C114" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="28">
+        <v>15</v>
+      </c>
+      <c r="E114" s="28">
+        <v>57</v>
+      </c>
+      <c r="F114" s="28">
+        <v>135</v>
+      </c>
+      <c r="G114" s="28">
+        <v>57</v>
+      </c>
+      <c r="H114" s="28">
+        <v>199</v>
+      </c>
+      <c r="I114" s="20">
+        <v>197</v>
+      </c>
+      <c r="K114" s="23">
+        <f t="shared" si="40"/>
+        <v>463</v>
+      </c>
+      <c r="L114" s="23">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="M114" s="23">
+        <f t="shared" si="42"/>
+        <v>199</v>
+      </c>
+      <c r="N114" s="23">
+        <f t="shared" si="43"/>
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="115" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="28">
+        <f>((D114/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E115" s="28">
+        <f>((E114/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>68.651936378208646</v>
+      </c>
+      <c r="F115" s="28">
+        <f>((F114/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.455136094674558</v>
+      </c>
+      <c r="G115" s="28">
+        <f>((G114/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>71.142565268045203</v>
+      </c>
+      <c r="H115" s="28">
+        <f>((H114/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>40.579274487443548</v>
+      </c>
+      <c r="I115" s="20" t="e">
+        <f>((I114/   'First Table'!I55    )*100)/I43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K115" s="23">
+        <f t="shared" si="40"/>
+        <v>291.23649920690042</v>
+      </c>
+      <c r="L115" s="23">
+        <f t="shared" si="41"/>
+        <v>40.579274487443548</v>
+      </c>
+      <c r="M115" s="23">
+        <f t="shared" si="42"/>
+        <v>71.142565268045203</v>
+      </c>
+      <c r="N115" s="23">
+        <f t="shared" si="43"/>
+        <v>58.247299841380084</v>
+      </c>
+    </row>
+    <row r="116" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C116" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116" s="28">
+        <v>15</v>
+      </c>
+      <c r="E116" s="28">
+        <v>60</v>
+      </c>
+      <c r="F116" s="28">
+        <v>134</v>
+      </c>
+      <c r="G116" s="28">
+        <v>59</v>
+      </c>
+      <c r="H116" s="28">
+        <v>201</v>
+      </c>
+      <c r="I116" s="20">
+        <v>197</v>
+      </c>
+      <c r="K116" s="23">
+        <f t="shared" si="40"/>
+        <v>469</v>
+      </c>
+      <c r="L116" s="23">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="M116" s="23">
+        <f t="shared" si="42"/>
+        <v>201</v>
+      </c>
+      <c r="N116" s="23">
+        <f t="shared" si="43"/>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="117" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117" s="28">
+        <f>((D116/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>60.407586978528435</v>
+      </c>
+      <c r="E117" s="28">
+        <f>((E116/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>72.26519618758806</v>
+      </c>
+      <c r="F117" s="28">
+        <f>((F116/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.08139434582511</v>
+      </c>
+      <c r="G117" s="28">
+        <f>((G116/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>73.638795628327486</v>
+      </c>
+      <c r="H117" s="28">
+        <f>((H116/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>40.987106391839959</v>
+      </c>
+      <c r="I117" s="20" t="e">
+        <f>((I116/   'First Table'!I57    )*100)/I45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K117" s="23">
+        <f t="shared" si="40"/>
+        <v>297.38007953210905</v>
+      </c>
+      <c r="L117" s="23">
+        <f t="shared" si="41"/>
+        <v>40.987106391839959</v>
+      </c>
+      <c r="M117" s="23">
+        <f t="shared" si="42"/>
+        <v>73.638795628327486</v>
+      </c>
+      <c r="N117" s="23">
+        <f t="shared" si="43"/>
+        <v>59.476015906421807</v>
+      </c>
+    </row>
+    <row r="118" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C118" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="28">
+        <v>14</v>
+      </c>
+      <c r="E118" s="28">
+        <v>64</v>
+      </c>
+      <c r="F118" s="28">
+        <v>134</v>
+      </c>
+      <c r="G118" s="28">
+        <v>61</v>
+      </c>
+      <c r="H118" s="28">
+        <v>197</v>
+      </c>
+      <c r="I118" s="20">
+        <v>194</v>
+      </c>
+      <c r="K118" s="23">
+        <f t="shared" si="40"/>
+        <v>470</v>
+      </c>
+      <c r="L118" s="23">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="M118" s="23">
+        <f t="shared" si="42"/>
+        <v>197</v>
+      </c>
+      <c r="N118" s="23">
+        <f t="shared" si="43"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="28">
+        <f>((D118/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E119" s="28">
+        <f>((E118/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>77.082875933427275</v>
+      </c>
+      <c r="F119" s="28">
+        <f>((F118/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.08139434582511</v>
+      </c>
+      <c r="G119" s="28">
+        <f>((G118/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>76.135025988609783</v>
+      </c>
+      <c r="H119" s="28">
+        <f>((H118/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>40.171442583047124</v>
+      </c>
+      <c r="I119" s="20" t="e">
+        <f>((I118/   'First Table'!I53    )*100)/I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K119" s="23">
+        <f t="shared" si="40"/>
+        <v>299.85115336420245</v>
+      </c>
+      <c r="L119" s="23">
+        <f t="shared" si="41"/>
+        <v>40.171442583047124</v>
+      </c>
+      <c r="M119" s="23">
+        <f t="shared" si="42"/>
+        <v>77.082875933427275</v>
+      </c>
+      <c r="N119" s="23">
+        <f t="shared" si="43"/>
+        <v>59.970230672840486</v>
+      </c>
+    </row>
+    <row r="120" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C120" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D120" s="28">
+        <v>13</v>
+      </c>
+      <c r="E120" s="28">
+        <v>65</v>
+      </c>
+      <c r="F120" s="28">
+        <v>135</v>
+      </c>
+      <c r="G120" s="28">
+        <v>59</v>
+      </c>
+      <c r="H120" s="28">
+        <v>197</v>
+      </c>
+      <c r="I120" s="20">
+        <v>194</v>
+      </c>
+      <c r="K120" s="23">
+        <f t="shared" ref="K120:K121" si="44">SUM(D120:H120)</f>
+        <v>469</v>
+      </c>
+      <c r="L120" s="23">
+        <f t="shared" ref="L120:L121" si="45">MIN(D120:H120)</f>
+        <v>13</v>
+      </c>
+      <c r="M120" s="23">
+        <f t="shared" ref="M120:M121" si="46">MAX(D120:H120)</f>
+        <v>197</v>
+      </c>
+      <c r="N120" s="23">
+        <f t="shared" ref="N120:N121" si="47">K120/5</f>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="121" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="28">
+        <f>((D120/ 'First Table'!$I$12  )*100)/$D$5</f>
+        <v>52.353242048057965</v>
+      </c>
+      <c r="E121" s="28">
+        <f>((E120/ 'First Table'!$I$13  )*100)/$E$5</f>
+        <v>78.28729586988706</v>
+      </c>
+      <c r="F121" s="28">
+        <f>((F120/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>50.455136094674558</v>
+      </c>
+      <c r="G121" s="28">
+        <f>((G120/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>73.638795628327486</v>
+      </c>
+      <c r="H121" s="28">
+        <f>((H120/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>40.171442583047124</v>
+      </c>
+      <c r="I121" s="20" t="e">
+        <f>((I120/   'First Table'!I55    )*100)/I43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K121" s="23">
+        <f t="shared" si="44"/>
+        <v>294.90591222399422</v>
+      </c>
+      <c r="L121" s="23">
+        <f t="shared" si="45"/>
+        <v>40.171442583047124</v>
+      </c>
+      <c r="M121" s="23">
+        <f t="shared" si="46"/>
+        <v>78.28729586988706</v>
+      </c>
+      <c r="N121" s="23">
+        <f t="shared" si="47"/>
+        <v>58.981182444798847</v>
+      </c>
+    </row>
+    <row r="122" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" s="28">
+        <v>17</v>
+      </c>
+      <c r="E122" s="28">
+        <v>78</v>
+      </c>
+      <c r="F122" s="28">
+        <v>120</v>
+      </c>
+      <c r="G122" s="28">
+        <v>52</v>
+      </c>
+      <c r="H122" s="28">
+        <v>137</v>
+      </c>
+      <c r="I122" s="20">
+        <v>196</v>
+      </c>
+      <c r="K122" s="23">
+        <f t="shared" ref="K122:K130" si="48">SUM(D122:H122)</f>
+        <v>404</v>
+      </c>
+      <c r="L122" s="23">
+        <f t="shared" ref="L122:L130" si="49">MIN(D122:H122)</f>
+        <v>17</v>
+      </c>
+      <c r="M122" s="23">
+        <f t="shared" ref="M122:M130" si="50">MAX(D122:H122)</f>
+        <v>137</v>
+      </c>
+      <c r="N122">
+        <f t="shared" ref="N122:N130" si="51">K122/5</f>
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="123" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" s="28">
+        <f>((D122/  'First Table'!I12  )*100)/D5</f>
+        <v>68.461931908998892</v>
+      </c>
+      <c r="E123" s="29">
+        <f>((E122/   'First Table'!I13   )*100)/E5</f>
+        <v>93.94475504386449</v>
+      </c>
+      <c r="F123" s="28">
+        <f>((F122/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>44.849009861932942</v>
+      </c>
+      <c r="G123" s="28">
+        <f>((G122/ 'First Table'!$I$15  )*100)/$G$5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H123" s="28">
+        <f>((H122/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>27.936485451154599</v>
+      </c>
+      <c r="I123" s="20" t="e">
+        <f>((I122/   'First Table'!I13    )*100)/I1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K123" s="23">
+        <f t="shared" si="48"/>
+        <v>300.09417163329039</v>
+      </c>
+      <c r="L123" s="23">
+        <f t="shared" si="49"/>
+        <v>27.936485451154599</v>
+      </c>
+      <c r="M123" s="23">
+        <f t="shared" si="50"/>
+        <v>93.94475504386449</v>
+      </c>
+      <c r="N123" s="23">
+        <f t="shared" si="51"/>
+        <v>60.01883432665808</v>
+      </c>
+    </row>
+    <row r="124" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" s="28">
+        <v>16</v>
+      </c>
+      <c r="E124" s="28">
+        <v>78</v>
+      </c>
+      <c r="F124" s="28">
+        <v>127</v>
+      </c>
+      <c r="G124" s="28">
+        <v>56</v>
+      </c>
+      <c r="H124" s="28">
+        <v>196</v>
+      </c>
+      <c r="I124" s="20">
+        <v>179</v>
+      </c>
+      <c r="K124" s="23">
+        <f t="shared" si="48"/>
+        <v>473</v>
+      </c>
+      <c r="L124" s="23">
+        <f t="shared" si="49"/>
+        <v>16</v>
+      </c>
+      <c r="M124" s="23">
+        <f t="shared" si="50"/>
+        <v>196</v>
+      </c>
+      <c r="N124" s="23">
+        <f t="shared" si="51"/>
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="125" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D125" s="28">
+        <f>((D124/ 'First Table'!I12  )*100)/D5</f>
+        <v>64.434759443763653</v>
+      </c>
+      <c r="E125" s="29">
+        <f>((E124/  'First Table'!I13   )*100)/E5</f>
+        <v>93.94475504386449</v>
+      </c>
+      <c r="F125" s="28">
+        <f>((F124/   'First Table'!$I$14    )*100)/$F$5</f>
+        <v>47.465202103879015</v>
+      </c>
+      <c r="G125" s="28">
+        <f>((G124/  'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
+      </c>
+      <c r="H125" s="28">
+        <f>((H124/   'First Table'!$I$16    )*100)/$H$5</f>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="I125" s="20" t="e">
+        <f>((I124/   'First Table'!I13    )*100)/I1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K125" s="23">
+        <f t="shared" si="48"/>
+        <v>315.70669331026016</v>
+      </c>
+      <c r="L125" s="23">
+        <f t="shared" si="49"/>
+        <v>39.967526630848923</v>
+      </c>
+      <c r="M125" s="23">
+        <f t="shared" si="50"/>
+        <v>93.94475504386449</v>
+      </c>
+      <c r="N125" s="23">
+        <f t="shared" si="51"/>
+        <v>63.141338662052036</v>
+      </c>
+    </row>
+    <row r="126" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" s="28">
+        <v>10</v>
+      </c>
+      <c r="E126" s="28">
+        <v>51</v>
+      </c>
+      <c r="F126" s="28">
+        <v>130</v>
+      </c>
+      <c r="G126" s="28">
+        <v>52</v>
+      </c>
+      <c r="H126" s="28">
+        <v>195</v>
+      </c>
+      <c r="I126" s="20">
+        <v>196</v>
+      </c>
+      <c r="K126" s="23">
+        <f t="shared" si="48"/>
+        <v>438</v>
+      </c>
+      <c r="L126" s="23">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="M126" s="23">
+        <f t="shared" si="50"/>
+        <v>195</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="51"/>
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="127" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="28">
+        <f>((D126/ 'First Table'!I12  )*100)/D5</f>
+        <v>40.271724652352283</v>
+      </c>
+      <c r="E127" s="29">
+        <f>((E126/   'First Table'!I13   )*100)/E5</f>
+        <v>61.42541675944986</v>
+      </c>
+      <c r="F127" s="28">
+        <f>((F126/   'First Table'!I14    )*100)/F5</f>
+        <v>48.58642735042735</v>
+      </c>
+      <c r="G127" s="28">
+        <f>((G126/ 'First Table'!I15  )*100)/G5</f>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="H127" s="28">
+        <f>((H126/   'First Table'!I16    )*100)/H5</f>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="I127" s="20">
+        <f>((I126/   'First Table'!I17    )*100)/I5</f>
+        <v>39.034579267138838</v>
+      </c>
+      <c r="K127" s="23">
+        <f t="shared" si="48"/>
+        <v>254.94916880821967</v>
+      </c>
+      <c r="L127" s="23">
+        <f t="shared" si="49"/>
+        <v>39.763610678650707</v>
+      </c>
+      <c r="M127" s="23">
+        <f t="shared" si="50"/>
+        <v>64.901989367339482</v>
+      </c>
+      <c r="N127" s="23">
+        <f t="shared" si="51"/>
+        <v>50.989833761643936</v>
+      </c>
+    </row>
+    <row r="128" spans="3:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128" s="28">
+        <v>14</v>
+      </c>
+      <c r="E128" s="28">
+        <v>50</v>
+      </c>
+      <c r="F128" s="28">
+        <v>153</v>
+      </c>
+      <c r="G128" s="28">
+        <v>55</v>
+      </c>
+      <c r="H128" s="28">
+        <v>178</v>
+      </c>
+      <c r="I128" s="20">
+        <v>179</v>
+      </c>
+      <c r="K128" s="23">
+        <f t="shared" si="48"/>
+        <v>450</v>
+      </c>
+      <c r="L128" s="23">
+        <f t="shared" si="49"/>
+        <v>14</v>
+      </c>
+      <c r="M128" s="23">
+        <f t="shared" si="50"/>
+        <v>178</v>
+      </c>
+      <c r="N128" s="23">
+        <f t="shared" si="51"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="28">
+        <f>((D128/ 'First Table'!I12  )*100)/D5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E129" s="29">
+        <f>((E128/   'First Table'!I13   )*100)/E5</f>
+        <v>60.220996822990053</v>
+      </c>
+      <c r="F129" s="28">
+        <f>((F128/   'First Table'!I14    )*100)/F5</f>
+        <v>57.182487573964494</v>
+      </c>
+      <c r="G129" s="28">
+        <f>((G128/ 'First Table'!I15  )*100)/G5</f>
+        <v>68.646334907762906</v>
+      </c>
+      <c r="H129" s="28">
+        <f>((H128/   'First Table'!I16    )*100)/H5</f>
+        <v>36.297039491281161</v>
+      </c>
+      <c r="I129" s="20">
+        <f>((I128/   'First Table'!I17    )*100)/I5</f>
+        <v>35.648926983764554</v>
+      </c>
+      <c r="K129" s="23">
+        <f t="shared" si="48"/>
+        <v>278.72727330929183</v>
+      </c>
+      <c r="L129" s="23">
+        <f t="shared" si="49"/>
+        <v>36.297039491281161</v>
+      </c>
+      <c r="M129" s="23">
+        <f t="shared" si="50"/>
+        <v>68.646334907762906</v>
+      </c>
+      <c r="N129" s="23">
+        <f t="shared" si="51"/>
+        <v>55.745454661858368</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C130" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D94" s="28">
+      <c r="D130" s="28">
         <v>13</v>
       </c>
-      <c r="E94" s="28">
+      <c r="E130" s="28">
         <v>61</v>
       </c>
-      <c r="F94" s="28">
+      <c r="F130" s="28">
         <v>130</v>
       </c>
-      <c r="G94" s="28">
+      <c r="G130" s="28">
         <v>56</v>
       </c>
-      <c r="H94" s="28">
+      <c r="H130" s="28">
         <v>187</v>
       </c>
-      <c r="I94" s="20">
+      <c r="I130" s="20">
         <v>176</v>
       </c>
-      <c r="K94" s="23">
-        <f t="shared" si="44"/>
+      <c r="K130" s="23">
+        <f t="shared" si="48"/>
         <v>447</v>
       </c>
-      <c r="L94" s="23">
-        <f t="shared" si="45"/>
+      <c r="L130" s="23">
+        <f t="shared" si="49"/>
         <v>13</v>
       </c>
-      <c r="M94" s="23">
-        <f t="shared" si="46"/>
+      <c r="M130" s="23">
+        <f t="shared" si="50"/>
         <v>187</v>
       </c>
-      <c r="N94" s="23">
-        <f t="shared" si="47"/>
+      <c r="N130" s="23">
+        <f t="shared" si="51"/>
         <v>89.4</v>
       </c>
     </row>
-    <row r="95" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="32" t="s">
+    <row r="131" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D95" s="28">
-        <f>((D94/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D131" s="28">
+        <f>((D130/ 'First Table'!I12  )*100)/D5</f>
         <v>52.353242048057965</v>
       </c>
-      <c r="E95" s="28">
-        <f>((E94/    'First Table'!I13   )*100)/E5</f>
+      <c r="E131" s="28">
+        <f>((E130/    'First Table'!I13   )*100)/E5</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="F95" s="28">
-        <f>((F94/    'First Table'!I14    )*100)/F5</f>
+      <c r="F131" s="28">
+        <f>((F130/    'First Table'!I14    )*100)/F5</f>
         <v>48.58642735042735</v>
       </c>
-      <c r="G95" s="28">
-        <f>((G94/  'First Table'!I15  )*100)/G5</f>
+      <c r="G131" s="28">
+        <f>((G130/  'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H95" s="28">
-        <f>((H94/  'First Table'!I16    )*100)/H5</f>
+      <c r="H131" s="28">
+        <f>((H130/  'First Table'!I16    )*100)/H5</f>
         <v>38.132283061065039</v>
       </c>
-      <c r="I95" s="20" t="e">
+      <c r="I131" s="20" t="e">
         <f>((I44/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K95" s="23">
-        <f t="shared" ref="K95:K107" si="48">SUM(D95:H95)</f>
+      <c r="K131" s="23">
+        <f t="shared" ref="K131:K143" si="52">SUM(D131:H131)</f>
         <v>282.43601867150227</v>
       </c>
-      <c r="L95" s="23">
-        <f t="shared" ref="L95:L107" si="49">MIN(D95:H95)</f>
+      <c r="L131" s="23">
+        <f t="shared" ref="L131:L143" si="53">MIN(D131:H131)</f>
         <v>38.132283061065039</v>
       </c>
-      <c r="M95" s="23">
-        <f t="shared" ref="M95:M107" si="50">MAX(D95:H95)</f>
+      <c r="M131" s="23">
+        <f t="shared" ref="M131:M143" si="54">MAX(D131:H131)</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="N95" s="23">
-        <f t="shared" ref="N95:N107" si="51">K95/5</f>
+      <c r="N131" s="23">
+        <f t="shared" ref="N131:N143" si="55">K131/5</f>
         <v>56.487203734300451</v>
       </c>
     </row>
-    <row r="96" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C96" s="35" t="s">
+    <row r="132" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C132" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="28">
+      <c r="D132" s="28">
         <v>15</v>
       </c>
-      <c r="E96" s="28">
+      <c r="E132" s="28">
         <v>60</v>
       </c>
-      <c r="F96" s="28">
+      <c r="F132" s="28">
         <v>126</v>
       </c>
-      <c r="G96" s="28">
+      <c r="G132" s="28">
         <v>51</v>
       </c>
-      <c r="H96" s="28">
+      <c r="H132" s="28">
         <v>181</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I132" s="20">
         <v>179</v>
       </c>
-      <c r="K96" s="23">
-        <f t="shared" si="48"/>
+      <c r="K132" s="23">
+        <f t="shared" si="52"/>
         <v>433</v>
       </c>
-      <c r="L96" s="23">
-        <f t="shared" si="49"/>
+      <c r="L132" s="23">
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
-      <c r="M96" s="23">
-        <f t="shared" si="50"/>
+      <c r="M132" s="23">
+        <f t="shared" si="54"/>
         <v>181</v>
       </c>
-      <c r="N96" s="23">
-        <f t="shared" si="51"/>
+      <c r="N132" s="23">
+        <f t="shared" si="55"/>
         <v>86.6</v>
       </c>
     </row>
-    <row r="97" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="32" t="s">
+    <row r="133" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D97" s="28">
-        <f>((D96/  'First Table'!I12  )*100)/D5</f>
+      <c r="D133" s="28">
+        <f>((D132/  'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E97" s="28">
-        <f>((E96/    'First Table'!I13   )*100)/E5</f>
+      <c r="E133" s="28">
+        <f>((E132/    'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F97" s="28">
-        <f>((F96/   'First Table'!I14    )*100)/F5</f>
+      <c r="F133" s="28">
+        <f>((F132/   'First Table'!I14    )*100)/F5</f>
         <v>47.091460355029582</v>
       </c>
-      <c r="G97" s="28">
-        <f>((G96/  'First Table'!I15  )*100)/G5</f>
+      <c r="G133" s="28">
+        <f>((G132/  'First Table'!I15  )*100)/G5</f>
         <v>63.653874187198333</v>
       </c>
-      <c r="H97" s="28">
-        <f>((H96/   'First Table'!I16    )*100)/H5</f>
+      <c r="H133" s="28">
+        <f>((H132/   'First Table'!I16    )*100)/H5</f>
         <v>36.908787347875787</v>
       </c>
-      <c r="I97" s="20" t="e">
-        <f>((I96/   'First Table'!I7    )*100)/#REF!</f>
+      <c r="I133" s="20" t="e">
+        <f>((I132/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K97" s="23">
-        <f t="shared" si="48"/>
+      <c r="K133" s="23">
+        <f t="shared" si="52"/>
         <v>280.3269050562202</v>
       </c>
-      <c r="L97" s="23">
-        <f t="shared" si="49"/>
+      <c r="L133" s="23">
+        <f t="shared" si="53"/>
         <v>36.908787347875787</v>
       </c>
-      <c r="M97" s="23">
-        <f t="shared" si="50"/>
+      <c r="M133" s="23">
+        <f t="shared" si="54"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N97" s="23">
-        <f t="shared" si="51"/>
+      <c r="N133" s="23">
+        <f t="shared" si="55"/>
         <v>56.065381011244042</v>
       </c>
     </row>
-    <row r="98" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C98" s="35" t="s">
+    <row r="134" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C134" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="28">
+      <c r="D134" s="28">
         <v>15</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E134" s="28">
         <v>58</v>
       </c>
-      <c r="F98" s="28">
+      <c r="F134" s="28">
         <v>124</v>
       </c>
-      <c r="G98" s="28">
+      <c r="G134" s="28">
         <v>52</v>
       </c>
-      <c r="H98" s="28">
+      <c r="H134" s="28">
         <v>172</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I134" s="20">
         <v>173</v>
       </c>
-      <c r="K98" s="23">
-        <f t="shared" si="48"/>
+      <c r="K134" s="23">
+        <f t="shared" si="52"/>
         <v>421</v>
       </c>
-      <c r="L98" s="23">
-        <f t="shared" si="49"/>
+      <c r="L134" s="23">
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
-      <c r="M98" s="23">
-        <f t="shared" si="50"/>
+      <c r="M134" s="23">
+        <f t="shared" si="54"/>
         <v>172</v>
       </c>
-      <c r="N98" s="23">
-        <f t="shared" si="51"/>
+      <c r="N134" s="23">
+        <f t="shared" si="55"/>
         <v>84.2</v>
       </c>
     </row>
-    <row r="99" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="32" t="s">
+    <row r="135" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D99" s="28">
-        <f>((D98/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D135" s="28">
+        <f>((D134/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E99" s="28">
-        <f>((E98/   'First Table'!I13   )*100)/E5</f>
+      <c r="E135" s="28">
+        <f>((E134/   'First Table'!I13   )*100)/E5</f>
         <v>69.856356314668474</v>
       </c>
-      <c r="F99" s="28">
-        <f>((F98/   'First Table'!I14    )*100)/F5</f>
+      <c r="F135" s="28">
+        <f>((F134/   'First Table'!I14    )*100)/F5</f>
         <v>46.343976857330702</v>
       </c>
-      <c r="G99" s="28">
-        <f>((G98/  'First Table'!I15  )*100)/G5</f>
+      <c r="G135" s="28">
+        <f>((G134/  'First Table'!I15  )*100)/G5</f>
         <v>64.901989367339482</v>
       </c>
-      <c r="H99" s="28">
-        <f>((H98/    'First Table'!I16    )*100)/H5</f>
+      <c r="H135" s="28">
+        <f>((H134/    'First Table'!I16    )*100)/H5</f>
         <v>35.073543778091903</v>
       </c>
-      <c r="I99" s="20" t="e">
-        <f>((I98/   'First Table'!I7    )*100)/#REF!</f>
+      <c r="I135" s="20" t="e">
+        <f>((I134/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K99" s="23">
-        <f t="shared" si="48"/>
+      <c r="K135" s="23">
+        <f t="shared" si="52"/>
         <v>276.58345329595898</v>
       </c>
-      <c r="L99" s="23">
-        <f t="shared" si="49"/>
+      <c r="L135" s="23">
+        <f t="shared" si="53"/>
         <v>35.073543778091903</v>
       </c>
-      <c r="M99" s="23">
-        <f t="shared" si="50"/>
+      <c r="M135" s="23">
+        <f t="shared" si="54"/>
         <v>69.856356314668474</v>
       </c>
-      <c r="N99" s="23">
-        <f t="shared" si="51"/>
+      <c r="N135" s="23">
+        <f t="shared" si="55"/>
         <v>55.316690659191792</v>
       </c>
     </row>
-    <row r="100" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C100" s="35" t="s">
+    <row r="136" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C136" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="28">
+      <c r="D136" s="28">
         <v>13</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E136" s="28">
         <v>61</v>
       </c>
-      <c r="F100" s="28">
+      <c r="F136" s="28">
         <v>136</v>
       </c>
-      <c r="G100" s="28">
+      <c r="G136" s="28">
         <v>58</v>
       </c>
-      <c r="H100" s="28">
+      <c r="H136" s="28">
         <v>200</v>
       </c>
-      <c r="I100" s="20">
+      <c r="I136" s="20">
         <v>197</v>
       </c>
-      <c r="K100" s="23">
-        <f t="shared" si="48"/>
+      <c r="K136" s="23">
+        <f t="shared" si="52"/>
         <v>468</v>
       </c>
-      <c r="L100" s="23">
-        <f t="shared" si="49"/>
+      <c r="L136" s="23">
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
-      <c r="M100" s="23">
-        <f t="shared" si="50"/>
+      <c r="M136" s="23">
+        <f t="shared" si="54"/>
         <v>200</v>
       </c>
-      <c r="N100" s="23">
-        <f t="shared" si="51"/>
+      <c r="N136" s="23">
+        <f t="shared" si="55"/>
         <v>93.6</v>
       </c>
     </row>
-    <row r="101" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="30" t="s">
+    <row r="137" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D101" s="28">
-        <f>((D100/  'First Table'!I12  )*100)/D5</f>
+      <c r="D137" s="28">
+        <f>((D136/  'First Table'!I12  )*100)/D5</f>
         <v>52.353242048057965</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E137" s="28">
         <v>59</v>
       </c>
-      <c r="F101" s="28">
-        <f>((F100/    'First Table'!I14    )*100)/F5</f>
+      <c r="F137" s="28">
+        <f>((F136/    'First Table'!I14    )*100)/F5</f>
         <v>50.828877843523998</v>
       </c>
-      <c r="G101" s="31">
-        <f>((G100/  'First Table'!I15  )*100)/G5</f>
+      <c r="G137" s="31">
+        <f>((G136/  'First Table'!I15  )*100)/G5</f>
         <v>72.390680448186345</v>
       </c>
-      <c r="H101" s="28">
-        <f>((H100/    'First Table'!I16    )*100)/H5</f>
+      <c r="H137" s="28">
+        <f>((H136/    'First Table'!I16    )*100)/H5</f>
         <v>40.783190439641757</v>
       </c>
-      <c r="I101" s="20" t="e">
-        <f>((I100/   'First Table'!I7    )*100)/#REF!</f>
+      <c r="I137" s="20" t="e">
+        <f>((I136/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K101" s="23">
-        <f t="shared" si="48"/>
+      <c r="K137" s="23">
+        <f t="shared" si="52"/>
         <v>275.35599077941009</v>
       </c>
-      <c r="L101" s="23">
-        <f t="shared" si="49"/>
+      <c r="L137" s="23">
+        <f t="shared" si="53"/>
         <v>40.783190439641757</v>
       </c>
-      <c r="M101" s="23">
-        <f t="shared" si="50"/>
+      <c r="M137" s="23">
+        <f t="shared" si="54"/>
         <v>72.390680448186345</v>
       </c>
-      <c r="N101" s="23">
-        <f t="shared" si="51"/>
+      <c r="N137" s="23">
+        <f t="shared" si="55"/>
         <v>55.071198155882016</v>
       </c>
     </row>
-    <row r="102" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C102" s="35" t="s">
+    <row r="138" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C138" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="28">
+      <c r="D138" s="28">
         <v>16</v>
       </c>
-      <c r="E102" s="28">
+      <c r="E138" s="28">
         <v>63</v>
       </c>
-      <c r="F102" s="28">
+      <c r="F138" s="28">
         <v>134</v>
       </c>
-      <c r="G102" s="28">
+      <c r="G138" s="28">
         <v>56</v>
       </c>
-      <c r="H102" s="28">
+      <c r="H138" s="28">
         <v>196</v>
       </c>
-      <c r="I102" s="20">
+      <c r="I138" s="20">
         <v>197</v>
       </c>
-      <c r="K102" s="23">
-        <f t="shared" si="48"/>
+      <c r="K138" s="23">
+        <f t="shared" si="52"/>
         <v>465</v>
       </c>
-      <c r="L102" s="23">
-        <f t="shared" si="49"/>
+      <c r="L138" s="23">
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
-      <c r="M102" s="23">
-        <f t="shared" si="50"/>
+      <c r="M138" s="23">
+        <f t="shared" si="54"/>
         <v>196</v>
       </c>
-      <c r="N102" s="23">
-        <f t="shared" si="51"/>
+      <c r="N138" s="23">
+        <f t="shared" si="55"/>
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="30" t="s">
+    <row r="139" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="31">
-        <f>((D102/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D139" s="31">
+        <f>((D138/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E103" s="28">
+      <c r="E139" s="28">
         <v>59</v>
       </c>
-      <c r="F103" s="28">
-        <f>((F102/    'First Table'!I14    )*100)/F5</f>
+      <c r="F139" s="28">
+        <f>((F138/    'First Table'!I14    )*100)/F5</f>
         <v>50.08139434582511</v>
       </c>
-      <c r="G103" s="28">
-        <f>((G102/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G139" s="28">
+        <f>((G138/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H103" s="28">
-        <f>((H102/   'First Table'!I16    )*100)/H5</f>
+      <c r="H139" s="28">
+        <f>((H138/   'First Table'!I16    )*100)/H5</f>
         <v>39.967526630848923</v>
       </c>
-      <c r="I103" s="20" t="e">
-        <f>((I102/   'First Table'!I7    )*100)/#REF!</f>
+      <c r="I139" s="20" t="e">
+        <f>((I138/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K103" s="23">
-        <f t="shared" si="48"/>
+      <c r="K139" s="23">
+        <f t="shared" si="52"/>
         <v>283.37813050834177</v>
       </c>
-      <c r="L103" s="23">
-        <f t="shared" si="49"/>
+      <c r="L139" s="23">
+        <f t="shared" si="53"/>
         <v>39.967526630848923</v>
       </c>
-      <c r="M103" s="23">
-        <f t="shared" si="50"/>
+      <c r="M139" s="23">
+        <f t="shared" si="54"/>
         <v>69.894450087904062</v>
       </c>
-      <c r="N103" s="23">
-        <f t="shared" si="51"/>
+      <c r="N139" s="23">
+        <f t="shared" si="55"/>
         <v>56.675626101668357</v>
       </c>
     </row>
-    <row r="104" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C104" s="34" t="s">
+    <row r="140" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C140" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D104" s="31">
+      <c r="D140" s="31">
         <v>16</v>
       </c>
-      <c r="E104" s="28">
+      <c r="E140" s="28">
         <v>60</v>
       </c>
-      <c r="F104" s="28">
+      <c r="F140" s="28">
         <v>135</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G140" s="28">
         <v>56</v>
       </c>
-      <c r="H104" s="28">
+      <c r="H140" s="28">
         <v>193</v>
       </c>
-      <c r="I104" s="20">
+      <c r="I140" s="20">
         <v>194</v>
       </c>
-      <c r="K104" s="23">
-        <f t="shared" si="48"/>
+      <c r="K140" s="23">
+        <f t="shared" si="52"/>
         <v>460</v>
       </c>
-      <c r="L104" s="23">
-        <f t="shared" si="49"/>
+      <c r="L140" s="23">
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
-      <c r="M104" s="23">
-        <f t="shared" si="50"/>
+      <c r="M140" s="23">
+        <f t="shared" si="54"/>
         <v>193</v>
       </c>
-      <c r="N104" s="23">
-        <f t="shared" si="51"/>
+      <c r="N140" s="23">
+        <f t="shared" si="55"/>
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="30" t="s">
+    <row r="141" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="31">
-        <f>((D104/  'First Table'!I12  )*100)/D5</f>
+      <c r="D141" s="31">
+        <f>((D140/  'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E105" s="28">
-        <f>((E104/   'First Table'!I13   )*100)/E5</f>
+      <c r="E141" s="28">
+        <f>((E140/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F105" s="28">
-        <f>((F104/   'First Table'!I14    )*100)/F5</f>
+      <c r="F141" s="28">
+        <f>((F140/   'First Table'!I14    )*100)/F5</f>
         <v>50.455136094674558</v>
       </c>
-      <c r="G105" s="28">
-        <f>((G104/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G141" s="28">
+        <f>((G140/ 'First Table'!I15  )*100)/G5</f>
         <v>69.894450087904062</v>
       </c>
-      <c r="H105" s="28">
-        <f>((H104/    'First Table'!I16    )*100)/H5</f>
+      <c r="H141" s="28">
+        <f>((H140/    'First Table'!I16    )*100)/H5</f>
         <v>39.355778774254297</v>
       </c>
-      <c r="I105" s="20" t="e">
-        <f>((I104/   'First Table'!I7    )*100)/#REF!</f>
+      <c r="I141" s="20" t="e">
+        <f>((I140/   'First Table'!I7    )*100)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K105" s="23">
-        <f t="shared" si="48"/>
+      <c r="K141" s="23">
+        <f t="shared" si="52"/>
         <v>296.40532058818462</v>
       </c>
-      <c r="L105" s="23">
-        <f t="shared" si="49"/>
+      <c r="L141" s="23">
+        <f t="shared" si="53"/>
         <v>39.355778774254297</v>
       </c>
-      <c r="M105" s="23">
-        <f t="shared" si="50"/>
+      <c r="M141" s="23">
+        <f t="shared" si="54"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N105" s="23">
-        <f t="shared" si="51"/>
+      <c r="N141" s="23">
+        <f t="shared" si="55"/>
         <v>59.281064117636923</v>
       </c>
     </row>
-    <row r="106" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C106" s="32" t="s">
+    <row r="142" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C142" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D106" s="28">
+      <c r="D142" s="28">
         <v>14</v>
       </c>
-      <c r="E106" s="28">
+      <c r="E142" s="28">
         <v>63</v>
       </c>
-      <c r="F106" s="28">
+      <c r="F142" s="28">
         <v>130</v>
       </c>
-      <c r="G106" s="28">
+      <c r="G142" s="28">
         <v>56</v>
       </c>
-      <c r="H106" s="28">
+      <c r="H142" s="28">
         <v>186</v>
       </c>
-      <c r="I106" s="20">
+      <c r="I142" s="20">
         <v>179</v>
       </c>
-      <c r="K106" s="23">
-        <f t="shared" si="48"/>
+      <c r="K142" s="23">
+        <f t="shared" si="52"/>
         <v>449</v>
       </c>
-      <c r="L106" s="23">
-        <f t="shared" si="49"/>
+      <c r="L142" s="23">
+        <f t="shared" si="53"/>
         <v>14</v>
       </c>
-      <c r="M106" s="23">
-        <f t="shared" si="50"/>
-        <v>186</v>
-      </c>
-      <c r="N106" s="23">
-        <f t="shared" si="51"/>
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="107" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D107" s="28">
-        <f>((D106/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
-      </c>
-      <c r="E107" s="28">
-        <f>((E106/    'First Table'!I13   )*100)/E5</f>
-        <v>75.87845599696746</v>
-      </c>
-      <c r="F107" s="28">
-        <f>((F106/   'First Table'!I14    )*100)/F5</f>
-        <v>48.58642735042735</v>
-      </c>
-      <c r="G107" s="28">
-        <f>((G106/  'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
-      </c>
-      <c r="H107" s="28">
-        <f>((H106/   'First Table'!I16    )*100)/H5</f>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="I107" s="20" t="e">
-        <f>((I106/   'First Table'!I16    )*100)/I4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K107" s="23">
-        <f t="shared" si="48"/>
-        <v>288.66811505745892</v>
-      </c>
-      <c r="L107" s="23">
-        <f t="shared" si="49"/>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="M107" s="23">
-        <f t="shared" si="50"/>
-        <v>75.87845599696746</v>
-      </c>
-      <c r="N107" s="23">
-        <f t="shared" si="51"/>
-        <v>57.733623011491787</v>
-      </c>
-    </row>
-    <row r="108" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C108" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D108" s="28">
-        <v>11</v>
-      </c>
-      <c r="E108" s="28">
-        <v>66</v>
-      </c>
-      <c r="F108" s="28">
-        <v>129</v>
-      </c>
-      <c r="G108" s="28">
-        <v>51</v>
-      </c>
-      <c r="H108" s="28">
-        <v>191</v>
-      </c>
-      <c r="I108" s="20">
-        <v>179</v>
-      </c>
-      <c r="K108" s="23">
-        <f t="shared" ref="K108:K119" si="52">SUM(D108:H108)</f>
-        <v>448</v>
-      </c>
-      <c r="L108" s="23">
-        <f t="shared" ref="L108:L119" si="53">MIN(D108:H108)</f>
-        <v>11</v>
-      </c>
-      <c r="M108" s="23">
-        <f t="shared" ref="M108:M119" si="54">MAX(D108:H108)</f>
-        <v>191</v>
-      </c>
-      <c r="N108" s="23">
-        <f t="shared" ref="N108:N119" si="55">K108/5</f>
-        <v>89.6</v>
-      </c>
-    </row>
-    <row r="109" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D109" s="28">
-        <f>((D108/'First Table'!I12  )*100)/D5</f>
-        <v>44.298897117587515</v>
-      </c>
-      <c r="E109" s="28">
-        <f>((E108/   'First Table'!I13   )*100)/E5</f>
-        <v>79.491715806346861</v>
-      </c>
-      <c r="F109" s="28">
-        <f>((F108/    'First Table'!I14    )*100)/F5</f>
-        <v>48.21268560157791</v>
-      </c>
-      <c r="G109" s="28">
-        <f>((G108/  'First Table'!I15  )*100)/G5</f>
-        <v>63.653874187198333</v>
-      </c>
-      <c r="H109" s="28">
-        <f>((H108/   'First Table'!I16    )*100)/H5</f>
-        <v>38.947946869857873</v>
-      </c>
-      <c r="I109" s="20" t="e">
-        <f>((I108/   'First Table'!I18    )*100)/I6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K109" s="23">
-        <f t="shared" si="52"/>
-        <v>274.60511958256848</v>
-      </c>
-      <c r="L109" s="23">
-        <f t="shared" si="53"/>
-        <v>38.947946869857873</v>
-      </c>
-      <c r="M109" s="23">
-        <f t="shared" si="54"/>
-        <v>79.491715806346861</v>
-      </c>
-      <c r="N109" s="23">
-        <f t="shared" si="55"/>
-        <v>54.921023916513697</v>
-      </c>
-    </row>
-    <row r="110" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C110" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="28">
-        <v>10</v>
-      </c>
-      <c r="E110" s="28">
-        <v>62</v>
-      </c>
-      <c r="F110" s="28">
-        <v>128</v>
-      </c>
-      <c r="G110" s="28">
-        <v>50</v>
-      </c>
-      <c r="H110" s="28">
-        <v>186</v>
-      </c>
-      <c r="I110" s="20">
-        <v>173</v>
-      </c>
-      <c r="K110" s="23">
-        <f t="shared" si="52"/>
-        <v>436</v>
-      </c>
-      <c r="L110" s="23">
-        <f t="shared" si="53"/>
-        <v>10</v>
-      </c>
-      <c r="M110" s="23">
+      <c r="M142" s="23">
         <f t="shared" si="54"/>
         <v>186</v>
       </c>
-      <c r="N110" s="23">
+      <c r="N142" s="23">
         <f t="shared" si="55"/>
-        <v>87.2</v>
-      </c>
-    </row>
-    <row r="111" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D111" s="28">
-        <f>((D110/ 'First Table'!I12  )*100)/D5</f>
-        <v>40.271724652352283</v>
-      </c>
-      <c r="E111" s="28">
-        <f>((E110/  'First Table'!I13   )*100)/E5</f>
-        <v>74.67403606050766</v>
-      </c>
-      <c r="F111" s="28">
-        <f>((F110/    'First Table'!I14    )*100)/F5</f>
-        <v>47.838943852728463</v>
-      </c>
-      <c r="G111" s="28">
-        <f>((G110/ 'First Table'!I15  )*100)/G5</f>
-        <v>62.405759007057199</v>
-      </c>
-      <c r="H111" s="28">
-        <f>((H110/   'First Table'!I16    )*100)/H5</f>
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="143" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D143" s="28">
+        <f>((D142/ 'First Table'!I12  )*100)/D5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E143" s="28">
+        <f>((E142/    'First Table'!I13   )*100)/E5</f>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="F143" s="28">
+        <f>((F142/   'First Table'!I14    )*100)/F5</f>
+        <v>48.58642735042735</v>
+      </c>
+      <c r="G143" s="28">
+        <f>((G142/  'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
+      </c>
+      <c r="H143" s="28">
+        <f>((H142/   'First Table'!I16    )*100)/H5</f>
         <v>37.92836710886683</v>
       </c>
-      <c r="I111" s="20" t="e">
-        <f>((I110/   'First Table'!I18    )*100)/I6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K111" s="23">
+      <c r="I143" s="20" t="e">
+        <f>((I142/   'First Table'!I16    )*100)/I4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K143" s="23">
         <f t="shared" si="52"/>
-        <v>263.11883068151246</v>
-      </c>
-      <c r="L111" s="23">
+        <v>288.66811505745892</v>
+      </c>
+      <c r="L143" s="23">
         <f t="shared" si="53"/>
         <v>37.92836710886683</v>
       </c>
-      <c r="M111" s="23">
-        <f t="shared" si="54"/>
-        <v>74.67403606050766</v>
-      </c>
-      <c r="N111" s="23">
-        <f t="shared" si="55"/>
-        <v>52.623766136302493</v>
-      </c>
-    </row>
-    <row r="112" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C112" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="28">
-        <v>14</v>
-      </c>
-      <c r="E112" s="28">
-        <v>63</v>
-      </c>
-      <c r="F112" s="28">
-        <v>136</v>
-      </c>
-      <c r="G112" s="28">
-        <v>56</v>
-      </c>
-      <c r="H112" s="28">
-        <v>186</v>
-      </c>
-      <c r="I112" s="20">
-        <v>197</v>
-      </c>
-      <c r="K112" s="23">
-        <f t="shared" si="52"/>
-        <v>455</v>
-      </c>
-      <c r="L112" s="23">
-        <f t="shared" si="53"/>
-        <v>14</v>
-      </c>
-      <c r="M112" s="23">
-        <f t="shared" si="54"/>
-        <v>186</v>
-      </c>
-      <c r="N112" s="23">
-        <f t="shared" si="55"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="113" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D113" s="28">
-        <f>((D112/ 'First Table'!I12  )*100)/D5</f>
-        <v>56.380414513293204</v>
-      </c>
-      <c r="E113" s="28">
-        <f>((E112/  'First Table'!I13   )*100)/E5</f>
-        <v>75.87845599696746</v>
-      </c>
-      <c r="F113" s="28">
-        <f>((F112/   'First Table'!I14    )*100)/F5</f>
-        <v>50.828877843523998</v>
-      </c>
-      <c r="G113" s="28">
-        <f>((G112/  'First Table'!I15  )*100)/G5</f>
-        <v>69.894450087904062</v>
-      </c>
-      <c r="H113" s="28">
-        <f>((H112/   'First Table'!I16    )*100)/H5</f>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="I113" s="20" t="e">
-        <f>((I112/   'First Table'!I18    )*100)/I6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K113" s="23">
-        <f t="shared" si="52"/>
-        <v>290.91056555055553</v>
-      </c>
-      <c r="L113" s="23">
-        <f t="shared" si="53"/>
-        <v>37.92836710886683</v>
-      </c>
-      <c r="M113" s="23">
+      <c r="M143" s="23">
         <f t="shared" si="54"/>
         <v>75.87845599696746</v>
       </c>
-      <c r="N113" s="23">
+      <c r="N143" s="23">
         <f t="shared" si="55"/>
+        <v>57.733623011491787</v>
+      </c>
+    </row>
+    <row r="144" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C144" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" s="28">
+        <v>11</v>
+      </c>
+      <c r="E144" s="28">
+        <v>66</v>
+      </c>
+      <c r="F144" s="28">
+        <v>129</v>
+      </c>
+      <c r="G144" s="28">
+        <v>51</v>
+      </c>
+      <c r="H144" s="28">
+        <v>191</v>
+      </c>
+      <c r="I144" s="20">
+        <v>179</v>
+      </c>
+      <c r="K144" s="23">
+        <f t="shared" ref="K144:K155" si="56">SUM(D144:H144)</f>
+        <v>448</v>
+      </c>
+      <c r="L144" s="23">
+        <f t="shared" ref="L144:L155" si="57">MIN(D144:H144)</f>
+        <v>11</v>
+      </c>
+      <c r="M144" s="23">
+        <f t="shared" ref="M144:M155" si="58">MAX(D144:H144)</f>
+        <v>191</v>
+      </c>
+      <c r="N144" s="23">
+        <f t="shared" ref="N144:N155" si="59">K144/5</f>
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="145" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D145" s="28">
+        <f>((D144/'First Table'!I12  )*100)/D5</f>
+        <v>44.298897117587515</v>
+      </c>
+      <c r="E145" s="28">
+        <f>((E144/   'First Table'!I13   )*100)/E5</f>
+        <v>79.491715806346861</v>
+      </c>
+      <c r="F145" s="28">
+        <f>((F144/    'First Table'!I14    )*100)/F5</f>
+        <v>48.21268560157791</v>
+      </c>
+      <c r="G145" s="28">
+        <f>((G144/  'First Table'!I15  )*100)/G5</f>
+        <v>63.653874187198333</v>
+      </c>
+      <c r="H145" s="28">
+        <f>((H144/   'First Table'!I16    )*100)/H5</f>
+        <v>38.947946869857873</v>
+      </c>
+      <c r="I145" s="20" t="e">
+        <f>((I144/   'First Table'!I18    )*100)/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K145" s="23">
+        <f t="shared" si="56"/>
+        <v>274.60511958256848</v>
+      </c>
+      <c r="L145" s="23">
+        <f t="shared" si="57"/>
+        <v>38.947946869857873</v>
+      </c>
+      <c r="M145" s="23">
+        <f t="shared" si="58"/>
+        <v>79.491715806346861</v>
+      </c>
+      <c r="N145" s="23">
+        <f t="shared" si="59"/>
+        <v>54.921023916513697</v>
+      </c>
+    </row>
+    <row r="146" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C146" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="28">
+        <v>10</v>
+      </c>
+      <c r="E146" s="28">
+        <v>62</v>
+      </c>
+      <c r="F146" s="28">
+        <v>128</v>
+      </c>
+      <c r="G146" s="28">
+        <v>50</v>
+      </c>
+      <c r="H146" s="28">
+        <v>186</v>
+      </c>
+      <c r="I146" s="20">
+        <v>173</v>
+      </c>
+      <c r="K146" s="23">
+        <f t="shared" si="56"/>
+        <v>436</v>
+      </c>
+      <c r="L146" s="23">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="M146" s="23">
+        <f t="shared" si="58"/>
+        <v>186</v>
+      </c>
+      <c r="N146" s="23">
+        <f t="shared" si="59"/>
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="147" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D147" s="28">
+        <f>((D146/ 'First Table'!I12  )*100)/D5</f>
+        <v>40.271724652352283</v>
+      </c>
+      <c r="E147" s="28">
+        <f>((E146/  'First Table'!I13   )*100)/E5</f>
+        <v>74.67403606050766</v>
+      </c>
+      <c r="F147" s="28">
+        <f>((F146/    'First Table'!I14    )*100)/F5</f>
+        <v>47.838943852728463</v>
+      </c>
+      <c r="G147" s="28">
+        <f>((G146/ 'First Table'!I15  )*100)/G5</f>
+        <v>62.405759007057199</v>
+      </c>
+      <c r="H147" s="28">
+        <f>((H146/   'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="I147" s="20" t="e">
+        <f>((I146/   'First Table'!I18    )*100)/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K147" s="23">
+        <f t="shared" si="56"/>
+        <v>263.11883068151246</v>
+      </c>
+      <c r="L147" s="23">
+        <f t="shared" si="57"/>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="M147" s="23">
+        <f t="shared" si="58"/>
+        <v>74.67403606050766</v>
+      </c>
+      <c r="N147" s="23">
+        <f t="shared" si="59"/>
+        <v>52.623766136302493</v>
+      </c>
+    </row>
+    <row r="148" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C148" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="28">
+        <v>14</v>
+      </c>
+      <c r="E148" s="28">
+        <v>63</v>
+      </c>
+      <c r="F148" s="28">
+        <v>136</v>
+      </c>
+      <c r="G148" s="28">
+        <v>56</v>
+      </c>
+      <c r="H148" s="28">
+        <v>186</v>
+      </c>
+      <c r="I148" s="20">
+        <v>197</v>
+      </c>
+      <c r="K148" s="23">
+        <f t="shared" si="56"/>
+        <v>455</v>
+      </c>
+      <c r="L148" s="23">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="M148" s="23">
+        <f t="shared" si="58"/>
+        <v>186</v>
+      </c>
+      <c r="N148" s="23">
+        <f t="shared" si="59"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="28">
+        <f>((D148/ 'First Table'!I12  )*100)/D5</f>
+        <v>56.380414513293204</v>
+      </c>
+      <c r="E149" s="28">
+        <f>((E148/  'First Table'!I13   )*100)/E5</f>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="F149" s="28">
+        <f>((F148/   'First Table'!I14    )*100)/F5</f>
+        <v>50.828877843523998</v>
+      </c>
+      <c r="G149" s="28">
+        <f>((G148/  'First Table'!I15  )*100)/G5</f>
+        <v>69.894450087904062</v>
+      </c>
+      <c r="H149" s="28">
+        <f>((H148/   'First Table'!I16    )*100)/H5</f>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="I149" s="20" t="e">
+        <f>((I148/   'First Table'!I18    )*100)/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K149" s="23">
+        <f t="shared" si="56"/>
+        <v>290.91056555055553</v>
+      </c>
+      <c r="L149" s="23">
+        <f t="shared" si="57"/>
+        <v>37.92836710886683</v>
+      </c>
+      <c r="M149" s="23">
+        <f t="shared" si="58"/>
+        <v>75.87845599696746</v>
+      </c>
+      <c r="N149" s="23">
+        <f t="shared" si="59"/>
         <v>58.182113110111104</v>
       </c>
     </row>
-    <row r="114" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C114" s="35" t="s">
+    <row r="150" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C150" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D114" s="28">
+      <c r="D150" s="28">
         <v>12</v>
       </c>
-      <c r="E114" s="28">
+      <c r="E150" s="28">
         <v>63</v>
       </c>
-      <c r="F114" s="28">
+      <c r="F150" s="28">
         <v>134</v>
       </c>
-      <c r="G114" s="28">
+      <c r="G150" s="28">
         <v>55</v>
       </c>
-      <c r="H114" s="28">
+      <c r="H150" s="28">
         <v>194</v>
       </c>
-      <c r="I114" s="20">
+      <c r="I150" s="20">
         <v>197</v>
       </c>
-      <c r="K114" s="23">
-        <f t="shared" si="52"/>
+      <c r="K150" s="23">
+        <f t="shared" si="56"/>
         <v>458</v>
       </c>
-      <c r="L114" s="23">
-        <f t="shared" si="53"/>
+      <c r="L150" s="23">
+        <f t="shared" si="57"/>
         <v>12</v>
       </c>
-      <c r="M114" s="23">
-        <f t="shared" si="54"/>
+      <c r="M150" s="23">
+        <f t="shared" si="58"/>
         <v>194</v>
       </c>
-      <c r="N114" s="23">
-        <f t="shared" si="55"/>
+      <c r="N150" s="23">
+        <f t="shared" si="59"/>
         <v>91.6</v>
       </c>
     </row>
-    <row r="115" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="32" t="s">
+    <row r="151" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D115" s="28">
-        <f>((D114/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D151" s="28">
+        <f>((D150/ 'First Table'!I12  )*100)/D5</f>
         <v>48.32606958282274</v>
       </c>
-      <c r="E115" s="28">
-        <f>((E114/  'First Table'!I13   )*100)/E5</f>
+      <c r="E151" s="28">
+        <f>((E150/  'First Table'!I13   )*100)/E5</f>
         <v>75.87845599696746</v>
       </c>
-      <c r="F115" s="28">
-        <f>((F114/    'First Table'!I14    )*100)/F5</f>
+      <c r="F151" s="28">
+        <f>((F150/    'First Table'!I14    )*100)/F5</f>
         <v>50.08139434582511</v>
       </c>
-      <c r="G115" s="28">
-        <f>((G114/  'First Table'!I15  )*100)/G5</f>
+      <c r="G151" s="28">
+        <f>((G150/  'First Table'!I15  )*100)/G5</f>
         <v>68.646334907762906</v>
       </c>
-      <c r="H115" s="28">
-        <f>((H114/    'First Table'!I16    )*100)/H5</f>
+      <c r="H151" s="28">
+        <f>((H150/    'First Table'!I16    )*100)/H5</f>
         <v>39.559694726452499</v>
       </c>
-      <c r="I115" s="20" t="e">
-        <f>((I114/   'First Table'!I18    )*100)/I6</f>
+      <c r="I151" s="20" t="e">
+        <f>((I150/   'First Table'!I18    )*100)/I6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K115" s="23">
-        <f t="shared" si="52"/>
+      <c r="K151" s="23">
+        <f t="shared" si="56"/>
         <v>282.49194955983069</v>
       </c>
-      <c r="L115" s="23">
-        <f t="shared" si="53"/>
+      <c r="L151" s="23">
+        <f t="shared" si="57"/>
         <v>39.559694726452499</v>
       </c>
-      <c r="M115" s="23">
-        <f t="shared" si="54"/>
+      <c r="M151" s="23">
+        <f t="shared" si="58"/>
         <v>75.87845599696746</v>
       </c>
-      <c r="N115" s="23">
-        <f t="shared" si="55"/>
+      <c r="N151" s="23">
+        <f t="shared" si="59"/>
         <v>56.498389911966136</v>
       </c>
     </row>
-    <row r="116" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C116" s="35" t="s">
+    <row r="152" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C152" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D116" s="28">
+      <c r="D152" s="28">
         <v>11</v>
       </c>
-      <c r="E116" s="28">
+      <c r="E152" s="28">
         <v>60</v>
       </c>
-      <c r="F116" s="28">
+      <c r="F152" s="28">
         <v>133</v>
       </c>
-      <c r="G116" s="28">
+      <c r="G152" s="28">
         <v>52</v>
       </c>
-      <c r="H116" s="28">
+      <c r="H152" s="28">
         <v>195</v>
       </c>
-      <c r="I116" s="20">
+      <c r="I152" s="20">
         <v>194</v>
       </c>
-      <c r="K116" s="23">
-        <f t="shared" si="52"/>
+      <c r="K152" s="23">
+        <f t="shared" si="56"/>
         <v>451</v>
       </c>
-      <c r="L116" s="23">
-        <f t="shared" si="53"/>
+      <c r="L152" s="23">
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
-      <c r="M116" s="23">
-        <f t="shared" si="54"/>
+      <c r="M152" s="23">
+        <f t="shared" si="58"/>
         <v>195</v>
       </c>
-      <c r="N116" s="23">
-        <f t="shared" si="55"/>
+      <c r="N152" s="23">
+        <f t="shared" si="59"/>
         <v>90.2</v>
       </c>
     </row>
-    <row r="117" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="32" t="s">
+    <row r="153" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D117" s="28">
-        <f>((D116/'First Table'!I12  )*100)/D5</f>
+      <c r="D153" s="28">
+        <f>((D152/'First Table'!I12  )*100)/D5</f>
         <v>44.298897117587515</v>
       </c>
-      <c r="E117" s="28">
-        <f>((E116/   'First Table'!I13   )*100)/E5</f>
+      <c r="E153" s="28">
+        <f>((E152/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F117" s="28">
-        <f>((F116/    'First Table'!I14    )*100)/F5</f>
+      <c r="F153" s="28">
+        <f>((F152/    'First Table'!I14    )*100)/F5</f>
         <v>49.707652596975677</v>
       </c>
-      <c r="G117" s="28">
-        <f>((G116/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G153" s="28">
+        <f>((G152/ 'First Table'!I15  )*100)/G5</f>
         <v>64.901989367339482</v>
       </c>
-      <c r="H117" s="28">
-        <f>((H116/    'First Table'!I16    )*100)/H5</f>
+      <c r="H153" s="28">
+        <f>((H152/    'First Table'!I16    )*100)/H5</f>
         <v>39.763610678650707</v>
       </c>
-      <c r="I117" s="20" t="e">
-        <f>((I116/   'First Table'!I18    )*100)/I6</f>
+      <c r="I153" s="20" t="e">
+        <f>((I152/   'First Table'!I18    )*100)/I6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K117" s="23">
-        <f t="shared" si="52"/>
+      <c r="K153" s="23">
+        <f t="shared" si="56"/>
         <v>270.93734594814146</v>
       </c>
-      <c r="L117" s="23">
-        <f t="shared" si="53"/>
+      <c r="L153" s="23">
+        <f t="shared" si="57"/>
         <v>39.763610678650707</v>
       </c>
-      <c r="M117" s="23">
-        <f t="shared" si="54"/>
+      <c r="M153" s="23">
+        <f t="shared" si="58"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N117" s="23">
-        <f t="shared" si="55"/>
+      <c r="N153" s="23">
+        <f t="shared" si="59"/>
         <v>54.187469189628288</v>
       </c>
     </row>
-    <row r="118" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C118" s="32" t="s">
+    <row r="154" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C154" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D118" s="28">
+      <c r="D154" s="28">
         <v>11</v>
       </c>
-      <c r="E118" s="28">
+      <c r="E154" s="28">
         <v>64</v>
       </c>
-      <c r="F118" s="28">
+      <c r="F154" s="28">
         <v>129</v>
       </c>
-      <c r="G118" s="28">
+      <c r="G154" s="28">
         <v>49</v>
       </c>
-      <c r="H118" s="28">
+      <c r="H154" s="28">
         <v>186</v>
       </c>
-      <c r="I118" s="20">
+      <c r="I154" s="20">
         <v>179</v>
       </c>
-      <c r="K118" s="23">
-        <f t="shared" si="52"/>
+      <c r="K154" s="23">
+        <f t="shared" si="56"/>
         <v>439</v>
       </c>
-      <c r="L118" s="23">
-        <f t="shared" si="53"/>
+      <c r="L154" s="23">
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
-      <c r="M118" s="23">
-        <f t="shared" si="54"/>
+      <c r="M154" s="23">
+        <f t="shared" si="58"/>
         <v>186</v>
       </c>
-      <c r="N118" s="23">
-        <f t="shared" si="55"/>
+      <c r="N154" s="23">
+        <f t="shared" si="59"/>
         <v>87.8</v>
       </c>
     </row>
-    <row r="119" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="32" t="s">
+    <row r="155" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D119" s="28">
-        <f>((D118/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D155" s="28">
+        <f>((D154/ 'First Table'!I12  )*100)/D5</f>
         <v>44.298897117587515</v>
       </c>
-      <c r="E119" s="28">
-        <f>((E118/   'First Table'!I13   )*100)/E5</f>
+      <c r="E155" s="28">
+        <f>((E154/   'First Table'!I13   )*100)/E5</f>
         <v>77.082875933427275</v>
       </c>
-      <c r="F119" s="28">
-        <f>((F118/   'First Table'!I14    )*100)/F5</f>
+      <c r="F155" s="28">
+        <f>((F154/   'First Table'!I14    )*100)/F5</f>
         <v>48.21268560157791</v>
       </c>
-      <c r="G119" s="28">
-        <f>((G118/  'First Table'!I15  )*100)/G5</f>
+      <c r="G155" s="28">
+        <f>((G154/  'First Table'!I15  )*100)/G5</f>
         <v>61.157643826916051</v>
       </c>
-      <c r="H119" s="28">
-        <f>((H118/  'First Table'!I16    )*100)/H5</f>
+      <c r="H155" s="28">
+        <f>((H154/  'First Table'!I16    )*100)/H5</f>
         <v>37.92836710886683</v>
       </c>
-      <c r="I119" s="20" t="e">
-        <f>((I118/   'First Table'!I27    )*100)/I27</f>
+      <c r="I155" s="20" t="e">
+        <f>((I154/   'First Table'!I27    )*100)/I27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K119" s="23">
-        <f t="shared" si="52"/>
+      <c r="K155" s="23">
+        <f t="shared" si="56"/>
         <v>268.68046958837556</v>
       </c>
-      <c r="L119" s="23">
-        <f t="shared" si="53"/>
+      <c r="L155" s="23">
+        <f t="shared" si="57"/>
         <v>37.92836710886683</v>
       </c>
-      <c r="M119" s="23">
-        <f t="shared" si="54"/>
+      <c r="M155" s="23">
+        <f t="shared" si="58"/>
         <v>77.082875933427275</v>
       </c>
-      <c r="N119" s="23">
-        <f t="shared" si="55"/>
+      <c r="N155" s="23">
+        <f t="shared" si="59"/>
         <v>53.736093917675113</v>
       </c>
     </row>
-    <row r="120" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C120" s="35" t="s">
+    <row r="156" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C156" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D120" s="28">
+      <c r="D156" s="28">
         <v>14</v>
       </c>
-      <c r="E120" s="28">
+      <c r="E156" s="28">
         <v>61</v>
       </c>
-      <c r="F120" s="28">
+      <c r="F156" s="28">
         <v>125</v>
       </c>
-      <c r="G120" s="28">
+      <c r="G156" s="28">
         <v>48</v>
       </c>
-      <c r="H120" s="28">
+      <c r="H156" s="28">
         <v>186</v>
       </c>
-      <c r="I120" s="20">
+      <c r="I156" s="20">
         <v>179</v>
       </c>
-      <c r="K120" s="23">
-        <f t="shared" ref="K120:K129" si="56">SUM(D120:H120)</f>
+      <c r="K156" s="23">
+        <f t="shared" ref="K156:K165" si="60">SUM(D156:H156)</f>
         <v>434</v>
       </c>
-      <c r="L120" s="23">
+      <c r="L156" s="23">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="M120" s="23">
+      <c r="M156" s="23">
         <f t="shared" si="15"/>
         <v>186</v>
       </c>
-      <c r="N120" s="23">
+      <c r="N156" s="23">
         <f t="shared" si="1"/>
         <v>86.8</v>
       </c>
     </row>
-    <row r="121" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="32" t="s">
+    <row r="157" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D121" s="28">
-        <f>((D120/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D157" s="28">
+        <f>((D156/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E121" s="28">
-        <f>((E120/   'First Table'!I13   )*100)/E5</f>
+      <c r="E157" s="28">
+        <f>((E156/   'First Table'!I13   )*100)/E5</f>
         <v>73.46961612404786</v>
       </c>
-      <c r="F121" s="28">
-        <f>((F120/   'First Table'!I14    )*100)/F5</f>
+      <c r="F157" s="28">
+        <f>((F156/   'First Table'!I14    )*100)/F5</f>
         <v>46.717718606180135</v>
       </c>
-      <c r="G121" s="28">
-        <f>((G120/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G157" s="28">
+        <f>((G156/ 'First Table'!I15  )*100)/G5</f>
         <v>59.909528646774909</v>
       </c>
-      <c r="H121" s="28">
-        <f>((H120/   'First Table'!I16    )*100)/H5</f>
+      <c r="H157" s="28">
+        <f>((H156/   'First Table'!I16    )*100)/H5</f>
         <v>37.92836710886683</v>
       </c>
-      <c r="I121" s="20" t="e">
-        <f>((I120/   'First Table'!I29    )*100)/I29</f>
+      <c r="I157" s="20" t="e">
+        <f>((I156/   'First Table'!I29    )*100)/I29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K121" s="23">
-        <f t="shared" si="56"/>
+      <c r="K157" s="23">
+        <f t="shared" si="60"/>
         <v>274.40564499916292</v>
       </c>
-      <c r="L121" s="23">
+      <c r="L157" s="23">
         <f t="shared" si="14"/>
         <v>37.92836710886683</v>
       </c>
-      <c r="M121" s="23">
+      <c r="M157" s="23">
         <f t="shared" si="15"/>
         <v>73.46961612404786</v>
       </c>
-      <c r="N121" s="23">
+      <c r="N157" s="23">
         <f t="shared" si="1"/>
         <v>54.881128999832583</v>
       </c>
     </row>
-    <row r="122" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C122" s="35" t="s">
+    <row r="158" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C158" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D122" s="28">
+      <c r="D158" s="28">
         <v>14</v>
       </c>
-      <c r="E122" s="28">
+      <c r="E158" s="28">
         <v>60</v>
       </c>
-      <c r="F122" s="28">
+      <c r="F158" s="28">
         <v>122</v>
       </c>
-      <c r="G122" s="28">
+      <c r="G158" s="28">
         <v>50</v>
       </c>
-      <c r="H122" s="28">
+      <c r="H158" s="28">
         <v>181</v>
       </c>
-      <c r="I122" s="20">
+      <c r="I158" s="20">
         <v>173</v>
       </c>
-      <c r="K122" s="23">
-        <f t="shared" si="56"/>
+      <c r="K158" s="23">
+        <f t="shared" si="60"/>
         <v>427</v>
       </c>
-      <c r="L122" s="23">
+      <c r="L158" s="23">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="M122" s="23">
+      <c r="M158" s="23">
         <f t="shared" si="15"/>
         <v>181</v>
       </c>
-      <c r="N122" s="23">
+      <c r="N158" s="23">
         <f t="shared" si="1"/>
         <v>85.4</v>
       </c>
     </row>
-    <row r="123" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="32" t="s">
+    <row r="159" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D123" s="28">
-        <f>((D122/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D159" s="28">
+        <f>((D158/ 'First Table'!I12  )*100)/D5</f>
         <v>56.380414513293204</v>
       </c>
-      <c r="E123" s="28">
-        <f>((E122/   'First Table'!I13   )*100)/E5</f>
+      <c r="E159" s="28">
+        <f>((E158/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F123" s="28">
-        <f>((F122/   'First Table'!I14    )*100)/F5</f>
+      <c r="F159" s="28">
+        <f>((F158/   'First Table'!I14    )*100)/F5</f>
         <v>45.596493359631815</v>
       </c>
-      <c r="G123" s="28">
-        <f>((G122/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G159" s="28">
+        <f>((G158/ 'First Table'!I15  )*100)/G5</f>
         <v>62.405759007057199</v>
       </c>
-      <c r="H123" s="28">
-        <f>((H122/   'First Table'!I16    )*100)/H5</f>
+      <c r="H159" s="28">
+        <f>((H158/   'First Table'!I16    )*100)/H5</f>
         <v>36.908787347875787</v>
       </c>
-      <c r="I123" s="20" t="e">
-        <f>((I122/   'First Table'!I29    )*100)/I29</f>
+      <c r="I159" s="20" t="e">
+        <f>((I158/   'First Table'!I29    )*100)/I29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K123" s="23">
-        <f t="shared" si="56"/>
+      <c r="K159" s="23">
+        <f t="shared" si="60"/>
         <v>273.55665041544603</v>
       </c>
-      <c r="L123" s="23">
+      <c r="L159" s="23">
         <f t="shared" si="14"/>
         <v>36.908787347875787</v>
       </c>
-      <c r="M123" s="23">
+      <c r="M159" s="23">
         <f t="shared" si="15"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N123" s="23">
+      <c r="N159" s="23">
         <f t="shared" si="1"/>
         <v>54.711330083089209</v>
       </c>
     </row>
-    <row r="124" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C124" s="35" t="s">
+    <row r="160" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C160" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D124" s="28">
+      <c r="D160" s="28">
         <v>15</v>
       </c>
-      <c r="E124" s="28">
+      <c r="E160" s="28">
         <v>63</v>
       </c>
-      <c r="F124" s="28">
+      <c r="F160" s="28">
         <v>130</v>
       </c>
-      <c r="G124" s="28">
+      <c r="G160" s="28">
         <v>57</v>
       </c>
-      <c r="H124" s="28">
+      <c r="H160" s="28">
         <v>196</v>
       </c>
-      <c r="I124" s="20">
+      <c r="I160" s="20">
         <v>197</v>
       </c>
-      <c r="K124" s="23">
-        <f t="shared" si="56"/>
+      <c r="K160" s="23">
+        <f t="shared" si="60"/>
         <v>461</v>
       </c>
-      <c r="L124" s="23">
+      <c r="L160" s="23">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="M124" s="23">
+      <c r="M160" s="23">
         <f t="shared" si="15"/>
         <v>196</v>
       </c>
-      <c r="N124" s="23">
+      <c r="N160" s="23">
         <f t="shared" si="1"/>
         <v>92.2</v>
       </c>
     </row>
-    <row r="125" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="32" t="s">
+    <row r="161" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D125" s="28">
-        <f>((D124/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D161" s="28">
+        <f>((D160/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E125" s="28">
-        <f>((E124/   'First Table'!I13   )*100)/E5</f>
+      <c r="E161" s="28">
+        <f>((E160/   'First Table'!I13   )*100)/E5</f>
         <v>75.87845599696746</v>
       </c>
-      <c r="F125" s="28">
-        <f>((F124/   'First Table'!I14    )*100)/F5</f>
+      <c r="F161" s="28">
+        <f>((F160/   'First Table'!I14    )*100)/F5</f>
         <v>48.58642735042735</v>
       </c>
-      <c r="G125" s="28">
-        <f>((G124/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G161" s="28">
+        <f>((G160/ 'First Table'!I15  )*100)/G5</f>
         <v>71.142565268045203</v>
       </c>
-      <c r="H125" s="28">
-        <f>((H124/   'First Table'!I16    )*100)/H5</f>
+      <c r="H161" s="28">
+        <f>((H160/   'First Table'!I16    )*100)/H5</f>
         <v>39.967526630848923</v>
       </c>
-      <c r="I125" s="20" t="e">
-        <f>((I124/   'First Table'!I29    )*100)/I29</f>
+      <c r="I161" s="20" t="e">
+        <f>((I160/   'First Table'!I29    )*100)/I29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K125" s="23">
-        <f t="shared" si="56"/>
+      <c r="K161" s="23">
+        <f t="shared" si="60"/>
         <v>295.98256222481734</v>
       </c>
-      <c r="L125" s="23">
+      <c r="L161" s="23">
         <f t="shared" si="14"/>
         <v>39.967526630848923</v>
       </c>
-      <c r="M125" s="23">
+      <c r="M161" s="23">
         <f t="shared" si="15"/>
         <v>75.87845599696746</v>
       </c>
-      <c r="N125" s="23">
+      <c r="N161" s="23">
         <f t="shared" si="1"/>
         <v>59.196512444963467</v>
       </c>
     </row>
-    <row r="126" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C126" s="35" t="s">
+    <row r="162" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C162" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D126" s="28">
+      <c r="D162" s="28">
         <v>15</v>
       </c>
-      <c r="E126" s="28">
+      <c r="E162" s="28">
         <v>60</v>
       </c>
-      <c r="F126" s="28">
+      <c r="F162" s="28">
         <v>133</v>
       </c>
-      <c r="G126" s="28">
+      <c r="G162" s="28">
         <v>53</v>
       </c>
-      <c r="H126" s="28">
+      <c r="H162" s="28">
         <v>191</v>
       </c>
-      <c r="I126" s="20">
+      <c r="I162" s="20">
         <v>197</v>
       </c>
-      <c r="K126" s="23">
-        <f t="shared" si="56"/>
+      <c r="K162" s="23">
+        <f t="shared" si="60"/>
         <v>452</v>
       </c>
-      <c r="L126" s="23">
+      <c r="L162" s="23">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="M126" s="23">
+      <c r="M162" s="23">
         <f t="shared" si="15"/>
         <v>191</v>
       </c>
-      <c r="N126" s="23">
+      <c r="N162" s="23">
         <f t="shared" si="1"/>
         <v>90.4</v>
       </c>
     </row>
-    <row r="127" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="32" t="s">
+    <row r="163" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D127" s="28">
-        <f>((D126/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D163" s="28">
+        <f>((D162/ 'First Table'!I12  )*100)/D5</f>
         <v>60.407586978528435</v>
       </c>
-      <c r="E127" s="28">
-        <f>((E126/   'First Table'!I13   )*100)/E5</f>
+      <c r="E163" s="28">
+        <f>((E162/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F127" s="28">
-        <f>((F126/   'First Table'!I14    )*100)/F5</f>
+      <c r="F163" s="28">
+        <f>((F162/   'First Table'!I14    )*100)/F5</f>
         <v>49.707652596975677</v>
       </c>
-      <c r="G127" s="28">
-        <f>((G126/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G163" s="28">
+        <f>((G162/ 'First Table'!I15  )*100)/G5</f>
         <v>66.150104547480638</v>
       </c>
-      <c r="H127" s="28">
-        <f>((H126/   'First Table'!I16    )*100)/H5</f>
+      <c r="H163" s="28">
+        <f>((H162/   'First Table'!I16    )*100)/H5</f>
         <v>38.947946869857873</v>
       </c>
-      <c r="I127" s="20" t="e">
-        <f>((I126/   'First Table'!I29    )*100)/I29</f>
+      <c r="I163" s="20" t="e">
+        <f>((I162/   'First Table'!I29    )*100)/I29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K127" s="23">
-        <f t="shared" si="56"/>
+      <c r="K163" s="23">
+        <f t="shared" si="60"/>
         <v>287.47848718043065</v>
       </c>
-      <c r="L127" s="23">
+      <c r="L163" s="23">
         <f t="shared" si="14"/>
         <v>38.947946869857873</v>
       </c>
-      <c r="M127" s="23">
+      <c r="M163" s="23">
         <f t="shared" si="15"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N127" s="23">
+      <c r="N163" s="23">
         <f t="shared" si="1"/>
         <v>57.495697436086132</v>
       </c>
     </row>
-    <row r="128" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C128" s="35" t="s">
+    <row r="164" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C164" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D128" s="28">
+      <c r="D164" s="28">
         <v>16</v>
       </c>
-      <c r="E128" s="28">
+      <c r="E164" s="28">
         <v>60</v>
       </c>
-      <c r="F128" s="28">
+      <c r="F164" s="28">
         <v>131</v>
       </c>
-      <c r="G128" s="28">
+      <c r="G164" s="28">
         <v>54</v>
       </c>
-      <c r="H128" s="28">
+      <c r="H164" s="28">
         <v>203</v>
       </c>
-      <c r="I128" s="20">
+      <c r="I164" s="20">
         <v>194</v>
       </c>
-      <c r="K128" s="23">
-        <f t="shared" si="56"/>
+      <c r="K164" s="23">
+        <f t="shared" si="60"/>
         <v>464</v>
       </c>
-      <c r="L128" s="23">
+      <c r="L164" s="23">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="M128" s="23">
+      <c r="M164" s="23">
         <f t="shared" si="15"/>
         <v>203</v>
       </c>
-      <c r="N128" s="23">
+      <c r="N164" s="23">
         <f t="shared" si="1"/>
         <v>92.8</v>
       </c>
     </row>
-    <row r="129" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="30" t="s">
+    <row r="165" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D129" s="31">
-        <f>((D128/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D165" s="31">
+        <f>((D164/ 'First Table'!I12  )*100)/D5</f>
         <v>64.434759443763653</v>
       </c>
-      <c r="E129" s="28">
-        <f>((E128/   'First Table'!I13   )*100)/E5</f>
+      <c r="E165" s="28">
+        <f>((E164/   'First Table'!I13   )*100)/E5</f>
         <v>72.26519618758806</v>
       </c>
-      <c r="F129" s="28">
-        <f>((F128/   'First Table'!I14    )*100)/F5</f>
+      <c r="F165" s="28">
+        <f>((F164/   'First Table'!I14    )*100)/F5</f>
         <v>48.960169099276797</v>
       </c>
-      <c r="G129" s="28">
-        <f>((G128/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G165" s="28">
+        <f>((G164/ 'First Table'!I15  )*100)/G5</f>
         <v>67.398219727621765</v>
       </c>
-      <c r="H129" s="31">
-        <f>((H128/   'First Table'!I16    )*100)/H5</f>
+      <c r="H165" s="31">
+        <f>((H164/   'First Table'!I16    )*100)/H5</f>
         <v>41.394938296236383</v>
       </c>
-      <c r="I129" s="20" t="e">
-        <f>((I128/   'First Table'!I29    )*100)/I29</f>
+      <c r="I165" s="20" t="e">
+        <f>((I164/   'First Table'!I29    )*100)/I29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K129" s="23">
-        <f t="shared" si="56"/>
+      <c r="K165" s="23">
+        <f t="shared" si="60"/>
         <v>294.45328275448668</v>
       </c>
-      <c r="L129" s="23">
+      <c r="L165" s="23">
         <f t="shared" si="14"/>
         <v>41.394938296236383</v>
       </c>
-      <c r="M129" s="23">
+      <c r="M165" s="23">
         <f t="shared" si="15"/>
         <v>72.26519618758806</v>
       </c>
-      <c r="N129" s="23">
+      <c r="N165" s="23">
         <f t="shared" si="1"/>
         <v>58.890656550897333</v>
       </c>
     </row>
-    <row r="130" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C130" s="21" t="s">
+    <row r="166" spans="3:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C166" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D130" s="20"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-    </row>
-    <row r="131" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="21" t="s">
+      <c r="D166" s="20"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+    </row>
+    <row r="167" spans="3:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D131" s="20">
-        <f>((D130/ 'First Table'!I12  )*100)/D5</f>
+      <c r="D167" s="20">
+        <f>((D166/ 'First Table'!I12  )*100)/D5</f>
         <v>0</v>
       </c>
-      <c r="E131" s="28">
-        <f>((E130/   'First Table'!I13   )*100)/E5</f>
+      <c r="E167" s="28">
+        <f>((E166/   'First Table'!I13   )*100)/E5</f>
         <v>0</v>
       </c>
-      <c r="F131" s="28">
-        <f>((F130/   'First Table'!I14    )*100)/F5</f>
+      <c r="F167" s="28">
+        <f>((F166/   'First Table'!I14    )*100)/F5</f>
         <v>0</v>
       </c>
-      <c r="G131" s="20">
-        <f>((G130/ 'First Table'!I15  )*100)/G5</f>
+      <c r="G167" s="20">
+        <f>((G166/ 'First Table'!I15  )*100)/G5</f>
         <v>0</v>
       </c>
-      <c r="H131" s="20">
-        <f>((H130/   'First Table'!I16    )*100)/H5</f>
+      <c r="H167" s="20">
+        <f>((H166/   'First Table'!I16    )*100)/H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C159" s="2" t="s">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C195" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G159">
+      <c r="G195">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C160" s="2" t="s">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C196" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D196" t="s">
         <v>8</v>
       </c>
-      <c r="G160">
+      <c r="G196">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C161" s="2" t="s">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C197" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G161">
+      <c r="G197">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C162" s="2" t="s">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C198" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G162">
+      <c r="G198">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C163" s="2" t="s">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C199" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G163">
+      <c r="G199">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C164" s="2" t="s">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C200" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D200" t="s">
         <v>55</v>
       </c>
-      <c r="G164">
+      <c r="G200">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C165" s="2" t="s">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C201" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D201" t="s">
         <v>56</v>
       </c>
-      <c r="G165">
+      <c r="G201">
         <v>2</v>
       </c>
     </row>
